--- a/storage/app/templates/PersonalDataSheet.xlsx
+++ b/storage/app/templates/PersonalDataSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7650" windowWidth="20490" windowHeight="7890" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="9000" windowWidth="20490" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="C1" sheetId="1" r:id="rId1"/>
@@ -682,13 +682,6 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Narrow"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
@@ -843,6 +836,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1609,10 +1610,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1628,10 +1625,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1647,7 +1640,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1824,260 +1817,686 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="29" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="29" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="29" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="30" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="30" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2098,498 +2517,175 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2597,17 +2693,37 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2621,228 +2737,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2852,13 +2746,13 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2870,17 +2764,345 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2893,242 +3115,23 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -3813,8 +3816,8 @@
   </sheetPr>
   <dimension ref="A1:P257"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" topLeftCell="A39" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50:E50"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3836,81 +3839,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="2.25" customHeight="1">
-      <c r="A1" s="160"/>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="162"/>
+      <c r="A1" s="295"/>
+      <c r="B1" s="296"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="296"/>
+      <c r="K1" s="296"/>
+      <c r="L1" s="296"/>
+      <c r="M1" s="296"/>
+      <c r="N1" s="297"/>
     </row>
     <row r="2" spans="1:14" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="168"/>
+      <c r="B2" s="302"/>
+      <c r="C2" s="302"/>
+      <c r="D2" s="302"/>
+      <c r="E2" s="302"/>
+      <c r="F2" s="302"/>
+      <c r="G2" s="302"/>
+      <c r="H2" s="302"/>
+      <c r="I2" s="302"/>
+      <c r="J2" s="302"/>
+      <c r="K2" s="302"/>
+      <c r="L2" s="302"/>
+      <c r="M2" s="302"/>
+      <c r="N2" s="303"/>
     </row>
     <row r="3" spans="1:14" ht="66.75" customHeight="1">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="298" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="164"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="165"/>
+      <c r="B3" s="299"/>
+      <c r="C3" s="299"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="299"/>
+      <c r="F3" s="299"/>
+      <c r="G3" s="299"/>
+      <c r="H3" s="299"/>
+      <c r="I3" s="299"/>
+      <c r="J3" s="299"/>
+      <c r="K3" s="299"/>
+      <c r="L3" s="299"/>
+      <c r="M3" s="299"/>
+      <c r="N3" s="300"/>
     </row>
     <row r="4" spans="1:14" s="17" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="174" t="s">
+      <c r="A4" s="309" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="169" t="s">
+      <c r="B4" s="310"/>
+      <c r="C4" s="310"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="311"/>
+      <c r="I4" s="304" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="170"/>
-      <c r="K4" s="171" t="s">
+      <c r="J4" s="305"/>
+      <c r="K4" s="306" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="172"/>
-      <c r="M4" s="172"/>
-      <c r="N4" s="173"/>
+      <c r="L4" s="307"/>
+      <c r="M4" s="307"/>
+      <c r="N4" s="308"/>
     </row>
     <row r="5" spans="1:14" ht="2.25" customHeight="1">
-      <c r="A5" s="30"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -3923,937 +3926,937 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
-      <c r="N5" s="31"/>
+      <c r="N5" s="29"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1">
-      <c r="A6" s="181" t="s">
+      <c r="A6" s="312" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
-      <c r="J6" s="182"/>
-      <c r="K6" s="182"/>
-      <c r="L6" s="182"/>
-      <c r="M6" s="182"/>
-      <c r="N6" s="183"/>
+      <c r="B6" s="313"/>
+      <c r="C6" s="313"/>
+      <c r="D6" s="313"/>
+      <c r="E6" s="313"/>
+      <c r="F6" s="313"/>
+      <c r="G6" s="313"/>
+      <c r="H6" s="313"/>
+      <c r="I6" s="313"/>
+      <c r="J6" s="313"/>
+      <c r="K6" s="313"/>
+      <c r="L6" s="313"/>
+      <c r="M6" s="313"/>
+      <c r="N6" s="314"/>
     </row>
     <row r="7" spans="1:14" ht="21" customHeight="1">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="187"/>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188"/>
-      <c r="H7" s="188"/>
-      <c r="I7" s="188"/>
-      <c r="J7" s="188"/>
-      <c r="K7" s="188"/>
-      <c r="L7" s="188"/>
-      <c r="M7" s="188"/>
-      <c r="N7" s="189"/>
+      <c r="C7" s="318"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="319"/>
+      <c r="J7" s="319"/>
+      <c r="K7" s="319"/>
+      <c r="L7" s="319"/>
+      <c r="M7" s="319"/>
+      <c r="N7" s="320"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A8" s="97"/>
-      <c r="B8" s="98" t="s">
+      <c r="A8" s="95"/>
+      <c r="B8" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="190"/>
-      <c r="D8" s="191"/>
-      <c r="E8" s="191"/>
-      <c r="F8" s="191"/>
-      <c r="G8" s="191"/>
-      <c r="H8" s="191"/>
-      <c r="I8" s="191"/>
-      <c r="J8" s="191"/>
-      <c r="K8" s="191"/>
-      <c r="L8" s="191"/>
-      <c r="M8" s="191"/>
-      <c r="N8" s="192"/>
+      <c r="C8" s="321"/>
+      <c r="D8" s="322"/>
+      <c r="E8" s="322"/>
+      <c r="F8" s="322"/>
+      <c r="G8" s="322"/>
+      <c r="H8" s="322"/>
+      <c r="I8" s="322"/>
+      <c r="J8" s="322"/>
+      <c r="K8" s="322"/>
+      <c r="L8" s="322"/>
+      <c r="M8" s="322"/>
+      <c r="N8" s="323"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A9" s="99"/>
-      <c r="B9" s="100" t="s">
+      <c r="A9" s="97"/>
+      <c r="B9" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="177"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="180"/>
-      <c r="J9" s="211" t="s">
+      <c r="C9" s="283"/>
+      <c r="D9" s="229"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="229"/>
+      <c r="G9" s="232"/>
+      <c r="H9" s="232"/>
+      <c r="I9" s="230"/>
+      <c r="J9" s="264" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="212"/>
-      <c r="L9" s="212"/>
-      <c r="M9" s="213"/>
-      <c r="N9" s="140"/>
+      <c r="K9" s="265"/>
+      <c r="L9" s="265"/>
+      <c r="M9" s="266"/>
+      <c r="N9" s="138"/>
     </row>
     <row r="10" spans="1:14" ht="18.95" customHeight="1">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="212" t="s">
+      <c r="B10" s="265" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="212"/>
-      <c r="D10" s="213"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="214"/>
-      <c r="G10" s="222" t="s">
+      <c r="C10" s="265"/>
+      <c r="D10" s="266"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="267"/>
+      <c r="G10" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="223"/>
-      <c r="I10" s="195"/>
-      <c r="J10" s="195"/>
-      <c r="K10" s="195"/>
-      <c r="L10" s="195"/>
-      <c r="M10" s="195"/>
-      <c r="N10" s="196"/>
+      <c r="H10" s="278"/>
+      <c r="I10" s="324"/>
+      <c r="J10" s="324"/>
+      <c r="K10" s="324"/>
+      <c r="L10" s="324"/>
+      <c r="M10" s="324"/>
+      <c r="N10" s="325"/>
     </row>
     <row r="11" spans="1:14" ht="18.95" customHeight="1">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="377"/>
-      <c r="D11" s="509"/>
-      <c r="E11" s="509"/>
-      <c r="F11" s="509"/>
-      <c r="G11" s="224"/>
-      <c r="H11" s="225"/>
-      <c r="I11" s="197"/>
-      <c r="J11" s="197"/>
-      <c r="K11" s="197"/>
-      <c r="L11" s="197"/>
-      <c r="M11" s="197"/>
-      <c r="N11" s="198"/>
+      <c r="C11" s="275"/>
+      <c r="D11" s="276"/>
+      <c r="E11" s="276"/>
+      <c r="F11" s="276"/>
+      <c r="G11" s="279"/>
+      <c r="H11" s="280"/>
+      <c r="I11" s="326"/>
+      <c r="J11" s="326"/>
+      <c r="K11" s="326"/>
+      <c r="L11" s="326"/>
+      <c r="M11" s="326"/>
+      <c r="N11" s="327"/>
     </row>
     <row r="12" spans="1:14" ht="18.95" customHeight="1">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="202"/>
-      <c r="D12" s="203"/>
-      <c r="E12" s="203"/>
-      <c r="F12" s="203"/>
-      <c r="G12" s="224"/>
-      <c r="H12" s="225"/>
-      <c r="I12" s="199"/>
-      <c r="J12" s="199"/>
-      <c r="K12" s="199"/>
-      <c r="L12" s="199"/>
-      <c r="M12" s="199"/>
-      <c r="N12" s="200"/>
+      <c r="C12" s="330"/>
+      <c r="D12" s="331"/>
+      <c r="E12" s="331"/>
+      <c r="F12" s="331"/>
+      <c r="G12" s="279"/>
+      <c r="H12" s="280"/>
+      <c r="I12" s="328"/>
+      <c r="J12" s="328"/>
+      <c r="K12" s="328"/>
+      <c r="L12" s="328"/>
+      <c r="M12" s="328"/>
+      <c r="N12" s="329"/>
     </row>
     <row r="13" spans="1:14" ht="18.95" customHeight="1">
-      <c r="A13" s="184" t="s">
+      <c r="A13" s="315" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="215" t="s">
+      <c r="B13" s="268" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="131"/>
-      <c r="D13" s="218"/>
-      <c r="E13" s="219"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="226" t="s">
+      <c r="C13" s="129"/>
+      <c r="D13" s="271"/>
+      <c r="E13" s="272"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="281" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="227"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="193"/>
-      <c r="K13" s="193"/>
-      <c r="L13" s="193"/>
-      <c r="M13" s="193"/>
-      <c r="N13" s="194"/>
+      <c r="H13" s="282"/>
+      <c r="I13" s="289"/>
+      <c r="J13" s="289"/>
+      <c r="K13" s="289"/>
+      <c r="L13" s="289"/>
+      <c r="M13" s="289"/>
+      <c r="N13" s="290"/>
     </row>
     <row r="14" spans="1:14" ht="18.95" customHeight="1">
-      <c r="A14" s="185"/>
-      <c r="B14" s="216"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="220"/>
-      <c r="E14" s="220"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="105" t="s">
+      <c r="A14" s="316"/>
+      <c r="B14" s="269"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="273"/>
+      <c r="E14" s="273"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="106"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="193"/>
-      <c r="K14" s="193"/>
-      <c r="L14" s="193"/>
-      <c r="M14" s="193"/>
-      <c r="N14" s="194"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="289"/>
+      <c r="J14" s="289"/>
+      <c r="K14" s="289"/>
+      <c r="L14" s="289"/>
+      <c r="M14" s="289"/>
+      <c r="N14" s="290"/>
     </row>
     <row r="15" spans="1:14" ht="18.95" customHeight="1">
-      <c r="A15" s="186"/>
-      <c r="B15" s="217"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="221"/>
-      <c r="E15" s="221"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="222" t="s">
+      <c r="A15" s="317"/>
+      <c r="B15" s="270"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="274"/>
+      <c r="E15" s="274"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="277" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="223"/>
-      <c r="I15" s="195"/>
-      <c r="J15" s="195"/>
-      <c r="K15" s="195"/>
-      <c r="L15" s="195"/>
-      <c r="M15" s="195"/>
-      <c r="N15" s="196"/>
+      <c r="H15" s="278"/>
+      <c r="I15" s="324"/>
+      <c r="J15" s="324"/>
+      <c r="K15" s="324"/>
+      <c r="L15" s="324"/>
+      <c r="M15" s="324"/>
+      <c r="N15" s="325"/>
     </row>
     <row r="16" spans="1:14" ht="18.95" customHeight="1">
-      <c r="A16" s="107" t="s">
+      <c r="A16" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="233"/>
-      <c r="D16" s="234"/>
-      <c r="E16" s="234"/>
-      <c r="F16" s="235"/>
-      <c r="G16" s="224"/>
-      <c r="H16" s="225"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="197"/>
-      <c r="K16" s="197"/>
-      <c r="L16" s="197"/>
-      <c r="M16" s="197"/>
-      <c r="N16" s="198"/>
+      <c r="C16" s="284"/>
+      <c r="D16" s="285"/>
+      <c r="E16" s="285"/>
+      <c r="F16" s="286"/>
+      <c r="G16" s="279"/>
+      <c r="H16" s="280"/>
+      <c r="I16" s="326"/>
+      <c r="J16" s="326"/>
+      <c r="K16" s="326"/>
+      <c r="L16" s="326"/>
+      <c r="M16" s="326"/>
+      <c r="N16" s="327"/>
     </row>
     <row r="17" spans="1:14" ht="18.95" customHeight="1">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="109" t="s">
+      <c r="B17" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="201"/>
-      <c r="D17" s="179"/>
-      <c r="E17" s="179"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="224"/>
-      <c r="H17" s="225"/>
-      <c r="I17" s="199"/>
-      <c r="J17" s="199"/>
-      <c r="K17" s="199"/>
-      <c r="L17" s="199"/>
-      <c r="M17" s="199"/>
-      <c r="N17" s="200"/>
+      <c r="C17" s="231"/>
+      <c r="D17" s="232"/>
+      <c r="E17" s="232"/>
+      <c r="F17" s="232"/>
+      <c r="G17" s="279"/>
+      <c r="H17" s="280"/>
+      <c r="I17" s="328"/>
+      <c r="J17" s="328"/>
+      <c r="K17" s="328"/>
+      <c r="L17" s="328"/>
+      <c r="M17" s="328"/>
+      <c r="N17" s="329"/>
     </row>
     <row r="18" spans="1:14" ht="18.95" customHeight="1">
-      <c r="A18" s="107" t="s">
+      <c r="A18" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="201"/>
-      <c r="D18" s="179"/>
-      <c r="E18" s="179"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="226" t="s">
+      <c r="C18" s="231"/>
+      <c r="D18" s="232"/>
+      <c r="E18" s="232"/>
+      <c r="F18" s="232"/>
+      <c r="G18" s="281" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="238"/>
-      <c r="I18" s="229"/>
-      <c r="J18" s="229"/>
-      <c r="K18" s="229"/>
-      <c r="L18" s="229"/>
-      <c r="M18" s="229"/>
-      <c r="N18" s="230"/>
+      <c r="H18" s="291"/>
+      <c r="I18" s="233"/>
+      <c r="J18" s="233"/>
+      <c r="K18" s="233"/>
+      <c r="L18" s="233"/>
+      <c r="M18" s="233"/>
+      <c r="N18" s="234"/>
     </row>
     <row r="19" spans="1:14" ht="18.95" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="201"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="179"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="236" t="s">
+      <c r="C19" s="231"/>
+      <c r="D19" s="232"/>
+      <c r="E19" s="232"/>
+      <c r="F19" s="232"/>
+      <c r="G19" s="287" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="237"/>
-      <c r="I19" s="229"/>
-      <c r="J19" s="229"/>
-      <c r="K19" s="229"/>
-      <c r="L19" s="229"/>
-      <c r="M19" s="229"/>
-      <c r="N19" s="230"/>
+      <c r="H19" s="288"/>
+      <c r="I19" s="233"/>
+      <c r="J19" s="233"/>
+      <c r="K19" s="233"/>
+      <c r="L19" s="233"/>
+      <c r="M19" s="233"/>
+      <c r="N19" s="234"/>
     </row>
     <row r="20" spans="1:14" ht="18.95" customHeight="1">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="100" t="s">
         <v>167</v>
       </c>
-      <c r="B20" s="111" t="s">
+      <c r="B20" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="201"/>
-      <c r="D20" s="179"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="231" t="s">
+      <c r="C20" s="231"/>
+      <c r="D20" s="232"/>
+      <c r="E20" s="232"/>
+      <c r="F20" s="232"/>
+      <c r="G20" s="236" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="232"/>
-      <c r="I20" s="228"/>
-      <c r="J20" s="229"/>
-      <c r="K20" s="229"/>
-      <c r="L20" s="229"/>
-      <c r="M20" s="229"/>
-      <c r="N20" s="230"/>
+      <c r="H20" s="237"/>
+      <c r="I20" s="235"/>
+      <c r="J20" s="233"/>
+      <c r="K20" s="233"/>
+      <c r="L20" s="233"/>
+      <c r="M20" s="233"/>
+      <c r="N20" s="234"/>
     </row>
     <row r="21" spans="1:14" ht="18.95" customHeight="1">
-      <c r="A21" s="101" t="s">
+      <c r="A21" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="112" t="s">
+      <c r="B21" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="177"/>
-      <c r="D21" s="178"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="231" t="s">
+      <c r="C21" s="283"/>
+      <c r="D21" s="229"/>
+      <c r="E21" s="229"/>
+      <c r="F21" s="230"/>
+      <c r="G21" s="236" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="232"/>
-      <c r="I21" s="228"/>
-      <c r="J21" s="229"/>
-      <c r="K21" s="229"/>
-      <c r="L21" s="229"/>
-      <c r="M21" s="229"/>
-      <c r="N21" s="230"/>
+      <c r="H21" s="237"/>
+      <c r="I21" s="235"/>
+      <c r="J21" s="233"/>
+      <c r="K21" s="233"/>
+      <c r="L21" s="233"/>
+      <c r="M21" s="233"/>
+      <c r="N21" s="234"/>
     </row>
     <row r="22" spans="1:14" ht="18.95" customHeight="1">
-      <c r="A22" s="102" t="s">
+      <c r="A22" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="178"/>
-      <c r="D22" s="178"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="260" t="s">
+      <c r="C22" s="229"/>
+      <c r="D22" s="229"/>
+      <c r="E22" s="229"/>
+      <c r="F22" s="230"/>
+      <c r="G22" s="255" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="261"/>
-      <c r="I22" s="228"/>
-      <c r="J22" s="229"/>
-      <c r="K22" s="229"/>
-      <c r="L22" s="229"/>
-      <c r="M22" s="229"/>
-      <c r="N22" s="230"/>
+      <c r="H22" s="256"/>
+      <c r="I22" s="235"/>
+      <c r="J22" s="233"/>
+      <c r="K22" s="233"/>
+      <c r="L22" s="233"/>
+      <c r="M22" s="233"/>
+      <c r="N22" s="234"/>
     </row>
     <row r="23" spans="1:14" ht="18.95" customHeight="1">
-      <c r="A23" s="113" t="s">
+      <c r="A23" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="114" t="s">
+      <c r="B23" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="257"/>
-      <c r="D23" s="258"/>
-      <c r="E23" s="258"/>
-      <c r="F23" s="259"/>
-      <c r="G23" s="243" t="s">
+      <c r="C23" s="252"/>
+      <c r="D23" s="253"/>
+      <c r="E23" s="253"/>
+      <c r="F23" s="254"/>
+      <c r="G23" s="238" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="244"/>
-      <c r="I23" s="204"/>
-      <c r="J23" s="205"/>
-      <c r="K23" s="205"/>
-      <c r="L23" s="205"/>
-      <c r="M23" s="205"/>
-      <c r="N23" s="206"/>
+      <c r="H23" s="239"/>
+      <c r="I23" s="257"/>
+      <c r="J23" s="258"/>
+      <c r="K23" s="258"/>
+      <c r="L23" s="258"/>
+      <c r="M23" s="258"/>
+      <c r="N23" s="259"/>
     </row>
     <row r="24" spans="1:14" ht="18" customHeight="1">
-      <c r="A24" s="253" t="s">
+      <c r="A24" s="248" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="254"/>
-      <c r="C24" s="254"/>
-      <c r="D24" s="254"/>
-      <c r="E24" s="254"/>
-      <c r="F24" s="254"/>
-      <c r="G24" s="254"/>
-      <c r="H24" s="254"/>
-      <c r="I24" s="254"/>
-      <c r="J24" s="254"/>
-      <c r="K24" s="254"/>
-      <c r="L24" s="254"/>
-      <c r="M24" s="254"/>
-      <c r="N24" s="255"/>
+      <c r="B24" s="249"/>
+      <c r="C24" s="249"/>
+      <c r="D24" s="249"/>
+      <c r="E24" s="249"/>
+      <c r="F24" s="249"/>
+      <c r="G24" s="249"/>
+      <c r="H24" s="249"/>
+      <c r="I24" s="249"/>
+      <c r="J24" s="249"/>
+      <c r="K24" s="249"/>
+      <c r="L24" s="249"/>
+      <c r="M24" s="249"/>
+      <c r="N24" s="250"/>
     </row>
     <row r="25" spans="1:14" ht="18.95" customHeight="1">
-      <c r="A25" s="115" t="s">
+      <c r="A25" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="116" t="s">
+      <c r="B25" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="207"/>
-      <c r="D25" s="207"/>
-      <c r="E25" s="207"/>
-      <c r="F25" s="207"/>
-      <c r="G25" s="207"/>
-      <c r="H25" s="256" t="s">
+      <c r="C25" s="260"/>
+      <c r="D25" s="260"/>
+      <c r="E25" s="260"/>
+      <c r="F25" s="260"/>
+      <c r="G25" s="260"/>
+      <c r="H25" s="251" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="256"/>
-      <c r="J25" s="256"/>
-      <c r="K25" s="256"/>
-      <c r="L25" s="256"/>
-      <c r="M25" s="151" t="s">
+      <c r="I25" s="251"/>
+      <c r="J25" s="251"/>
+      <c r="K25" s="251"/>
+      <c r="L25" s="251"/>
+      <c r="M25" s="292" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="152"/>
+      <c r="N25" s="293"/>
     </row>
     <row r="26" spans="1:14" ht="18.95" customHeight="1">
-      <c r="A26" s="117"/>
-      <c r="B26" s="118" t="s">
+      <c r="A26" s="115"/>
+      <c r="B26" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="159"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="245"/>
-      <c r="I26" s="246"/>
-      <c r="J26" s="246"/>
-      <c r="K26" s="246"/>
-      <c r="L26" s="247"/>
-      <c r="M26" s="153"/>
-      <c r="N26" s="154"/>
+      <c r="C26" s="294"/>
+      <c r="D26" s="294"/>
+      <c r="E26" s="294"/>
+      <c r="F26" s="294"/>
+      <c r="G26" s="294"/>
+      <c r="H26" s="240"/>
+      <c r="I26" s="241"/>
+      <c r="J26" s="241"/>
+      <c r="K26" s="241"/>
+      <c r="L26" s="242"/>
+      <c r="M26" s="223"/>
+      <c r="N26" s="224"/>
     </row>
     <row r="27" spans="1:14" ht="18.95" customHeight="1">
-      <c r="A27" s="119"/>
-      <c r="B27" s="120" t="s">
+      <c r="A27" s="117"/>
+      <c r="B27" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="159"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="159"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="155"/>
-      <c r="I27" s="156"/>
-      <c r="J27" s="156"/>
-      <c r="K27" s="156"/>
-      <c r="L27" s="157"/>
-      <c r="M27" s="153"/>
-      <c r="N27" s="154"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="294"/>
+      <c r="E27" s="294"/>
+      <c r="F27" s="294"/>
+      <c r="G27" s="294"/>
+      <c r="H27" s="179"/>
+      <c r="I27" s="180"/>
+      <c r="J27" s="180"/>
+      <c r="K27" s="180"/>
+      <c r="L27" s="181"/>
+      <c r="M27" s="223"/>
+      <c r="N27" s="224"/>
     </row>
     <row r="28" spans="1:14" ht="18.95" customHeight="1">
-      <c r="A28" s="119"/>
-      <c r="B28" s="106" t="s">
+      <c r="A28" s="117"/>
+      <c r="B28" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="158"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="156"/>
-      <c r="L28" s="157"/>
-      <c r="M28" s="153"/>
-      <c r="N28" s="154"/>
+      <c r="C28" s="220"/>
+      <c r="D28" s="220"/>
+      <c r="E28" s="220"/>
+      <c r="F28" s="220"/>
+      <c r="G28" s="220"/>
+      <c r="H28" s="179"/>
+      <c r="I28" s="180"/>
+      <c r="J28" s="180"/>
+      <c r="K28" s="180"/>
+      <c r="L28" s="181"/>
+      <c r="M28" s="223"/>
+      <c r="N28" s="224"/>
     </row>
     <row r="29" spans="1:14" ht="18.95" customHeight="1">
-      <c r="A29" s="121"/>
-      <c r="B29" s="111" t="s">
+      <c r="A29" s="119"/>
+      <c r="B29" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="158"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="155"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="156"/>
-      <c r="L29" s="157"/>
-      <c r="M29" s="153"/>
-      <c r="N29" s="154"/>
+      <c r="C29" s="220"/>
+      <c r="D29" s="220"/>
+      <c r="E29" s="220"/>
+      <c r="F29" s="220"/>
+      <c r="G29" s="220"/>
+      <c r="H29" s="179"/>
+      <c r="I29" s="180"/>
+      <c r="J29" s="180"/>
+      <c r="K29" s="180"/>
+      <c r="L29" s="181"/>
+      <c r="M29" s="223"/>
+      <c r="N29" s="224"/>
     </row>
     <row r="30" spans="1:14" ht="18.95" customHeight="1">
-      <c r="A30" s="121"/>
-      <c r="B30" s="106" t="s">
+      <c r="A30" s="119"/>
+      <c r="B30" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="158"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="155"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="156"/>
-      <c r="L30" s="157"/>
-      <c r="M30" s="153"/>
-      <c r="N30" s="154"/>
+      <c r="C30" s="220"/>
+      <c r="D30" s="220"/>
+      <c r="E30" s="220"/>
+      <c r="F30" s="220"/>
+      <c r="G30" s="220"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="180"/>
+      <c r="J30" s="180"/>
+      <c r="K30" s="180"/>
+      <c r="L30" s="181"/>
+      <c r="M30" s="223"/>
+      <c r="N30" s="224"/>
     </row>
     <row r="31" spans="1:14" ht="18.95" customHeight="1">
-      <c r="A31" s="117"/>
-      <c r="B31" s="122" t="s">
+      <c r="A31" s="115"/>
+      <c r="B31" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="248"/>
-      <c r="D31" s="248"/>
-      <c r="E31" s="248"/>
-      <c r="F31" s="248"/>
-      <c r="G31" s="248"/>
-      <c r="H31" s="155"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="156"/>
-      <c r="L31" s="157"/>
-      <c r="M31" s="153"/>
-      <c r="N31" s="154"/>
+      <c r="C31" s="243"/>
+      <c r="D31" s="243"/>
+      <c r="E31" s="243"/>
+      <c r="F31" s="243"/>
+      <c r="G31" s="243"/>
+      <c r="H31" s="179"/>
+      <c r="I31" s="180"/>
+      <c r="J31" s="180"/>
+      <c r="K31" s="180"/>
+      <c r="L31" s="181"/>
+      <c r="M31" s="223"/>
+      <c r="N31" s="224"/>
     </row>
     <row r="32" spans="1:14" ht="18.95" customHeight="1">
-      <c r="A32" s="249" t="s">
+      <c r="A32" s="244" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="250"/>
-      <c r="C32" s="250"/>
-      <c r="D32" s="250"/>
-      <c r="E32" s="250"/>
-      <c r="F32" s="250"/>
-      <c r="G32" s="251"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="156"/>
-      <c r="J32" s="156"/>
-      <c r="K32" s="156"/>
-      <c r="L32" s="157"/>
-      <c r="M32" s="153"/>
-      <c r="N32" s="154"/>
+      <c r="B32" s="245"/>
+      <c r="C32" s="245"/>
+      <c r="D32" s="245"/>
+      <c r="E32" s="245"/>
+      <c r="F32" s="245"/>
+      <c r="G32" s="246"/>
+      <c r="H32" s="179"/>
+      <c r="I32" s="180"/>
+      <c r="J32" s="180"/>
+      <c r="K32" s="180"/>
+      <c r="L32" s="181"/>
+      <c r="M32" s="223"/>
+      <c r="N32" s="224"/>
     </row>
     <row r="33" spans="1:16" ht="18.95" customHeight="1">
-      <c r="A33" s="123" t="s">
+      <c r="A33" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="239" t="s">
+      <c r="B33" s="227" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="252"/>
-      <c r="D33" s="208"/>
-      <c r="E33" s="209"/>
-      <c r="F33" s="209"/>
-      <c r="G33" s="210"/>
-      <c r="H33" s="155"/>
-      <c r="I33" s="156"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="156"/>
-      <c r="L33" s="157"/>
-      <c r="M33" s="153"/>
-      <c r="N33" s="154"/>
+      <c r="C33" s="247"/>
+      <c r="D33" s="261"/>
+      <c r="E33" s="262"/>
+      <c r="F33" s="262"/>
+      <c r="G33" s="263"/>
+      <c r="H33" s="179"/>
+      <c r="I33" s="180"/>
+      <c r="J33" s="180"/>
+      <c r="K33" s="180"/>
+      <c r="L33" s="181"/>
+      <c r="M33" s="223"/>
+      <c r="N33" s="224"/>
     </row>
     <row r="34" spans="1:16" ht="18.95" customHeight="1">
-      <c r="A34" s="124"/>
-      <c r="B34" s="239" t="s">
+      <c r="A34" s="122"/>
+      <c r="B34" s="227" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="240"/>
-      <c r="D34" s="241"/>
-      <c r="E34" s="241"/>
-      <c r="F34" s="241"/>
-      <c r="G34" s="242"/>
-      <c r="H34" s="155"/>
-      <c r="I34" s="156"/>
-      <c r="J34" s="156"/>
-      <c r="K34" s="156"/>
-      <c r="L34" s="157"/>
-      <c r="M34" s="153"/>
-      <c r="N34" s="154"/>
+      <c r="C34" s="228"/>
+      <c r="D34" s="217"/>
+      <c r="E34" s="217"/>
+      <c r="F34" s="217"/>
+      <c r="G34" s="218"/>
+      <c r="H34" s="179"/>
+      <c r="I34" s="180"/>
+      <c r="J34" s="180"/>
+      <c r="K34" s="180"/>
+      <c r="L34" s="181"/>
+      <c r="M34" s="223"/>
+      <c r="N34" s="224"/>
     </row>
     <row r="35" spans="1:16" ht="18.95" customHeight="1">
-      <c r="A35" s="125"/>
-      <c r="B35" s="303" t="s">
+      <c r="A35" s="123"/>
+      <c r="B35" s="210" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="304"/>
-      <c r="D35" s="241"/>
-      <c r="E35" s="241"/>
-      <c r="F35" s="241"/>
-      <c r="G35" s="242"/>
-      <c r="H35" s="155"/>
-      <c r="I35" s="156"/>
-      <c r="J35" s="156"/>
-      <c r="K35" s="156"/>
-      <c r="L35" s="157"/>
-      <c r="M35" s="153"/>
-      <c r="N35" s="154"/>
+      <c r="C35" s="211"/>
+      <c r="D35" s="217"/>
+      <c r="E35" s="217"/>
+      <c r="F35" s="217"/>
+      <c r="G35" s="218"/>
+      <c r="H35" s="179"/>
+      <c r="I35" s="180"/>
+      <c r="J35" s="180"/>
+      <c r="K35" s="180"/>
+      <c r="L35" s="181"/>
+      <c r="M35" s="223"/>
+      <c r="N35" s="224"/>
     </row>
     <row r="36" spans="1:16" ht="18.95" customHeight="1">
-      <c r="A36" s="126" t="s">
+      <c r="A36" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="270" t="s">
+      <c r="B36" s="225" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="270"/>
-      <c r="D36" s="270"/>
-      <c r="E36" s="270"/>
-      <c r="F36" s="270"/>
-      <c r="G36" s="271"/>
-      <c r="H36" s="155"/>
-      <c r="I36" s="156"/>
-      <c r="J36" s="156"/>
-      <c r="K36" s="156"/>
-      <c r="L36" s="157"/>
-      <c r="M36" s="153"/>
-      <c r="N36" s="154"/>
+      <c r="C36" s="225"/>
+      <c r="D36" s="225"/>
+      <c r="E36" s="225"/>
+      <c r="F36" s="225"/>
+      <c r="G36" s="226"/>
+      <c r="H36" s="179"/>
+      <c r="I36" s="180"/>
+      <c r="J36" s="180"/>
+      <c r="K36" s="180"/>
+      <c r="L36" s="181"/>
+      <c r="M36" s="223"/>
+      <c r="N36" s="224"/>
     </row>
     <row r="37" spans="1:16" ht="18.95" customHeight="1">
-      <c r="A37" s="124"/>
-      <c r="B37" s="239" t="s">
+      <c r="A37" s="122"/>
+      <c r="B37" s="227" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="240"/>
-      <c r="D37" s="267"/>
-      <c r="E37" s="241"/>
-      <c r="F37" s="241"/>
-      <c r="G37" s="242"/>
-      <c r="H37" s="155"/>
-      <c r="I37" s="156"/>
-      <c r="J37" s="156"/>
-      <c r="K37" s="156"/>
-      <c r="L37" s="157"/>
-      <c r="M37" s="153"/>
-      <c r="N37" s="154"/>
+      <c r="C37" s="228"/>
+      <c r="D37" s="219"/>
+      <c r="E37" s="217"/>
+      <c r="F37" s="217"/>
+      <c r="G37" s="218"/>
+      <c r="H37" s="179"/>
+      <c r="I37" s="180"/>
+      <c r="J37" s="180"/>
+      <c r="K37" s="180"/>
+      <c r="L37" s="181"/>
+      <c r="M37" s="223"/>
+      <c r="N37" s="224"/>
     </row>
     <row r="38" spans="1:16" ht="18.95" customHeight="1">
-      <c r="A38" s="124"/>
-      <c r="B38" s="239" t="s">
+      <c r="A38" s="122"/>
+      <c r="B38" s="227" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="240"/>
-      <c r="D38" s="267"/>
-      <c r="E38" s="241"/>
-      <c r="F38" s="241"/>
-      <c r="G38" s="242"/>
-      <c r="H38" s="155"/>
-      <c r="I38" s="156"/>
-      <c r="J38" s="156"/>
-      <c r="K38" s="156"/>
-      <c r="L38" s="157"/>
-      <c r="M38" s="153"/>
-      <c r="N38" s="154"/>
+      <c r="C38" s="228"/>
+      <c r="D38" s="219"/>
+      <c r="E38" s="217"/>
+      <c r="F38" s="217"/>
+      <c r="G38" s="218"/>
+      <c r="H38" s="179"/>
+      <c r="I38" s="180"/>
+      <c r="J38" s="180"/>
+      <c r="K38" s="180"/>
+      <c r="L38" s="181"/>
+      <c r="M38" s="223"/>
+      <c r="N38" s="224"/>
     </row>
     <row r="39" spans="1:16" ht="21" customHeight="1">
-      <c r="A39" s="127"/>
-      <c r="B39" s="262" t="s">
+      <c r="A39" s="125"/>
+      <c r="B39" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="263"/>
-      <c r="D39" s="264"/>
-      <c r="E39" s="265"/>
-      <c r="F39" s="265"/>
-      <c r="G39" s="266"/>
-      <c r="H39" s="268" t="s">
+      <c r="C39" s="213"/>
+      <c r="D39" s="214"/>
+      <c r="E39" s="215"/>
+      <c r="F39" s="215"/>
+      <c r="G39" s="216"/>
+      <c r="H39" s="221" t="s">
         <v>53</v>
       </c>
-      <c r="I39" s="268"/>
-      <c r="J39" s="268"/>
-      <c r="K39" s="268"/>
-      <c r="L39" s="268"/>
-      <c r="M39" s="268"/>
-      <c r="N39" s="269"/>
+      <c r="I39" s="221"/>
+      <c r="J39" s="221"/>
+      <c r="K39" s="221"/>
+      <c r="L39" s="221"/>
+      <c r="M39" s="221"/>
+      <c r="N39" s="222"/>
     </row>
     <row r="40" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A40" s="290" t="s">
+      <c r="A40" s="197" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="291"/>
-      <c r="C40" s="291"/>
-      <c r="D40" s="291"/>
-      <c r="E40" s="291"/>
-      <c r="F40" s="291"/>
-      <c r="G40" s="291"/>
-      <c r="H40" s="291"/>
-      <c r="I40" s="291"/>
-      <c r="J40" s="291"/>
-      <c r="K40" s="291"/>
-      <c r="L40" s="291"/>
-      <c r="M40" s="291"/>
-      <c r="N40" s="292"/>
+      <c r="B40" s="198"/>
+      <c r="C40" s="198"/>
+      <c r="D40" s="198"/>
+      <c r="E40" s="198"/>
+      <c r="F40" s="198"/>
+      <c r="G40" s="198"/>
+      <c r="H40" s="198"/>
+      <c r="I40" s="198"/>
+      <c r="J40" s="198"/>
+      <c r="K40" s="198"/>
+      <c r="L40" s="198"/>
+      <c r="M40" s="198"/>
+      <c r="N40" s="199"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A41" s="293" t="s">
+      <c r="A41" s="200" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="275" t="s">
+      <c r="B41" s="182" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="278" t="s">
+      <c r="C41" s="185" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="287"/>
-      <c r="E41" s="295"/>
-      <c r="F41" s="278" t="s">
+      <c r="D41" s="194"/>
+      <c r="E41" s="202"/>
+      <c r="F41" s="185" t="s">
         <v>62</v>
       </c>
-      <c r="G41" s="279"/>
-      <c r="H41" s="284" t="s">
+      <c r="G41" s="186"/>
+      <c r="H41" s="191" t="s">
         <v>168</v>
       </c>
-      <c r="I41" s="278" t="s">
+      <c r="I41" s="185" t="s">
         <v>63</v>
       </c>
-      <c r="J41" s="287"/>
-      <c r="K41" s="287"/>
-      <c r="L41" s="278" t="s">
+      <c r="J41" s="194"/>
+      <c r="K41" s="194"/>
+      <c r="L41" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="M41" s="287"/>
-      <c r="N41" s="300" t="s">
+      <c r="M41" s="194"/>
+      <c r="N41" s="207" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A42" s="294"/>
-      <c r="B42" s="276"/>
-      <c r="C42" s="288"/>
-      <c r="D42" s="289"/>
-      <c r="E42" s="296"/>
-      <c r="F42" s="280"/>
-      <c r="G42" s="281"/>
-      <c r="H42" s="285"/>
-      <c r="I42" s="288"/>
-      <c r="J42" s="289"/>
-      <c r="K42" s="289"/>
-      <c r="L42" s="288"/>
-      <c r="M42" s="289"/>
-      <c r="N42" s="301"/>
+      <c r="A42" s="201"/>
+      <c r="B42" s="183"/>
+      <c r="C42" s="195"/>
+      <c r="D42" s="196"/>
+      <c r="E42" s="203"/>
+      <c r="F42" s="187"/>
+      <c r="G42" s="188"/>
+      <c r="H42" s="192"/>
+      <c r="I42" s="195"/>
+      <c r="J42" s="196"/>
+      <c r="K42" s="196"/>
+      <c r="L42" s="195"/>
+      <c r="M42" s="196"/>
+      <c r="N42" s="208"/>
     </row>
     <row r="43" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A43" s="128"/>
-      <c r="B43" s="277"/>
-      <c r="C43" s="297"/>
-      <c r="D43" s="298"/>
-      <c r="E43" s="299"/>
-      <c r="F43" s="282"/>
-      <c r="G43" s="283"/>
-      <c r="H43" s="286"/>
-      <c r="I43" s="297"/>
-      <c r="J43" s="298"/>
-      <c r="K43" s="298"/>
-      <c r="L43" s="129" t="s">
+      <c r="A43" s="126"/>
+      <c r="B43" s="184"/>
+      <c r="C43" s="204"/>
+      <c r="D43" s="205"/>
+      <c r="E43" s="206"/>
+      <c r="F43" s="189"/>
+      <c r="G43" s="190"/>
+      <c r="H43" s="193"/>
+      <c r="I43" s="204"/>
+      <c r="J43" s="205"/>
+      <c r="K43" s="205"/>
+      <c r="L43" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="M43" s="129" t="s">
+      <c r="M43" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="N43" s="302"/>
+      <c r="N43" s="209"/>
       <c r="O43" s="12"/>
       <c r="P43" s="12"/>
     </row>
     <row r="44" spans="1:16" ht="30" customHeight="1">
-      <c r="A44" s="308" t="s">
+      <c r="A44" s="155" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="309"/>
-      <c r="C44" s="272"/>
-      <c r="D44" s="305"/>
-      <c r="E44" s="305"/>
-      <c r="F44" s="273"/>
-      <c r="G44" s="274"/>
-      <c r="H44" s="133"/>
-      <c r="I44" s="273"/>
-      <c r="J44" s="312"/>
-      <c r="K44" s="313"/>
-      <c r="L44" s="138"/>
-      <c r="M44" s="138"/>
-      <c r="N44" s="134"/>
+      <c r="B44" s="156"/>
+      <c r="C44" s="178"/>
+      <c r="D44" s="152"/>
+      <c r="E44" s="152"/>
+      <c r="F44" s="150"/>
+      <c r="G44" s="151"/>
+      <c r="H44" s="131"/>
+      <c r="I44" s="150"/>
+      <c r="J44" s="159"/>
+      <c r="K44" s="160"/>
+      <c r="L44" s="136"/>
+      <c r="M44" s="136"/>
+      <c r="N44" s="132"/>
     </row>
     <row r="45" spans="1:16" ht="30" customHeight="1">
-      <c r="A45" s="308" t="s">
+      <c r="A45" s="155" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="309"/>
-      <c r="C45" s="272"/>
-      <c r="D45" s="305"/>
-      <c r="E45" s="305"/>
-      <c r="F45" s="273"/>
-      <c r="G45" s="274"/>
-      <c r="H45" s="133"/>
-      <c r="I45" s="272"/>
-      <c r="J45" s="272"/>
-      <c r="K45" s="272"/>
-      <c r="L45" s="138"/>
-      <c r="M45" s="138"/>
-      <c r="N45" s="134"/>
+      <c r="B45" s="156"/>
+      <c r="C45" s="178"/>
+      <c r="D45" s="152"/>
+      <c r="E45" s="152"/>
+      <c r="F45" s="150"/>
+      <c r="G45" s="151"/>
+      <c r="H45" s="131"/>
+      <c r="I45" s="178"/>
+      <c r="J45" s="178"/>
+      <c r="K45" s="178"/>
+      <c r="L45" s="136"/>
+      <c r="M45" s="136"/>
+      <c r="N45" s="132"/>
     </row>
     <row r="46" spans="1:16" ht="30" customHeight="1">
-      <c r="A46" s="310" t="s">
+      <c r="A46" s="157" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="311"/>
-      <c r="C46" s="273"/>
-      <c r="D46" s="312"/>
-      <c r="E46" s="313"/>
-      <c r="F46" s="273"/>
-      <c r="G46" s="274"/>
-      <c r="H46" s="135"/>
-      <c r="I46" s="318"/>
-      <c r="J46" s="319"/>
-      <c r="K46" s="320"/>
-      <c r="L46" s="138"/>
-      <c r="M46" s="138"/>
-      <c r="N46" s="134"/>
+      <c r="B46" s="158"/>
+      <c r="C46" s="150"/>
+      <c r="D46" s="159"/>
+      <c r="E46" s="160"/>
+      <c r="F46" s="150"/>
+      <c r="G46" s="151"/>
+      <c r="H46" s="133"/>
+      <c r="I46" s="165"/>
+      <c r="J46" s="166"/>
+      <c r="K46" s="167"/>
+      <c r="L46" s="136"/>
+      <c r="M46" s="136"/>
+      <c r="N46" s="132"/>
     </row>
     <row r="47" spans="1:16" ht="30" customHeight="1">
-      <c r="A47" s="327" t="s">
+      <c r="A47" s="174" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="328"/>
-      <c r="C47" s="313"/>
-      <c r="D47" s="305"/>
-      <c r="E47" s="305"/>
-      <c r="F47" s="273"/>
-      <c r="G47" s="274"/>
-      <c r="H47" s="133"/>
-      <c r="I47" s="272"/>
-      <c r="J47" s="272"/>
-      <c r="K47" s="272"/>
-      <c r="L47" s="138"/>
-      <c r="M47" s="138"/>
-      <c r="N47" s="134"/>
+      <c r="B47" s="175"/>
+      <c r="C47" s="160"/>
+      <c r="D47" s="152"/>
+      <c r="E47" s="152"/>
+      <c r="F47" s="150"/>
+      <c r="G47" s="151"/>
+      <c r="H47" s="131"/>
+      <c r="I47" s="178"/>
+      <c r="J47" s="178"/>
+      <c r="K47" s="178"/>
+      <c r="L47" s="136"/>
+      <c r="M47" s="136"/>
+      <c r="N47" s="132"/>
     </row>
     <row r="48" spans="1:16" ht="30" customHeight="1">
-      <c r="A48" s="329"/>
-      <c r="B48" s="330"/>
-      <c r="C48" s="312"/>
-      <c r="D48" s="312"/>
-      <c r="E48" s="313"/>
-      <c r="F48" s="273"/>
-      <c r="G48" s="274"/>
-      <c r="H48" s="135"/>
-      <c r="I48" s="273"/>
-      <c r="J48" s="312"/>
-      <c r="K48" s="313"/>
-      <c r="L48" s="138"/>
-      <c r="M48" s="138"/>
-      <c r="N48" s="134"/>
+      <c r="A48" s="176"/>
+      <c r="B48" s="177"/>
+      <c r="C48" s="159"/>
+      <c r="D48" s="159"/>
+      <c r="E48" s="160"/>
+      <c r="F48" s="150"/>
+      <c r="G48" s="151"/>
+      <c r="H48" s="133"/>
+      <c r="I48" s="150"/>
+      <c r="J48" s="159"/>
+      <c r="K48" s="160"/>
+      <c r="L48" s="136"/>
+      <c r="M48" s="136"/>
+      <c r="N48" s="132"/>
     </row>
     <row r="49" spans="1:14" ht="30" customHeight="1">
-      <c r="A49" s="314" t="s">
+      <c r="A49" s="161" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="315"/>
-      <c r="C49" s="305"/>
-      <c r="D49" s="305"/>
-      <c r="E49" s="305"/>
-      <c r="F49" s="273"/>
-      <c r="G49" s="274"/>
-      <c r="H49" s="133"/>
-      <c r="I49" s="305"/>
-      <c r="J49" s="305"/>
-      <c r="K49" s="305"/>
-      <c r="L49" s="138"/>
-      <c r="M49" s="138"/>
-      <c r="N49" s="134"/>
+      <c r="B49" s="162"/>
+      <c r="C49" s="152"/>
+      <c r="D49" s="152"/>
+      <c r="E49" s="152"/>
+      <c r="F49" s="150"/>
+      <c r="G49" s="151"/>
+      <c r="H49" s="131"/>
+      <c r="I49" s="152"/>
+      <c r="J49" s="152"/>
+      <c r="K49" s="152"/>
+      <c r="L49" s="136"/>
+      <c r="M49" s="136"/>
+      <c r="N49" s="132"/>
     </row>
     <row r="50" spans="1:14" ht="30" customHeight="1" thickBot="1">
-      <c r="A50" s="316"/>
-      <c r="B50" s="317"/>
-      <c r="C50" s="326"/>
-      <c r="D50" s="326"/>
-      <c r="E50" s="326"/>
-      <c r="F50" s="273"/>
-      <c r="G50" s="274"/>
-      <c r="H50" s="136"/>
-      <c r="I50" s="326"/>
-      <c r="J50" s="326"/>
-      <c r="K50" s="326"/>
-      <c r="L50" s="139"/>
-      <c r="M50" s="139"/>
-      <c r="N50" s="137"/>
+      <c r="A50" s="163"/>
+      <c r="B50" s="164"/>
+      <c r="C50" s="173"/>
+      <c r="D50" s="173"/>
+      <c r="E50" s="173"/>
+      <c r="F50" s="150"/>
+      <c r="G50" s="151"/>
+      <c r="H50" s="134"/>
+      <c r="I50" s="173"/>
+      <c r="J50" s="173"/>
+      <c r="K50" s="173"/>
+      <c r="L50" s="137"/>
+      <c r="M50" s="137"/>
+      <c r="N50" s="135"/>
     </row>
     <row r="51" spans="1:14" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A51" s="323" t="s">
+      <c r="A51" s="170" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="324"/>
-      <c r="C51" s="324"/>
-      <c r="D51" s="324"/>
-      <c r="E51" s="324"/>
-      <c r="F51" s="324"/>
-      <c r="G51" s="324"/>
-      <c r="H51" s="324"/>
-      <c r="I51" s="324"/>
-      <c r="J51" s="324"/>
-      <c r="K51" s="324"/>
-      <c r="L51" s="324"/>
-      <c r="M51" s="324"/>
-      <c r="N51" s="325"/>
+      <c r="B51" s="171"/>
+      <c r="C51" s="171"/>
+      <c r="D51" s="171"/>
+      <c r="E51" s="171"/>
+      <c r="F51" s="171"/>
+      <c r="G51" s="171"/>
+      <c r="H51" s="171"/>
+      <c r="I51" s="171"/>
+      <c r="J51" s="171"/>
+      <c r="K51" s="171"/>
+      <c r="L51" s="171"/>
+      <c r="M51" s="171"/>
+      <c r="N51" s="172"/>
     </row>
     <row r="52" spans="1:14" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="321"/>
-      <c r="B52" s="322"/>
-      <c r="C52" s="322"/>
-      <c r="D52" s="322"/>
-      <c r="E52" s="322"/>
-      <c r="F52" s="322"/>
-      <c r="G52" s="322"/>
-      <c r="H52" s="322"/>
-      <c r="I52" s="322"/>
-      <c r="J52" s="322"/>
-      <c r="K52" s="322"/>
-      <c r="L52" s="322"/>
-      <c r="M52" s="322"/>
-      <c r="N52" s="130" t="s">
+      <c r="A52" s="168"/>
+      <c r="B52" s="169"/>
+      <c r="C52" s="169"/>
+      <c r="D52" s="169"/>
+      <c r="E52" s="169"/>
+      <c r="F52" s="169"/>
+      <c r="G52" s="169"/>
+      <c r="H52" s="169"/>
+      <c r="I52" s="169"/>
+      <c r="J52" s="169"/>
+      <c r="K52" s="169"/>
+      <c r="L52" s="169"/>
+      <c r="M52" s="169"/>
+      <c r="N52" s="128" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="2.25" customHeight="1">
-      <c r="A53" s="306"/>
-      <c r="B53" s="307"/>
-      <c r="C53" s="307"/>
-      <c r="D53" s="307"/>
-      <c r="E53" s="307"/>
-      <c r="F53" s="307"/>
-      <c r="G53" s="307"/>
-      <c r="H53" s="307"/>
-      <c r="I53" s="307"/>
-      <c r="J53" s="307"/>
-      <c r="K53" s="307"/>
-      <c r="L53" s="307"/>
-      <c r="M53" s="307"/>
-      <c r="N53" s="307"/>
+      <c r="A53" s="153"/>
+      <c r="B53" s="154"/>
+      <c r="C53" s="154"/>
+      <c r="D53" s="154"/>
+      <c r="E53" s="154"/>
+      <c r="F53" s="154"/>
+      <c r="G53" s="154"/>
+      <c r="H53" s="154"/>
+      <c r="I53" s="154"/>
+      <c r="J53" s="154"/>
+      <c r="K53" s="154"/>
+      <c r="L53" s="154"/>
+      <c r="M53" s="154"/>
+      <c r="N53" s="154"/>
     </row>
     <row r="54" spans="1:14" ht="19.5" customHeight="1">
       <c r="A54" s="13"/>
@@ -8122,6 +8125,116 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="134">
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="C8:N8"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="I15:N17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="I10:N12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D13:E15"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I14:N14"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G15:H17"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H39:N39"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="F41:G43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="L41:M42"/>
+    <mergeCell ref="A40:N40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="C41:E43"/>
+    <mergeCell ref="N41:N43"/>
+    <mergeCell ref="I41:K43"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="F48:G48"/>
     <mergeCell ref="F49:G49"/>
     <mergeCell ref="F50:G50"/>
@@ -8146,116 +8259,6 @@
     <mergeCell ref="I45:K45"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="F41:G43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="L41:M42"/>
-    <mergeCell ref="A40:N40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="C41:E43"/>
-    <mergeCell ref="N41:N43"/>
-    <mergeCell ref="I41:K43"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H39:N39"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:E15"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I14:N14"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="I18:N18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G15:H17"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="C8:N8"/>
-    <mergeCell ref="I13:N13"/>
-    <mergeCell ref="I15:N17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="I10:N12"/>
-    <mergeCell ref="C12:F12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.2" bottom="0" header="0" footer="0"/>
@@ -8294,647 +8297,715 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="3" customHeight="1">
-      <c r="A1" s="160"/>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="162"/>
+      <c r="A1" s="295"/>
+      <c r="B1" s="296"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="296"/>
+      <c r="K1" s="296"/>
+      <c r="L1" s="296"/>
+      <c r="M1" s="297"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1">
-      <c r="A2" s="343" t="s">
+      <c r="A2" s="348" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="344"/>
-      <c r="C2" s="344"/>
-      <c r="D2" s="344"/>
-      <c r="E2" s="344"/>
-      <c r="F2" s="344"/>
-      <c r="G2" s="344"/>
-      <c r="H2" s="344"/>
-      <c r="I2" s="344"/>
-      <c r="J2" s="344"/>
-      <c r="K2" s="344"/>
-      <c r="L2" s="344"/>
-      <c r="M2" s="345"/>
+      <c r="B2" s="349"/>
+      <c r="C2" s="349"/>
+      <c r="D2" s="349"/>
+      <c r="E2" s="349"/>
+      <c r="F2" s="349"/>
+      <c r="G2" s="349"/>
+      <c r="H2" s="349"/>
+      <c r="I2" s="349"/>
+      <c r="J2" s="349"/>
+      <c r="K2" s="349"/>
+      <c r="L2" s="349"/>
+      <c r="M2" s="350"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="333" t="s">
+      <c r="B3" s="362" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="333"/>
-      <c r="D3" s="333"/>
-      <c r="E3" s="334"/>
-      <c r="F3" s="341" t="s">
+      <c r="C3" s="362"/>
+      <c r="D3" s="362"/>
+      <c r="E3" s="363"/>
+      <c r="F3" s="376" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="337" t="s">
+      <c r="G3" s="361" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="334"/>
-      <c r="I3" s="337" t="s">
+      <c r="H3" s="363"/>
+      <c r="I3" s="361" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="333"/>
-      <c r="K3" s="334"/>
-      <c r="L3" s="339" t="s">
+      <c r="J3" s="362"/>
+      <c r="K3" s="363"/>
+      <c r="L3" s="374" t="s">
         <v>80</v>
       </c>
-      <c r="M3" s="340"/>
+      <c r="M3" s="375"/>
     </row>
     <row r="4" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="335"/>
-      <c r="C4" s="335"/>
-      <c r="D4" s="335"/>
-      <c r="E4" s="336"/>
-      <c r="F4" s="342"/>
-      <c r="G4" s="338"/>
-      <c r="H4" s="336"/>
-      <c r="I4" s="338"/>
-      <c r="J4" s="335"/>
-      <c r="K4" s="336"/>
-      <c r="L4" s="23" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="368"/>
+      <c r="C4" s="368"/>
+      <c r="D4" s="368"/>
+      <c r="E4" s="369"/>
+      <c r="F4" s="377"/>
+      <c r="G4" s="367"/>
+      <c r="H4" s="369"/>
+      <c r="I4" s="367"/>
+      <c r="J4" s="368"/>
+      <c r="K4" s="369"/>
+      <c r="L4" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="M4" s="79" t="s">
+      <c r="M4" s="77" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A5" s="350"/>
-      <c r="B5" s="351"/>
-      <c r="C5" s="351"/>
-      <c r="D5" s="351"/>
-      <c r="E5" s="351"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="376"/>
-      <c r="H5" s="376"/>
-      <c r="I5" s="376"/>
-      <c r="J5" s="376"/>
-      <c r="K5" s="376"/>
-      <c r="L5" s="145"/>
-      <c r="M5" s="146"/>
+      <c r="A5" s="338"/>
+      <c r="B5" s="339"/>
+      <c r="C5" s="339"/>
+      <c r="D5" s="339"/>
+      <c r="E5" s="339"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="337"/>
+      <c r="H5" s="337"/>
+      <c r="I5" s="337"/>
+      <c r="J5" s="337"/>
+      <c r="K5" s="337"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="144"/>
     </row>
     <row r="6" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A6" s="350"/>
-      <c r="B6" s="351"/>
-      <c r="C6" s="351"/>
-      <c r="D6" s="351"/>
-      <c r="E6" s="351"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="377"/>
-      <c r="H6" s="332"/>
-      <c r="I6" s="376"/>
-      <c r="J6" s="376"/>
-      <c r="K6" s="376"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="146"/>
+      <c r="A6" s="338"/>
+      <c r="B6" s="339"/>
+      <c r="C6" s="339"/>
+      <c r="D6" s="339"/>
+      <c r="E6" s="339"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="275"/>
+      <c r="H6" s="336"/>
+      <c r="I6" s="337"/>
+      <c r="J6" s="337"/>
+      <c r="K6" s="337"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="144"/>
     </row>
     <row r="7" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A7" s="350"/>
-      <c r="B7" s="351"/>
-      <c r="C7" s="351"/>
-      <c r="D7" s="351"/>
-      <c r="E7" s="351"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="376"/>
-      <c r="H7" s="376"/>
-      <c r="I7" s="376"/>
-      <c r="J7" s="376"/>
-      <c r="K7" s="376"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="146"/>
+      <c r="A7" s="338"/>
+      <c r="B7" s="339"/>
+      <c r="C7" s="339"/>
+      <c r="D7" s="339"/>
+      <c r="E7" s="339"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="337"/>
+      <c r="H7" s="337"/>
+      <c r="I7" s="337"/>
+      <c r="J7" s="337"/>
+      <c r="K7" s="337"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="144"/>
     </row>
     <row r="8" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A8" s="350"/>
-      <c r="B8" s="351"/>
-      <c r="C8" s="351"/>
-      <c r="D8" s="351"/>
-      <c r="E8" s="351"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="376"/>
-      <c r="H8" s="376"/>
-      <c r="I8" s="376"/>
-      <c r="J8" s="376"/>
-      <c r="K8" s="376"/>
-      <c r="L8" s="145"/>
-      <c r="M8" s="146"/>
+      <c r="A8" s="338"/>
+      <c r="B8" s="339"/>
+      <c r="C8" s="339"/>
+      <c r="D8" s="339"/>
+      <c r="E8" s="339"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="337"/>
+      <c r="H8" s="337"/>
+      <c r="I8" s="337"/>
+      <c r="J8" s="337"/>
+      <c r="K8" s="337"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="144"/>
     </row>
     <row r="9" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A9" s="350"/>
-      <c r="B9" s="351"/>
-      <c r="C9" s="351"/>
-      <c r="D9" s="351"/>
-      <c r="E9" s="351"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="376"/>
-      <c r="H9" s="376"/>
-      <c r="I9" s="376"/>
-      <c r="J9" s="376"/>
-      <c r="K9" s="376"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="146"/>
+      <c r="A9" s="338"/>
+      <c r="B9" s="339"/>
+      <c r="C9" s="339"/>
+      <c r="D9" s="339"/>
+      <c r="E9" s="339"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="337"/>
+      <c r="H9" s="337"/>
+      <c r="I9" s="337"/>
+      <c r="J9" s="337"/>
+      <c r="K9" s="337"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="144"/>
     </row>
     <row r="10" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A10" s="350"/>
-      <c r="B10" s="351"/>
-      <c r="C10" s="351"/>
-      <c r="D10" s="351"/>
-      <c r="E10" s="351"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="376"/>
-      <c r="H10" s="376"/>
-      <c r="I10" s="376"/>
-      <c r="J10" s="376"/>
-      <c r="K10" s="376"/>
-      <c r="L10" s="145"/>
-      <c r="M10" s="146"/>
+      <c r="A10" s="338"/>
+      <c r="B10" s="339"/>
+      <c r="C10" s="339"/>
+      <c r="D10" s="339"/>
+      <c r="E10" s="339"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="337"/>
+      <c r="H10" s="337"/>
+      <c r="I10" s="337"/>
+      <c r="J10" s="337"/>
+      <c r="K10" s="337"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="144"/>
     </row>
     <row r="11" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A11" s="355"/>
-      <c r="B11" s="356"/>
-      <c r="C11" s="356"/>
-      <c r="D11" s="356"/>
-      <c r="E11" s="356"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="349"/>
-      <c r="H11" s="349"/>
-      <c r="I11" s="349"/>
-      <c r="J11" s="349"/>
-      <c r="K11" s="349"/>
-      <c r="L11" s="148"/>
-      <c r="M11" s="149"/>
+      <c r="A11" s="370"/>
+      <c r="B11" s="371"/>
+      <c r="C11" s="371"/>
+      <c r="D11" s="371"/>
+      <c r="E11" s="371"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="360"/>
+      <c r="H11" s="360"/>
+      <c r="I11" s="360"/>
+      <c r="J11" s="360"/>
+      <c r="K11" s="360"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="147"/>
     </row>
     <row r="12" spans="1:13" s="10" customFormat="1" ht="12" customHeight="1">
-      <c r="A12" s="364" t="s">
+      <c r="A12" s="345" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="365"/>
-      <c r="C12" s="365"/>
-      <c r="D12" s="365"/>
-      <c r="E12" s="365"/>
-      <c r="F12" s="365"/>
-      <c r="G12" s="365"/>
-      <c r="H12" s="365"/>
-      <c r="I12" s="365"/>
-      <c r="J12" s="365"/>
-      <c r="K12" s="365"/>
-      <c r="L12" s="365"/>
-      <c r="M12" s="366"/>
+      <c r="B12" s="346"/>
+      <c r="C12" s="346"/>
+      <c r="D12" s="346"/>
+      <c r="E12" s="346"/>
+      <c r="F12" s="346"/>
+      <c r="G12" s="346"/>
+      <c r="H12" s="346"/>
+      <c r="I12" s="346"/>
+      <c r="J12" s="346"/>
+      <c r="K12" s="346"/>
+      <c r="L12" s="346"/>
+      <c r="M12" s="347"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A13" s="343" t="s">
+      <c r="A13" s="348" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="344"/>
-      <c r="C13" s="344"/>
-      <c r="D13" s="344"/>
-      <c r="E13" s="344"/>
-      <c r="F13" s="344"/>
-      <c r="G13" s="344"/>
-      <c r="H13" s="344"/>
-      <c r="I13" s="344"/>
-      <c r="J13" s="344"/>
-      <c r="K13" s="344"/>
-      <c r="L13" s="344"/>
-      <c r="M13" s="345"/>
+      <c r="B13" s="349"/>
+      <c r="C13" s="349"/>
+      <c r="D13" s="349"/>
+      <c r="E13" s="349"/>
+      <c r="F13" s="349"/>
+      <c r="G13" s="349"/>
+      <c r="H13" s="349"/>
+      <c r="I13" s="349"/>
+      <c r="J13" s="349"/>
+      <c r="K13" s="349"/>
+      <c r="L13" s="349"/>
+      <c r="M13" s="350"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="333" t="s">
+      <c r="B14" s="362" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="334"/>
-      <c r="D14" s="337" t="s">
+      <c r="C14" s="363"/>
+      <c r="D14" s="361" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="333"/>
-      <c r="F14" s="334"/>
-      <c r="G14" s="337" t="s">
+      <c r="E14" s="362"/>
+      <c r="F14" s="363"/>
+      <c r="G14" s="361" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="333"/>
-      <c r="I14" s="334"/>
-      <c r="J14" s="361" t="s">
+      <c r="H14" s="362"/>
+      <c r="I14" s="363"/>
+      <c r="J14" s="342" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="373" t="s">
+      <c r="K14" s="357" t="s">
         <v>89</v>
       </c>
-      <c r="L14" s="367" t="s">
+      <c r="L14" s="351" t="s">
         <v>90</v>
       </c>
-      <c r="M14" s="370" t="s">
+      <c r="M14" s="354" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1">
-      <c r="A15" s="35"/>
-      <c r="B15" s="335"/>
-      <c r="C15" s="336"/>
-      <c r="D15" s="352"/>
-      <c r="E15" s="353"/>
-      <c r="F15" s="354"/>
-      <c r="G15" s="352"/>
-      <c r="H15" s="353"/>
-      <c r="I15" s="354"/>
-      <c r="J15" s="362"/>
-      <c r="K15" s="374"/>
-      <c r="L15" s="368"/>
-      <c r="M15" s="371"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="368"/>
+      <c r="C15" s="369"/>
+      <c r="D15" s="364"/>
+      <c r="E15" s="365"/>
+      <c r="F15" s="366"/>
+      <c r="G15" s="364"/>
+      <c r="H15" s="365"/>
+      <c r="I15" s="366"/>
+      <c r="J15" s="343"/>
+      <c r="K15" s="358"/>
+      <c r="L15" s="352"/>
+      <c r="M15" s="355"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1">
-      <c r="A16" s="357" t="s">
+      <c r="A16" s="372" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="358"/>
-      <c r="C16" s="22" t="s">
+      <c r="B16" s="373"/>
+      <c r="C16" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="338"/>
-      <c r="E16" s="335"/>
-      <c r="F16" s="336"/>
-      <c r="G16" s="338"/>
-      <c r="H16" s="335"/>
-      <c r="I16" s="336"/>
-      <c r="J16" s="363"/>
-      <c r="K16" s="375"/>
-      <c r="L16" s="369"/>
-      <c r="M16" s="372"/>
+      <c r="D16" s="367"/>
+      <c r="E16" s="368"/>
+      <c r="F16" s="369"/>
+      <c r="G16" s="367"/>
+      <c r="H16" s="368"/>
+      <c r="I16" s="369"/>
+      <c r="J16" s="344"/>
+      <c r="K16" s="359"/>
+      <c r="L16" s="353"/>
+      <c r="M16" s="356"/>
     </row>
     <row r="17" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A17" s="331"/>
-      <c r="B17" s="332"/>
-      <c r="C17" s="141"/>
-      <c r="D17" s="346"/>
-      <c r="E17" s="347"/>
-      <c r="F17" s="348"/>
-      <c r="G17" s="346"/>
-      <c r="H17" s="347"/>
-      <c r="I17" s="348"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="142"/>
-      <c r="M17" s="143"/>
+      <c r="A17" s="335"/>
+      <c r="B17" s="336"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="332"/>
+      <c r="E17" s="333"/>
+      <c r="F17" s="334"/>
+      <c r="G17" s="332"/>
+      <c r="H17" s="333"/>
+      <c r="I17" s="334"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="140"/>
+      <c r="L17" s="140"/>
+      <c r="M17" s="141"/>
     </row>
     <row r="18" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A18" s="331"/>
-      <c r="B18" s="332"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="346"/>
-      <c r="E18" s="347"/>
-      <c r="F18" s="348"/>
-      <c r="G18" s="346"/>
-      <c r="H18" s="347"/>
-      <c r="I18" s="348"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="142"/>
-      <c r="L18" s="142"/>
-      <c r="M18" s="143"/>
+      <c r="A18" s="335"/>
+      <c r="B18" s="336"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="332"/>
+      <c r="E18" s="333"/>
+      <c r="F18" s="334"/>
+      <c r="G18" s="332"/>
+      <c r="H18" s="333"/>
+      <c r="I18" s="334"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="141"/>
     </row>
     <row r="19" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A19" s="331"/>
-      <c r="B19" s="332"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="346"/>
-      <c r="E19" s="347"/>
-      <c r="F19" s="348"/>
-      <c r="G19" s="346"/>
-      <c r="H19" s="347"/>
-      <c r="I19" s="348"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142"/>
-      <c r="L19" s="142"/>
-      <c r="M19" s="143"/>
+      <c r="A19" s="335"/>
+      <c r="B19" s="336"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="332"/>
+      <c r="E19" s="333"/>
+      <c r="F19" s="334"/>
+      <c r="G19" s="332"/>
+      <c r="H19" s="333"/>
+      <c r="I19" s="334"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="140"/>
+      <c r="L19" s="140"/>
+      <c r="M19" s="141"/>
     </row>
     <row r="20" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A20" s="331"/>
-      <c r="B20" s="332"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="346"/>
-      <c r="E20" s="347"/>
-      <c r="F20" s="348"/>
-      <c r="G20" s="346"/>
-      <c r="H20" s="347"/>
-      <c r="I20" s="348"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="142"/>
-      <c r="L20" s="142"/>
-      <c r="M20" s="143"/>
+      <c r="A20" s="335"/>
+      <c r="B20" s="336"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="332"/>
+      <c r="E20" s="333"/>
+      <c r="F20" s="334"/>
+      <c r="G20" s="332"/>
+      <c r="H20" s="333"/>
+      <c r="I20" s="334"/>
+      <c r="J20" s="140"/>
+      <c r="K20" s="140"/>
+      <c r="L20" s="140"/>
+      <c r="M20" s="141"/>
     </row>
     <row r="21" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A21" s="331"/>
-      <c r="B21" s="332"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="346"/>
-      <c r="E21" s="347"/>
-      <c r="F21" s="348"/>
-      <c r="G21" s="346"/>
-      <c r="H21" s="347"/>
-      <c r="I21" s="348"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="142"/>
-      <c r="M21" s="143"/>
+      <c r="A21" s="335"/>
+      <c r="B21" s="336"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="332"/>
+      <c r="E21" s="333"/>
+      <c r="F21" s="334"/>
+      <c r="G21" s="332"/>
+      <c r="H21" s="333"/>
+      <c r="I21" s="334"/>
+      <c r="J21" s="140"/>
+      <c r="K21" s="140"/>
+      <c r="L21" s="140"/>
+      <c r="M21" s="141"/>
     </row>
     <row r="22" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A22" s="331"/>
-      <c r="B22" s="332"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="346"/>
-      <c r="E22" s="347"/>
-      <c r="F22" s="348"/>
-      <c r="G22" s="346"/>
-      <c r="H22" s="347"/>
-      <c r="I22" s="348"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="142"/>
-      <c r="L22" s="142"/>
-      <c r="M22" s="143"/>
+      <c r="A22" s="335"/>
+      <c r="B22" s="336"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="332"/>
+      <c r="E22" s="333"/>
+      <c r="F22" s="334"/>
+      <c r="G22" s="332"/>
+      <c r="H22" s="333"/>
+      <c r="I22" s="334"/>
+      <c r="J22" s="140"/>
+      <c r="K22" s="140"/>
+      <c r="L22" s="140"/>
+      <c r="M22" s="141"/>
     </row>
     <row r="23" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A23" s="331"/>
-      <c r="B23" s="332"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="346"/>
-      <c r="E23" s="347"/>
-      <c r="F23" s="348"/>
-      <c r="G23" s="346"/>
-      <c r="H23" s="347"/>
-      <c r="I23" s="348"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="142"/>
-      <c r="L23" s="142"/>
-      <c r="M23" s="143"/>
+      <c r="A23" s="335"/>
+      <c r="B23" s="336"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="332"/>
+      <c r="E23" s="333"/>
+      <c r="F23" s="334"/>
+      <c r="G23" s="332"/>
+      <c r="H23" s="333"/>
+      <c r="I23" s="334"/>
+      <c r="J23" s="140"/>
+      <c r="K23" s="140"/>
+      <c r="L23" s="140"/>
+      <c r="M23" s="141"/>
     </row>
     <row r="24" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A24" s="331"/>
-      <c r="B24" s="332"/>
-      <c r="C24" s="141"/>
-      <c r="D24" s="346"/>
-      <c r="E24" s="347"/>
-      <c r="F24" s="348"/>
-      <c r="G24" s="346"/>
-      <c r="H24" s="347"/>
-      <c r="I24" s="348"/>
-      <c r="J24" s="142"/>
-      <c r="K24" s="142"/>
-      <c r="L24" s="142"/>
-      <c r="M24" s="143"/>
+      <c r="A24" s="335"/>
+      <c r="B24" s="336"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="332"/>
+      <c r="E24" s="333"/>
+      <c r="F24" s="334"/>
+      <c r="G24" s="332"/>
+      <c r="H24" s="333"/>
+      <c r="I24" s="334"/>
+      <c r="J24" s="140"/>
+      <c r="K24" s="140"/>
+      <c r="L24" s="140"/>
+      <c r="M24" s="141"/>
     </row>
     <row r="25" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A25" s="331"/>
-      <c r="B25" s="332"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="346"/>
-      <c r="E25" s="347"/>
-      <c r="F25" s="348"/>
-      <c r="G25" s="346"/>
-      <c r="H25" s="347"/>
-      <c r="I25" s="348"/>
-      <c r="J25" s="142"/>
-      <c r="K25" s="142"/>
-      <c r="L25" s="142"/>
-      <c r="M25" s="143"/>
+      <c r="A25" s="335"/>
+      <c r="B25" s="336"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="332"/>
+      <c r="E25" s="333"/>
+      <c r="F25" s="334"/>
+      <c r="G25" s="332"/>
+      <c r="H25" s="333"/>
+      <c r="I25" s="334"/>
+      <c r="J25" s="140"/>
+      <c r="K25" s="140"/>
+      <c r="L25" s="140"/>
+      <c r="M25" s="141"/>
     </row>
     <row r="26" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A26" s="331"/>
-      <c r="B26" s="332"/>
-      <c r="C26" s="141"/>
-      <c r="D26" s="346"/>
-      <c r="E26" s="347"/>
-      <c r="F26" s="348"/>
-      <c r="G26" s="346"/>
-      <c r="H26" s="347"/>
-      <c r="I26" s="348"/>
-      <c r="J26" s="142"/>
-      <c r="K26" s="142"/>
-      <c r="L26" s="142"/>
-      <c r="M26" s="143"/>
+      <c r="A26" s="335"/>
+      <c r="B26" s="336"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="332"/>
+      <c r="E26" s="333"/>
+      <c r="F26" s="334"/>
+      <c r="G26" s="332"/>
+      <c r="H26" s="333"/>
+      <c r="I26" s="334"/>
+      <c r="J26" s="140"/>
+      <c r="K26" s="140"/>
+      <c r="L26" s="140"/>
+      <c r="M26" s="141"/>
     </row>
     <row r="27" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A27" s="331"/>
-      <c r="B27" s="332"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="346"/>
-      <c r="E27" s="347"/>
-      <c r="F27" s="348"/>
-      <c r="G27" s="346"/>
-      <c r="H27" s="347"/>
-      <c r="I27" s="348"/>
-      <c r="J27" s="142"/>
-      <c r="K27" s="142"/>
-      <c r="L27" s="142"/>
-      <c r="M27" s="143"/>
+      <c r="A27" s="335"/>
+      <c r="B27" s="336"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="332"/>
+      <c r="E27" s="333"/>
+      <c r="F27" s="334"/>
+      <c r="G27" s="332"/>
+      <c r="H27" s="333"/>
+      <c r="I27" s="334"/>
+      <c r="J27" s="140"/>
+      <c r="K27" s="140"/>
+      <c r="L27" s="140"/>
+      <c r="M27" s="141"/>
     </row>
     <row r="28" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A28" s="331"/>
-      <c r="B28" s="332"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="346"/>
-      <c r="E28" s="347"/>
-      <c r="F28" s="348"/>
-      <c r="G28" s="346"/>
-      <c r="H28" s="347"/>
-      <c r="I28" s="348"/>
-      <c r="J28" s="142"/>
-      <c r="K28" s="142"/>
-      <c r="L28" s="142"/>
-      <c r="M28" s="143"/>
+      <c r="A28" s="335"/>
+      <c r="B28" s="336"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="332"/>
+      <c r="E28" s="333"/>
+      <c r="F28" s="334"/>
+      <c r="G28" s="332"/>
+      <c r="H28" s="333"/>
+      <c r="I28" s="334"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="140"/>
+      <c r="L28" s="140"/>
+      <c r="M28" s="141"/>
     </row>
     <row r="29" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A29" s="331"/>
-      <c r="B29" s="332"/>
-      <c r="C29" s="141"/>
-      <c r="D29" s="346"/>
-      <c r="E29" s="347"/>
-      <c r="F29" s="348"/>
-      <c r="G29" s="346"/>
-      <c r="H29" s="347"/>
-      <c r="I29" s="348"/>
-      <c r="J29" s="142"/>
-      <c r="K29" s="142"/>
-      <c r="L29" s="142"/>
-      <c r="M29" s="143"/>
+      <c r="A29" s="335"/>
+      <c r="B29" s="336"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="332"/>
+      <c r="E29" s="333"/>
+      <c r="F29" s="334"/>
+      <c r="G29" s="332"/>
+      <c r="H29" s="333"/>
+      <c r="I29" s="334"/>
+      <c r="J29" s="140"/>
+      <c r="K29" s="140"/>
+      <c r="L29" s="140"/>
+      <c r="M29" s="141"/>
     </row>
     <row r="30" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A30" s="331"/>
-      <c r="B30" s="332"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="346"/>
-      <c r="E30" s="347"/>
-      <c r="F30" s="348"/>
-      <c r="G30" s="346"/>
-      <c r="H30" s="347"/>
-      <c r="I30" s="348"/>
-      <c r="J30" s="142"/>
-      <c r="K30" s="142"/>
-      <c r="L30" s="142"/>
-      <c r="M30" s="143"/>
+      <c r="A30" s="335"/>
+      <c r="B30" s="336"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="332"/>
+      <c r="E30" s="333"/>
+      <c r="F30" s="334"/>
+      <c r="G30" s="332"/>
+      <c r="H30" s="333"/>
+      <c r="I30" s="334"/>
+      <c r="J30" s="140"/>
+      <c r="K30" s="140"/>
+      <c r="L30" s="140"/>
+      <c r="M30" s="141"/>
     </row>
     <row r="31" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A31" s="331"/>
-      <c r="B31" s="332"/>
-      <c r="C31" s="141"/>
-      <c r="D31" s="273"/>
-      <c r="E31" s="312"/>
-      <c r="F31" s="313"/>
-      <c r="G31" s="273"/>
-      <c r="H31" s="312"/>
-      <c r="I31" s="313"/>
-      <c r="J31" s="142"/>
-      <c r="K31" s="142"/>
-      <c r="L31" s="142"/>
-      <c r="M31" s="143"/>
+      <c r="A31" s="335"/>
+      <c r="B31" s="336"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="140"/>
+      <c r="L31" s="140"/>
+      <c r="M31" s="141"/>
     </row>
     <row r="32" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A32" s="331"/>
-      <c r="B32" s="332"/>
-      <c r="C32" s="141"/>
-      <c r="D32" s="273"/>
-      <c r="E32" s="312"/>
-      <c r="F32" s="313"/>
-      <c r="G32" s="273"/>
-      <c r="H32" s="312"/>
-      <c r="I32" s="313"/>
-      <c r="J32" s="142"/>
-      <c r="K32" s="142"/>
-      <c r="L32" s="142"/>
-      <c r="M32" s="143"/>
+      <c r="A32" s="335"/>
+      <c r="B32" s="336"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="160"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="140"/>
+      <c r="L32" s="140"/>
+      <c r="M32" s="141"/>
     </row>
     <row r="33" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A33" s="331"/>
-      <c r="B33" s="332"/>
-      <c r="C33" s="141"/>
-      <c r="D33" s="273"/>
-      <c r="E33" s="312"/>
-      <c r="F33" s="313"/>
-      <c r="G33" s="273"/>
-      <c r="H33" s="312"/>
-      <c r="I33" s="313"/>
-      <c r="J33" s="142"/>
-      <c r="K33" s="142"/>
-      <c r="L33" s="142"/>
-      <c r="M33" s="143"/>
+      <c r="A33" s="335"/>
+      <c r="B33" s="336"/>
+      <c r="C33" s="139"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="160"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="159"/>
+      <c r="I33" s="160"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="140"/>
+      <c r="L33" s="140"/>
+      <c r="M33" s="141"/>
     </row>
     <row r="34" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A34" s="331"/>
-      <c r="B34" s="332"/>
-      <c r="C34" s="141"/>
-      <c r="D34" s="273"/>
-      <c r="E34" s="312"/>
-      <c r="F34" s="313"/>
-      <c r="G34" s="273"/>
-      <c r="H34" s="312"/>
-      <c r="I34" s="313"/>
-      <c r="J34" s="142"/>
-      <c r="K34" s="142"/>
-      <c r="L34" s="142"/>
-      <c r="M34" s="143"/>
+      <c r="A34" s="335"/>
+      <c r="B34" s="336"/>
+      <c r="C34" s="139"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="159"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="140"/>
+      <c r="K34" s="140"/>
+      <c r="L34" s="140"/>
+      <c r="M34" s="141"/>
     </row>
     <row r="35" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A35" s="331"/>
-      <c r="B35" s="332"/>
-      <c r="C35" s="141"/>
-      <c r="D35" s="346"/>
-      <c r="E35" s="347"/>
-      <c r="F35" s="348"/>
-      <c r="G35" s="346"/>
-      <c r="H35" s="347"/>
-      <c r="I35" s="348"/>
-      <c r="J35" s="142"/>
-      <c r="K35" s="142"/>
-      <c r="L35" s="142"/>
-      <c r="M35" s="143"/>
+      <c r="A35" s="335"/>
+      <c r="B35" s="336"/>
+      <c r="C35" s="139"/>
+      <c r="D35" s="332"/>
+      <c r="E35" s="333"/>
+      <c r="F35" s="334"/>
+      <c r="G35" s="332"/>
+      <c r="H35" s="333"/>
+      <c r="I35" s="334"/>
+      <c r="J35" s="140"/>
+      <c r="K35" s="140"/>
+      <c r="L35" s="140"/>
+      <c r="M35" s="141"/>
     </row>
     <row r="36" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A36" s="331"/>
-      <c r="B36" s="332"/>
-      <c r="C36" s="141"/>
-      <c r="D36" s="346"/>
-      <c r="E36" s="347"/>
-      <c r="F36" s="348"/>
-      <c r="G36" s="346"/>
-      <c r="H36" s="347"/>
-      <c r="I36" s="348"/>
-      <c r="J36" s="142"/>
-      <c r="K36" s="142"/>
-      <c r="L36" s="142"/>
-      <c r="M36" s="143"/>
+      <c r="A36" s="335"/>
+      <c r="B36" s="336"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="332"/>
+      <c r="E36" s="333"/>
+      <c r="F36" s="334"/>
+      <c r="G36" s="332"/>
+      <c r="H36" s="333"/>
+      <c r="I36" s="334"/>
+      <c r="J36" s="140"/>
+      <c r="K36" s="140"/>
+      <c r="L36" s="140"/>
+      <c r="M36" s="141"/>
     </row>
     <row r="37" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A37" s="364" t="s">
+      <c r="A37" s="345" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="365"/>
-      <c r="C37" s="365"/>
-      <c r="D37" s="365"/>
-      <c r="E37" s="365"/>
-      <c r="F37" s="365"/>
-      <c r="G37" s="365"/>
-      <c r="H37" s="365"/>
-      <c r="I37" s="365"/>
-      <c r="J37" s="365"/>
-      <c r="K37" s="365"/>
-      <c r="L37" s="365"/>
-      <c r="M37" s="366"/>
+      <c r="B37" s="346"/>
+      <c r="C37" s="346"/>
+      <c r="D37" s="346"/>
+      <c r="E37" s="346"/>
+      <c r="F37" s="346"/>
+      <c r="G37" s="346"/>
+      <c r="H37" s="346"/>
+      <c r="I37" s="346"/>
+      <c r="J37" s="346"/>
+      <c r="K37" s="346"/>
+      <c r="L37" s="346"/>
+      <c r="M37" s="347"/>
     </row>
     <row r="38" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A38" s="94"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="33" t="s">
+      <c r="A38" s="92"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="31" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="2.25" customHeight="1">
-      <c r="A39" s="359"/>
-      <c r="B39" s="360"/>
-      <c r="C39" s="360"/>
-      <c r="D39" s="360"/>
-      <c r="E39" s="360"/>
-      <c r="F39" s="360"/>
-      <c r="G39" s="360"/>
-      <c r="H39" s="360"/>
-      <c r="I39" s="360"/>
-      <c r="J39" s="360"/>
-      <c r="K39" s="360"/>
-      <c r="L39" s="360"/>
-      <c r="M39" s="360"/>
+      <c r="A39" s="340"/>
+      <c r="B39" s="341"/>
+      <c r="C39" s="341"/>
+      <c r="D39" s="341"/>
+      <c r="E39" s="341"/>
+      <c r="F39" s="341"/>
+      <c r="G39" s="341"/>
+      <c r="H39" s="341"/>
+      <c r="I39" s="341"/>
+      <c r="J39" s="341"/>
+      <c r="K39" s="341"/>
+      <c r="L39" s="341"/>
+      <c r="M39" s="341"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="100">
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:K4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="G14:I16"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="D14:F16"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A39:M39"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A37:M37"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="G30:I30"/>
     <mergeCell ref="A34:B34"/>
@@ -8951,82 +9022,14 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="G28:I28"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A39:M39"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A37:M37"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="G14:I16"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="D14:F16"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:K4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.24" bottom="0" header="0" footer="0"/>
@@ -9063,550 +9066,550 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="3" customHeight="1">
-      <c r="A1" s="416"/>
-      <c r="B1" s="417"/>
-      <c r="C1" s="417"/>
-      <c r="D1" s="417"/>
-      <c r="E1" s="417"/>
-      <c r="F1" s="417"/>
-      <c r="G1" s="417"/>
-      <c r="H1" s="417"/>
-      <c r="I1" s="417"/>
-      <c r="J1" s="418"/>
+      <c r="A1" s="384"/>
+      <c r="B1" s="385"/>
+      <c r="C1" s="385"/>
+      <c r="D1" s="385"/>
+      <c r="E1" s="385"/>
+      <c r="F1" s="385"/>
+      <c r="G1" s="385"/>
+      <c r="H1" s="385"/>
+      <c r="I1" s="385"/>
+      <c r="J1" s="386"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="413" t="s">
+      <c r="A2" s="381" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="414"/>
-      <c r="C2" s="414"/>
-      <c r="D2" s="414"/>
-      <c r="E2" s="414"/>
-      <c r="F2" s="414"/>
-      <c r="G2" s="414"/>
-      <c r="H2" s="414"/>
-      <c r="I2" s="414"/>
-      <c r="J2" s="415"/>
+      <c r="B2" s="382"/>
+      <c r="C2" s="382"/>
+      <c r="D2" s="382"/>
+      <c r="E2" s="382"/>
+      <c r="F2" s="382"/>
+      <c r="G2" s="382"/>
+      <c r="H2" s="382"/>
+      <c r="I2" s="382"/>
+      <c r="J2" s="383"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="398" t="s">
+      <c r="A3" s="420" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="386" t="s">
+      <c r="B3" s="422" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="386"/>
-      <c r="D3" s="387"/>
-      <c r="E3" s="333" t="s">
+      <c r="C3" s="422"/>
+      <c r="D3" s="423"/>
+      <c r="E3" s="362" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="334"/>
-      <c r="G3" s="390" t="s">
+      <c r="F3" s="363"/>
+      <c r="G3" s="410" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="337" t="s">
+      <c r="H3" s="361" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="333"/>
-      <c r="J3" s="393"/>
+      <c r="I3" s="362"/>
+      <c r="J3" s="417"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="399"/>
-      <c r="B4" s="388"/>
-      <c r="C4" s="388"/>
-      <c r="D4" s="389"/>
-      <c r="E4" s="335"/>
-      <c r="F4" s="336"/>
-      <c r="G4" s="391"/>
-      <c r="H4" s="352"/>
-      <c r="I4" s="353"/>
-      <c r="J4" s="394"/>
+      <c r="A4" s="421"/>
+      <c r="B4" s="424"/>
+      <c r="C4" s="424"/>
+      <c r="D4" s="425"/>
+      <c r="E4" s="368"/>
+      <c r="F4" s="369"/>
+      <c r="G4" s="411"/>
+      <c r="H4" s="364"/>
+      <c r="I4" s="365"/>
+      <c r="J4" s="418"/>
     </row>
     <row r="5" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A5" s="37"/>
-      <c r="B5" s="396"/>
-      <c r="C5" s="396"/>
-      <c r="D5" s="397"/>
-      <c r="E5" s="20" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="426"/>
+      <c r="C5" s="426"/>
+      <c r="D5" s="427"/>
+      <c r="E5" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="392"/>
-      <c r="H5" s="338"/>
-      <c r="I5" s="335"/>
-      <c r="J5" s="395"/>
+      <c r="G5" s="412"/>
+      <c r="H5" s="367"/>
+      <c r="I5" s="368"/>
+      <c r="J5" s="419"/>
     </row>
     <row r="6" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A6" s="400"/>
-      <c r="B6" s="401"/>
-      <c r="C6" s="401"/>
-      <c r="D6" s="402"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="346"/>
-      <c r="I6" s="347"/>
-      <c r="J6" s="379"/>
+      <c r="A6" s="393"/>
+      <c r="B6" s="394"/>
+      <c r="C6" s="394"/>
+      <c r="D6" s="395"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="332"/>
+      <c r="I6" s="333"/>
+      <c r="J6" s="409"/>
     </row>
     <row r="7" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A7" s="400"/>
-      <c r="B7" s="401"/>
-      <c r="C7" s="401"/>
-      <c r="D7" s="402"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="346"/>
-      <c r="I7" s="347"/>
-      <c r="J7" s="379"/>
+      <c r="A7" s="393"/>
+      <c r="B7" s="394"/>
+      <c r="C7" s="394"/>
+      <c r="D7" s="395"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="332"/>
+      <c r="I7" s="333"/>
+      <c r="J7" s="409"/>
     </row>
     <row r="8" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A8" s="400"/>
-      <c r="B8" s="401"/>
-      <c r="C8" s="401"/>
-      <c r="D8" s="402"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="346"/>
-      <c r="I8" s="347"/>
-      <c r="J8" s="379"/>
+      <c r="A8" s="393"/>
+      <c r="B8" s="394"/>
+      <c r="C8" s="394"/>
+      <c r="D8" s="395"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="332"/>
+      <c r="I8" s="333"/>
+      <c r="J8" s="409"/>
     </row>
     <row r="9" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A9" s="400"/>
-      <c r="B9" s="401"/>
-      <c r="C9" s="401"/>
-      <c r="D9" s="402"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="346"/>
-      <c r="I9" s="347"/>
-      <c r="J9" s="379"/>
+      <c r="A9" s="393"/>
+      <c r="B9" s="394"/>
+      <c r="C9" s="394"/>
+      <c r="D9" s="395"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="332"/>
+      <c r="I9" s="333"/>
+      <c r="J9" s="409"/>
     </row>
     <row r="10" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A10" s="380"/>
-      <c r="B10" s="381"/>
-      <c r="C10" s="381"/>
-      <c r="D10" s="382"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="383"/>
-      <c r="I10" s="384"/>
-      <c r="J10" s="385"/>
+      <c r="A10" s="406"/>
+      <c r="B10" s="407"/>
+      <c r="C10" s="407"/>
+      <c r="D10" s="408"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="396"/>
+      <c r="I10" s="397"/>
+      <c r="J10" s="399"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A11" s="364" t="s">
+      <c r="A11" s="345" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="365"/>
-      <c r="C11" s="365"/>
-      <c r="D11" s="365"/>
-      <c r="E11" s="365"/>
-      <c r="F11" s="365"/>
-      <c r="G11" s="365"/>
-      <c r="H11" s="365"/>
-      <c r="I11" s="365"/>
-      <c r="J11" s="366"/>
+      <c r="B11" s="346"/>
+      <c r="C11" s="346"/>
+      <c r="D11" s="346"/>
+      <c r="E11" s="346"/>
+      <c r="F11" s="346"/>
+      <c r="G11" s="346"/>
+      <c r="H11" s="346"/>
+      <c r="I11" s="346"/>
+      <c r="J11" s="347"/>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1">
-      <c r="A12" s="343" t="s">
+      <c r="A12" s="348" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="344"/>
-      <c r="C12" s="344"/>
-      <c r="D12" s="344"/>
-      <c r="E12" s="344"/>
-      <c r="F12" s="344"/>
-      <c r="G12" s="344"/>
-      <c r="H12" s="344"/>
-      <c r="I12" s="344"/>
-      <c r="J12" s="345"/>
+      <c r="B12" s="349"/>
+      <c r="C12" s="349"/>
+      <c r="D12" s="349"/>
+      <c r="E12" s="349"/>
+      <c r="F12" s="349"/>
+      <c r="G12" s="349"/>
+      <c r="H12" s="349"/>
+      <c r="I12" s="349"/>
+      <c r="J12" s="350"/>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1">
-      <c r="A13" s="398" t="s">
+      <c r="A13" s="420" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="333" t="s">
+      <c r="B13" s="362" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="419"/>
-      <c r="D13" s="420"/>
-      <c r="E13" s="333" t="s">
+      <c r="C13" s="387"/>
+      <c r="D13" s="388"/>
+      <c r="E13" s="362" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="334"/>
-      <c r="G13" s="390" t="s">
+      <c r="F13" s="363"/>
+      <c r="G13" s="410" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="337" t="s">
+      <c r="H13" s="361" t="s">
         <v>103</v>
       </c>
-      <c r="I13" s="333"/>
-      <c r="J13" s="393"/>
+      <c r="I13" s="362"/>
+      <c r="J13" s="417"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1">
-      <c r="A14" s="399"/>
-      <c r="B14" s="421"/>
-      <c r="C14" s="421"/>
-      <c r="D14" s="422"/>
-      <c r="E14" s="335"/>
-      <c r="F14" s="336"/>
-      <c r="G14" s="391"/>
-      <c r="H14" s="352"/>
-      <c r="I14" s="353"/>
-      <c r="J14" s="394"/>
+      <c r="A14" s="421"/>
+      <c r="B14" s="389"/>
+      <c r="C14" s="389"/>
+      <c r="D14" s="390"/>
+      <c r="E14" s="368"/>
+      <c r="F14" s="369"/>
+      <c r="G14" s="411"/>
+      <c r="H14" s="364"/>
+      <c r="I14" s="365"/>
+      <c r="J14" s="418"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A15" s="37"/>
-      <c r="B15" s="423"/>
-      <c r="C15" s="423"/>
-      <c r="D15" s="424"/>
-      <c r="E15" s="20" t="s">
+      <c r="A15" s="35"/>
+      <c r="B15" s="391"/>
+      <c r="C15" s="391"/>
+      <c r="D15" s="392"/>
+      <c r="E15" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="392"/>
-      <c r="H15" s="338"/>
-      <c r="I15" s="335"/>
-      <c r="J15" s="395"/>
+      <c r="G15" s="412"/>
+      <c r="H15" s="367"/>
+      <c r="I15" s="368"/>
+      <c r="J15" s="419"/>
     </row>
     <row r="16" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A16" s="400"/>
-      <c r="B16" s="401"/>
-      <c r="C16" s="401"/>
-      <c r="D16" s="402"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="150"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="346"/>
-      <c r="I16" s="347"/>
-      <c r="J16" s="379"/>
+      <c r="A16" s="393"/>
+      <c r="B16" s="394"/>
+      <c r="C16" s="394"/>
+      <c r="D16" s="395"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="332"/>
+      <c r="I16" s="333"/>
+      <c r="J16" s="409"/>
     </row>
     <row r="17" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A17" s="400"/>
-      <c r="B17" s="401"/>
-      <c r="C17" s="401"/>
-      <c r="D17" s="402"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="346"/>
-      <c r="I17" s="347"/>
-      <c r="J17" s="379"/>
+      <c r="A17" s="393"/>
+      <c r="B17" s="394"/>
+      <c r="C17" s="394"/>
+      <c r="D17" s="395"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="332"/>
+      <c r="I17" s="333"/>
+      <c r="J17" s="409"/>
     </row>
     <row r="18" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A18" s="400"/>
-      <c r="B18" s="401"/>
-      <c r="C18" s="401"/>
-      <c r="D18" s="402"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="346"/>
-      <c r="I18" s="347"/>
-      <c r="J18" s="379"/>
+      <c r="A18" s="393"/>
+      <c r="B18" s="394"/>
+      <c r="C18" s="394"/>
+      <c r="D18" s="395"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="332"/>
+      <c r="I18" s="333"/>
+      <c r="J18" s="409"/>
     </row>
     <row r="19" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A19" s="400"/>
-      <c r="B19" s="401"/>
-      <c r="C19" s="401"/>
-      <c r="D19" s="402"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="346"/>
-      <c r="I19" s="347"/>
-      <c r="J19" s="379"/>
+      <c r="A19" s="393"/>
+      <c r="B19" s="394"/>
+      <c r="C19" s="394"/>
+      <c r="D19" s="395"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="332"/>
+      <c r="I19" s="333"/>
+      <c r="J19" s="409"/>
     </row>
     <row r="20" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A20" s="400"/>
-      <c r="B20" s="401"/>
-      <c r="C20" s="401"/>
-      <c r="D20" s="402"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="346"/>
-      <c r="I20" s="347"/>
-      <c r="J20" s="379"/>
+      <c r="A20" s="393"/>
+      <c r="B20" s="394"/>
+      <c r="C20" s="394"/>
+      <c r="D20" s="395"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="332"/>
+      <c r="I20" s="333"/>
+      <c r="J20" s="409"/>
     </row>
     <row r="21" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A21" s="400"/>
-      <c r="B21" s="401"/>
-      <c r="C21" s="401"/>
-      <c r="D21" s="402"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="346"/>
-      <c r="I21" s="347"/>
-      <c r="J21" s="379"/>
+      <c r="A21" s="393"/>
+      <c r="B21" s="394"/>
+      <c r="C21" s="394"/>
+      <c r="D21" s="395"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="332"/>
+      <c r="I21" s="333"/>
+      <c r="J21" s="409"/>
     </row>
     <row r="22" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A22" s="400"/>
-      <c r="B22" s="401"/>
-      <c r="C22" s="401"/>
-      <c r="D22" s="402"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="346"/>
-      <c r="I22" s="347"/>
-      <c r="J22" s="379"/>
+      <c r="A22" s="393"/>
+      <c r="B22" s="394"/>
+      <c r="C22" s="394"/>
+      <c r="D22" s="395"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="332"/>
+      <c r="I22" s="333"/>
+      <c r="J22" s="409"/>
     </row>
     <row r="23" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A23" s="400"/>
-      <c r="B23" s="401"/>
-      <c r="C23" s="401"/>
-      <c r="D23" s="402"/>
-      <c r="E23" s="150"/>
-      <c r="F23" s="150"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="346"/>
-      <c r="I23" s="347"/>
-      <c r="J23" s="379"/>
+      <c r="A23" s="393"/>
+      <c r="B23" s="394"/>
+      <c r="C23" s="394"/>
+      <c r="D23" s="395"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="332"/>
+      <c r="I23" s="333"/>
+      <c r="J23" s="409"/>
     </row>
     <row r="24" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A24" s="400"/>
-      <c r="B24" s="401"/>
-      <c r="C24" s="401"/>
-      <c r="D24" s="402"/>
-      <c r="E24" s="150"/>
-      <c r="F24" s="150"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="346"/>
-      <c r="I24" s="347"/>
-      <c r="J24" s="379"/>
+      <c r="A24" s="393"/>
+      <c r="B24" s="394"/>
+      <c r="C24" s="394"/>
+      <c r="D24" s="395"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="332"/>
+      <c r="I24" s="333"/>
+      <c r="J24" s="409"/>
     </row>
     <row r="25" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A25" s="400"/>
-      <c r="B25" s="401"/>
-      <c r="C25" s="401"/>
-      <c r="D25" s="402"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="346"/>
-      <c r="I25" s="347"/>
-      <c r="J25" s="379"/>
+      <c r="A25" s="393"/>
+      <c r="B25" s="394"/>
+      <c r="C25" s="394"/>
+      <c r="D25" s="395"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="332"/>
+      <c r="I25" s="333"/>
+      <c r="J25" s="409"/>
     </row>
     <row r="26" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A26" s="400"/>
-      <c r="B26" s="401"/>
-      <c r="C26" s="401"/>
-      <c r="D26" s="402"/>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="346"/>
-      <c r="I26" s="347"/>
-      <c r="J26" s="379"/>
+      <c r="A26" s="393"/>
+      <c r="B26" s="394"/>
+      <c r="C26" s="394"/>
+      <c r="D26" s="395"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="332"/>
+      <c r="I26" s="333"/>
+      <c r="J26" s="409"/>
     </row>
     <row r="27" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A27" s="400"/>
-      <c r="B27" s="401"/>
-      <c r="C27" s="401"/>
-      <c r="D27" s="402"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="346"/>
-      <c r="I27" s="347"/>
-      <c r="J27" s="379"/>
+      <c r="A27" s="393"/>
+      <c r="B27" s="394"/>
+      <c r="C27" s="394"/>
+      <c r="D27" s="395"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="332"/>
+      <c r="I27" s="333"/>
+      <c r="J27" s="409"/>
     </row>
     <row r="28" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A28" s="400"/>
-      <c r="B28" s="401"/>
-      <c r="C28" s="401"/>
-      <c r="D28" s="402"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="346"/>
-      <c r="I28" s="347"/>
-      <c r="J28" s="379"/>
+      <c r="A28" s="393"/>
+      <c r="B28" s="394"/>
+      <c r="C28" s="394"/>
+      <c r="D28" s="395"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="332"/>
+      <c r="I28" s="333"/>
+      <c r="J28" s="409"/>
     </row>
     <row r="29" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A29" s="400"/>
-      <c r="B29" s="401"/>
-      <c r="C29" s="401"/>
-      <c r="D29" s="402"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="346"/>
-      <c r="I29" s="347"/>
-      <c r="J29" s="379"/>
+      <c r="A29" s="393"/>
+      <c r="B29" s="394"/>
+      <c r="C29" s="394"/>
+      <c r="D29" s="395"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="332"/>
+      <c r="I29" s="333"/>
+      <c r="J29" s="409"/>
     </row>
     <row r="30" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A30" s="380"/>
-      <c r="B30" s="381"/>
-      <c r="C30" s="381"/>
-      <c r="D30" s="382"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="383"/>
-      <c r="I30" s="384"/>
-      <c r="J30" s="385"/>
+      <c r="A30" s="406"/>
+      <c r="B30" s="407"/>
+      <c r="C30" s="407"/>
+      <c r="D30" s="408"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="396"/>
+      <c r="I30" s="397"/>
+      <c r="J30" s="399"/>
     </row>
     <row r="31" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A31" s="364" t="s">
+      <c r="A31" s="345" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="365"/>
-      <c r="C31" s="365"/>
-      <c r="D31" s="365"/>
-      <c r="E31" s="365"/>
-      <c r="F31" s="365"/>
-      <c r="G31" s="365"/>
-      <c r="H31" s="365"/>
-      <c r="I31" s="365"/>
-      <c r="J31" s="366"/>
+      <c r="B31" s="346"/>
+      <c r="C31" s="346"/>
+      <c r="D31" s="346"/>
+      <c r="E31" s="346"/>
+      <c r="F31" s="346"/>
+      <c r="G31" s="346"/>
+      <c r="H31" s="346"/>
+      <c r="I31" s="346"/>
+      <c r="J31" s="347"/>
     </row>
     <row r="32" spans="1:10" ht="18" customHeight="1">
-      <c r="A32" s="405" t="s">
+      <c r="A32" s="414" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="406"/>
-      <c r="C32" s="406"/>
-      <c r="D32" s="406"/>
-      <c r="E32" s="406"/>
-      <c r="F32" s="406"/>
-      <c r="G32" s="406"/>
-      <c r="H32" s="406"/>
-      <c r="I32" s="406"/>
-      <c r="J32" s="407"/>
+      <c r="B32" s="415"/>
+      <c r="C32" s="415"/>
+      <c r="D32" s="415"/>
+      <c r="E32" s="415"/>
+      <c r="F32" s="415"/>
+      <c r="G32" s="415"/>
+      <c r="H32" s="415"/>
+      <c r="I32" s="415"/>
+      <c r="J32" s="416"/>
     </row>
     <row r="33" spans="1:10" ht="30" customHeight="1">
-      <c r="A33" s="91" t="s">
+      <c r="A33" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="93" t="s">
+      <c r="B33" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="92" t="s">
+      <c r="C33" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="403" t="s">
+      <c r="D33" s="402" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="403"/>
-      <c r="F33" s="403"/>
-      <c r="G33" s="427"/>
-      <c r="H33" s="92" t="s">
+      <c r="E33" s="402"/>
+      <c r="F33" s="402"/>
+      <c r="G33" s="403"/>
+      <c r="H33" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="I33" s="403" t="s">
+      <c r="I33" s="402" t="s">
         <v>110</v>
       </c>
-      <c r="J33" s="404"/>
+      <c r="J33" s="413"/>
     </row>
     <row r="34" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A34" s="378"/>
-      <c r="B34" s="348"/>
-      <c r="C34" s="346"/>
-      <c r="D34" s="347"/>
-      <c r="E34" s="347"/>
-      <c r="F34" s="347"/>
-      <c r="G34" s="348"/>
-      <c r="H34" s="346"/>
-      <c r="I34" s="347"/>
-      <c r="J34" s="379"/>
+      <c r="A34" s="400"/>
+      <c r="B34" s="334"/>
+      <c r="C34" s="332"/>
+      <c r="D34" s="333"/>
+      <c r="E34" s="333"/>
+      <c r="F34" s="333"/>
+      <c r="G34" s="334"/>
+      <c r="H34" s="332"/>
+      <c r="I34" s="333"/>
+      <c r="J34" s="409"/>
     </row>
     <row r="35" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A35" s="378"/>
-      <c r="B35" s="348"/>
-      <c r="C35" s="346"/>
-      <c r="D35" s="347"/>
-      <c r="E35" s="347"/>
-      <c r="F35" s="347"/>
-      <c r="G35" s="348"/>
-      <c r="H35" s="346"/>
-      <c r="I35" s="347"/>
-      <c r="J35" s="379"/>
+      <c r="A35" s="400"/>
+      <c r="B35" s="334"/>
+      <c r="C35" s="332"/>
+      <c r="D35" s="333"/>
+      <c r="E35" s="333"/>
+      <c r="F35" s="333"/>
+      <c r="G35" s="334"/>
+      <c r="H35" s="332"/>
+      <c r="I35" s="333"/>
+      <c r="J35" s="409"/>
     </row>
     <row r="36" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A36" s="378"/>
-      <c r="B36" s="348"/>
-      <c r="C36" s="346"/>
-      <c r="D36" s="347"/>
-      <c r="E36" s="347"/>
-      <c r="F36" s="347"/>
-      <c r="G36" s="348"/>
-      <c r="H36" s="346"/>
-      <c r="I36" s="347"/>
-      <c r="J36" s="379"/>
+      <c r="A36" s="400"/>
+      <c r="B36" s="334"/>
+      <c r="C36" s="332"/>
+      <c r="D36" s="333"/>
+      <c r="E36" s="333"/>
+      <c r="F36" s="333"/>
+      <c r="G36" s="334"/>
+      <c r="H36" s="332"/>
+      <c r="I36" s="333"/>
+      <c r="J36" s="409"/>
     </row>
     <row r="37" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A37" s="378"/>
-      <c r="B37" s="348"/>
-      <c r="C37" s="346"/>
-      <c r="D37" s="347"/>
-      <c r="E37" s="347"/>
-      <c r="F37" s="347"/>
-      <c r="G37" s="348"/>
-      <c r="H37" s="346"/>
-      <c r="I37" s="347"/>
-      <c r="J37" s="379"/>
+      <c r="A37" s="400"/>
+      <c r="B37" s="334"/>
+      <c r="C37" s="332"/>
+      <c r="D37" s="333"/>
+      <c r="E37" s="333"/>
+      <c r="F37" s="333"/>
+      <c r="G37" s="334"/>
+      <c r="H37" s="332"/>
+      <c r="I37" s="333"/>
+      <c r="J37" s="409"/>
     </row>
     <row r="38" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A38" s="426"/>
-      <c r="B38" s="425"/>
-      <c r="C38" s="383"/>
-      <c r="D38" s="384"/>
-      <c r="E38" s="384"/>
-      <c r="F38" s="384"/>
-      <c r="G38" s="425"/>
-      <c r="H38" s="383"/>
-      <c r="I38" s="384"/>
-      <c r="J38" s="385"/>
+      <c r="A38" s="401"/>
+      <c r="B38" s="398"/>
+      <c r="C38" s="396"/>
+      <c r="D38" s="397"/>
+      <c r="E38" s="397"/>
+      <c r="F38" s="397"/>
+      <c r="G38" s="398"/>
+      <c r="H38" s="396"/>
+      <c r="I38" s="397"/>
+      <c r="J38" s="399"/>
     </row>
     <row r="39" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A39" s="364" t="s">
+      <c r="A39" s="345" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="365"/>
-      <c r="C39" s="365"/>
-      <c r="D39" s="365"/>
-      <c r="E39" s="365"/>
-      <c r="F39" s="365"/>
-      <c r="G39" s="365"/>
-      <c r="H39" s="365"/>
-      <c r="I39" s="365"/>
-      <c r="J39" s="366"/>
+      <c r="B39" s="346"/>
+      <c r="C39" s="346"/>
+      <c r="D39" s="346"/>
+      <c r="E39" s="346"/>
+      <c r="F39" s="346"/>
+      <c r="G39" s="346"/>
+      <c r="H39" s="346"/>
+      <c r="I39" s="346"/>
+      <c r="J39" s="347"/>
     </row>
     <row r="40" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A40" s="410" t="s">
+      <c r="A40" s="378" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="411"/>
-      <c r="C40" s="411"/>
-      <c r="D40" s="411"/>
-      <c r="E40" s="411"/>
-      <c r="F40" s="411"/>
-      <c r="G40" s="411"/>
-      <c r="H40" s="411"/>
-      <c r="I40" s="411"/>
-      <c r="J40" s="412"/>
+      <c r="B40" s="379"/>
+      <c r="C40" s="379"/>
+      <c r="D40" s="379"/>
+      <c r="E40" s="379"/>
+      <c r="F40" s="379"/>
+      <c r="G40" s="379"/>
+      <c r="H40" s="379"/>
+      <c r="I40" s="379"/>
+      <c r="J40" s="380"/>
     </row>
     <row r="41" spans="1:10" ht="2.25" customHeight="1">
-      <c r="A41" s="408"/>
-      <c r="B41" s="360"/>
-      <c r="C41" s="360"/>
-      <c r="D41" s="360"/>
-      <c r="E41" s="360"/>
-      <c r="F41" s="360"/>
-      <c r="G41" s="360"/>
-      <c r="H41" s="360"/>
-      <c r="I41" s="360"/>
-      <c r="J41" s="409"/>
+      <c r="A41" s="404"/>
+      <c r="B41" s="341"/>
+      <c r="C41" s="341"/>
+      <c r="D41" s="341"/>
+      <c r="E41" s="341"/>
+      <c r="F41" s="341"/>
+      <c r="G41" s="341"/>
+      <c r="H41" s="341"/>
+      <c r="I41" s="341"/>
+      <c r="J41" s="405"/>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1"/>
     <row r="43" spans="1:10" ht="12" customHeight="1"/>
@@ -9614,6 +9617,67 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="77">
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:J5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H13:J15"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="A23:D23"/>
     <mergeCell ref="A40:J40"/>
     <mergeCell ref="A39:J39"/>
     <mergeCell ref="A2:J2"/>
@@ -9630,67 +9694,6 @@
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H13:J15"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:J5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H30:J30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.26" bottom="0" header="0" footer="0"/>
@@ -9706,8 +9709,8 @@
   </sheetPr>
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A36" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54:F54"/>
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="A36" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9724,777 +9727,807 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="3" customHeight="1">
-      <c r="A1" s="416"/>
-      <c r="B1" s="417"/>
-      <c r="C1" s="417"/>
-      <c r="D1" s="417"/>
-      <c r="E1" s="417"/>
-      <c r="F1" s="417"/>
-      <c r="G1" s="417"/>
-      <c r="H1" s="417"/>
-      <c r="I1" s="418"/>
+      <c r="A1" s="384"/>
+      <c r="B1" s="385"/>
+      <c r="C1" s="385"/>
+      <c r="D1" s="385"/>
+      <c r="E1" s="385"/>
+      <c r="F1" s="385"/>
+      <c r="G1" s="385"/>
+      <c r="H1" s="385"/>
+      <c r="I1" s="386"/>
     </row>
     <row r="2" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="465" t="s">
+      <c r="B2" s="476" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="465"/>
-      <c r="D2" s="466"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="458"/>
-      <c r="G2" s="458"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
+      <c r="C2" s="476"/>
+      <c r="D2" s="477"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="462"/>
+      <c r="G2" s="462"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:9" ht="12" customHeight="1">
-      <c r="A3" s="66"/>
-      <c r="B3" s="467"/>
-      <c r="C3" s="467"/>
-      <c r="D3" s="468"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="478"/>
+      <c r="C3" s="478"/>
+      <c r="D3" s="479"/>
       <c r="E3" s="9"/>
       <c r="F3" s="4"/>
       <c r="G3" s="9"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="67"/>
+      <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="473" t="s">
+      <c r="B4" s="484" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="473"/>
-      <c r="D4" s="474"/>
+      <c r="C4" s="484"/>
+      <c r="D4" s="485"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="459"/>
-      <c r="G4" s="459"/>
+      <c r="F4" s="463"/>
+      <c r="G4" s="463"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="67"/>
+      <c r="I4" s="65"/>
     </row>
     <row r="5" spans="1:9" ht="12" customHeight="1">
-      <c r="A5" s="66"/>
-      <c r="B5" s="473"/>
-      <c r="C5" s="473"/>
-      <c r="D5" s="474"/>
-      <c r="E5" s="460" t="s">
+      <c r="A5" s="64"/>
+      <c r="B5" s="484"/>
+      <c r="C5" s="484"/>
+      <c r="D5" s="485"/>
+      <c r="E5" s="464" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="461"/>
-      <c r="G5" s="461"/>
-      <c r="H5" s="461"/>
-      <c r="I5" s="462"/>
+      <c r="F5" s="465"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
+      <c r="I5" s="466"/>
     </row>
     <row r="6" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A6" s="66"/>
-      <c r="B6" s="473"/>
-      <c r="C6" s="473"/>
-      <c r="D6" s="474"/>
-      <c r="E6" s="461"/>
-      <c r="F6" s="461"/>
-      <c r="G6" s="461"/>
-      <c r="H6" s="461"/>
-      <c r="I6" s="462"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="484"/>
+      <c r="C6" s="484"/>
+      <c r="D6" s="485"/>
+      <c r="E6" s="465"/>
+      <c r="F6" s="465"/>
+      <c r="G6" s="465"/>
+      <c r="H6" s="465"/>
+      <c r="I6" s="466"/>
     </row>
     <row r="7" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A7" s="66"/>
-      <c r="B7" s="473"/>
-      <c r="C7" s="473"/>
-      <c r="D7" s="474"/>
-      <c r="E7" s="463"/>
-      <c r="F7" s="463"/>
-      <c r="G7" s="463"/>
-      <c r="H7" s="463"/>
-      <c r="I7" s="464"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="484"/>
+      <c r="C7" s="484"/>
+      <c r="D7" s="485"/>
+      <c r="E7" s="467"/>
+      <c r="F7" s="467"/>
+      <c r="G7" s="467"/>
+      <c r="H7" s="467"/>
+      <c r="I7" s="468"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="473" t="s">
+      <c r="B8" s="484" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="473"/>
-      <c r="D8" s="474"/>
+      <c r="C8" s="484"/>
+      <c r="D8" s="485"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="75"/>
+      <c r="I8" s="73"/>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A9" s="66"/>
-      <c r="B9" s="473"/>
-      <c r="C9" s="473"/>
-      <c r="D9" s="474"/>
-      <c r="E9" s="469" t="s">
+      <c r="A9" s="64"/>
+      <c r="B9" s="484"/>
+      <c r="C9" s="484"/>
+      <c r="D9" s="485"/>
+      <c r="E9" s="480" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="461"/>
-      <c r="G9" s="461"/>
-      <c r="H9" s="461"/>
-      <c r="I9" s="462"/>
+      <c r="F9" s="465"/>
+      <c r="G9" s="465"/>
+      <c r="H9" s="465"/>
+      <c r="I9" s="466"/>
     </row>
     <row r="10" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A10" s="66"/>
-      <c r="B10" s="473"/>
-      <c r="C10" s="473"/>
-      <c r="D10" s="474"/>
-      <c r="E10" s="469"/>
-      <c r="F10" s="461"/>
-      <c r="G10" s="461"/>
-      <c r="H10" s="461"/>
-      <c r="I10" s="462"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="484"/>
+      <c r="C10" s="484"/>
+      <c r="D10" s="485"/>
+      <c r="E10" s="480"/>
+      <c r="F10" s="465"/>
+      <c r="G10" s="465"/>
+      <c r="H10" s="465"/>
+      <c r="I10" s="466"/>
     </row>
     <row r="11" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A11" s="90"/>
-      <c r="B11" s="475"/>
-      <c r="C11" s="475"/>
-      <c r="D11" s="476"/>
-      <c r="E11" s="470"/>
-      <c r="F11" s="471"/>
-      <c r="G11" s="471"/>
-      <c r="H11" s="471"/>
-      <c r="I11" s="472"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="486"/>
+      <c r="C11" s="486"/>
+      <c r="D11" s="487"/>
+      <c r="E11" s="481"/>
+      <c r="F11" s="482"/>
+      <c r="G11" s="482"/>
+      <c r="H11" s="482"/>
+      <c r="I11" s="483"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="440" t="s">
+      <c r="B12" s="469" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="440"/>
-      <c r="D12" s="441"/>
+      <c r="C12" s="469"/>
+      <c r="D12" s="470"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="69"/>
+      <c r="I12" s="67"/>
     </row>
     <row r="13" spans="1:9" ht="42.75" customHeight="1">
-      <c r="A13" s="70"/>
-      <c r="B13" s="442"/>
-      <c r="C13" s="442"/>
-      <c r="D13" s="443"/>
-      <c r="E13" s="452" t="s">
+      <c r="A13" s="68"/>
+      <c r="B13" s="471"/>
+      <c r="C13" s="471"/>
+      <c r="D13" s="472"/>
+      <c r="E13" s="473" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="436"/>
-      <c r="G13" s="436"/>
-      <c r="H13" s="436"/>
-      <c r="I13" s="437"/>
+      <c r="F13" s="474"/>
+      <c r="G13" s="474"/>
+      <c r="H13" s="474"/>
+      <c r="I13" s="475"/>
     </row>
     <row r="14" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A14" s="450"/>
-      <c r="B14" s="443" t="s">
+      <c r="A14" s="488"/>
+      <c r="B14" s="472" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="443"/>
-      <c r="D14" s="443"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="82"/>
+      <c r="C14" s="472"/>
+      <c r="D14" s="472"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="80"/>
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A15" s="450"/>
-      <c r="B15" s="443"/>
-      <c r="C15" s="443"/>
-      <c r="D15" s="443"/>
-      <c r="E15" s="452" t="s">
+      <c r="A15" s="488"/>
+      <c r="B15" s="472"/>
+      <c r="C15" s="472"/>
+      <c r="D15" s="472"/>
+      <c r="E15" s="473" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="436"/>
-      <c r="G15" s="436"/>
-      <c r="H15" s="436"/>
-      <c r="I15" s="437"/>
+      <c r="F15" s="474"/>
+      <c r="G15" s="474"/>
+      <c r="H15" s="474"/>
+      <c r="I15" s="475"/>
     </row>
     <row r="16" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A16" s="451"/>
-      <c r="B16" s="445"/>
-      <c r="C16" s="445"/>
-      <c r="D16" s="445"/>
-      <c r="E16" s="452"/>
-      <c r="F16" s="436"/>
-      <c r="G16" s="436"/>
-      <c r="H16" s="436"/>
-      <c r="I16" s="437"/>
+      <c r="A16" s="489"/>
+      <c r="B16" s="499"/>
+      <c r="C16" s="499"/>
+      <c r="D16" s="499"/>
+      <c r="E16" s="473"/>
+      <c r="F16" s="474"/>
+      <c r="G16" s="474"/>
+      <c r="H16" s="474"/>
+      <c r="I16" s="475"/>
     </row>
     <row r="17" spans="1:10" ht="9.75" hidden="1" customHeight="1">
-      <c r="A17" s="71"/>
-      <c r="B17" s="76"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="74"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="84"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="82"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="454" t="s">
+      <c r="B18" s="493" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="454"/>
-      <c r="D18" s="455"/>
-      <c r="E18" s="89"/>
+      <c r="C18" s="493"/>
+      <c r="D18" s="494"/>
+      <c r="E18" s="87"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="69"/>
+      <c r="I18" s="67"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A19" s="70"/>
-      <c r="B19" s="446"/>
-      <c r="C19" s="446"/>
-      <c r="D19" s="447"/>
-      <c r="E19" s="452" t="s">
+      <c r="A19" s="68"/>
+      <c r="B19" s="495"/>
+      <c r="C19" s="495"/>
+      <c r="D19" s="496"/>
+      <c r="E19" s="473" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="436"/>
-      <c r="G19" s="436"/>
-      <c r="H19" s="436"/>
-      <c r="I19" s="437"/>
+      <c r="F19" s="474"/>
+      <c r="G19" s="474"/>
+      <c r="H19" s="474"/>
+      <c r="I19" s="475"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A20" s="70"/>
-      <c r="B20" s="446"/>
-      <c r="C20" s="446"/>
-      <c r="D20" s="447"/>
-      <c r="E20" s="452"/>
-      <c r="F20" s="436"/>
-      <c r="G20" s="436"/>
-      <c r="H20" s="436"/>
-      <c r="I20" s="437"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="495"/>
+      <c r="C20" s="495"/>
+      <c r="D20" s="496"/>
+      <c r="E20" s="473"/>
+      <c r="F20" s="474"/>
+      <c r="G20" s="474"/>
+      <c r="H20" s="474"/>
+      <c r="I20" s="475"/>
     </row>
     <row r="21" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A21" s="72"/>
-      <c r="B21" s="456"/>
-      <c r="C21" s="456"/>
-      <c r="D21" s="457"/>
-      <c r="E21" s="453"/>
-      <c r="F21" s="438"/>
-      <c r="G21" s="438"/>
-      <c r="H21" s="438"/>
-      <c r="I21" s="439"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="497"/>
+      <c r="C21" s="497"/>
+      <c r="D21" s="498"/>
+      <c r="E21" s="490"/>
+      <c r="F21" s="491"/>
+      <c r="G21" s="491"/>
+      <c r="H21" s="491"/>
+      <c r="I21" s="492"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="454" t="s">
+      <c r="B22" s="493" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="454"/>
-      <c r="D22" s="455"/>
+      <c r="C22" s="493"/>
+      <c r="D22" s="494"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="69"/>
+      <c r="I22" s="67"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
-      <c r="A23" s="70"/>
-      <c r="B23" s="446"/>
-      <c r="C23" s="446"/>
-      <c r="D23" s="447"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="495"/>
+      <c r="C23" s="495"/>
+      <c r="D23" s="496"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="87"/>
+      <c r="I23" s="85"/>
     </row>
     <row r="24" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A24" s="70"/>
-      <c r="B24" s="446"/>
-      <c r="C24" s="446"/>
-      <c r="D24" s="447"/>
-      <c r="E24" s="436" t="s">
+      <c r="A24" s="68"/>
+      <c r="B24" s="495"/>
+      <c r="C24" s="495"/>
+      <c r="D24" s="496"/>
+      <c r="E24" s="474" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="436"/>
-      <c r="G24" s="436"/>
-      <c r="H24" s="436"/>
-      <c r="I24" s="437"/>
+      <c r="F24" s="474"/>
+      <c r="G24" s="474"/>
+      <c r="H24" s="474"/>
+      <c r="I24" s="475"/>
     </row>
     <row r="25" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A25" s="70"/>
-      <c r="B25" s="456"/>
-      <c r="C25" s="456"/>
-      <c r="D25" s="457"/>
-      <c r="E25" s="438"/>
-      <c r="F25" s="438"/>
-      <c r="G25" s="438"/>
-      <c r="H25" s="438"/>
-      <c r="I25" s="439"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="497"/>
+      <c r="C25" s="497"/>
+      <c r="D25" s="498"/>
+      <c r="E25" s="491"/>
+      <c r="F25" s="491"/>
+      <c r="G25" s="491"/>
+      <c r="H25" s="491"/>
+      <c r="I25" s="492"/>
     </row>
     <row r="26" spans="1:10" ht="18" customHeight="1">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="440" t="s">
+      <c r="B26" s="469" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="440"/>
-      <c r="D26" s="441"/>
+      <c r="C26" s="469"/>
+      <c r="D26" s="470"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="69"/>
+      <c r="I26" s="67"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
-      <c r="A27" s="70"/>
-      <c r="B27" s="442"/>
-      <c r="C27" s="442"/>
-      <c r="D27" s="443"/>
-      <c r="E27" s="436" t="s">
+      <c r="A27" s="68"/>
+      <c r="B27" s="471"/>
+      <c r="C27" s="471"/>
+      <c r="D27" s="472"/>
+      <c r="E27" s="474" t="s">
         <v>122</v>
       </c>
-      <c r="F27" s="436"/>
-      <c r="G27" s="436"/>
-      <c r="H27" s="436"/>
-      <c r="I27" s="437"/>
+      <c r="F27" s="474"/>
+      <c r="G27" s="474"/>
+      <c r="H27" s="474"/>
+      <c r="I27" s="475"/>
     </row>
     <row r="28" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A28" s="70"/>
-      <c r="B28" s="442"/>
-      <c r="C28" s="442"/>
-      <c r="D28" s="443"/>
-      <c r="E28" s="436"/>
-      <c r="F28" s="436"/>
-      <c r="G28" s="436"/>
-      <c r="H28" s="436"/>
-      <c r="I28" s="437"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="471"/>
+      <c r="C28" s="471"/>
+      <c r="D28" s="472"/>
+      <c r="E28" s="474"/>
+      <c r="F28" s="474"/>
+      <c r="G28" s="474"/>
+      <c r="H28" s="474"/>
+      <c r="I28" s="475"/>
     </row>
     <row r="29" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A29" s="72"/>
-      <c r="B29" s="444"/>
-      <c r="C29" s="444"/>
-      <c r="D29" s="445"/>
-      <c r="E29" s="438"/>
-      <c r="F29" s="438"/>
-      <c r="G29" s="438"/>
-      <c r="H29" s="438"/>
-      <c r="I29" s="439"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="506"/>
+      <c r="C29" s="506"/>
+      <c r="D29" s="499"/>
+      <c r="E29" s="491"/>
+      <c r="F29" s="491"/>
+      <c r="G29" s="491"/>
+      <c r="H29" s="491"/>
+      <c r="I29" s="492"/>
     </row>
     <row r="30" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A30" s="85" t="s">
+      <c r="A30" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="B30" s="446" t="s">
+      <c r="B30" s="495" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="446"/>
-      <c r="D30" s="447"/>
+      <c r="C30" s="495"/>
+      <c r="D30" s="496"/>
       <c r="E30" s="8"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="73"/>
+      <c r="I30" s="71"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A31" s="85"/>
-      <c r="B31" s="446"/>
-      <c r="C31" s="446"/>
-      <c r="D31" s="447"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="78"/>
+      <c r="A31" s="83"/>
+      <c r="B31" s="495"/>
+      <c r="C31" s="495"/>
+      <c r="D31" s="496"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="76"/>
       <c r="J31" s="10"/>
     </row>
     <row r="32" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A32" s="85" t="s">
+      <c r="A32" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="B32" s="446" t="s">
+      <c r="B32" s="495" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="446"/>
-      <c r="D32" s="447"/>
+      <c r="C32" s="495"/>
+      <c r="D32" s="496"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
-      <c r="I32" s="87"/>
+      <c r="I32" s="85"/>
       <c r="J32" s="10"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1">
-      <c r="A33" s="85"/>
-      <c r="B33" s="446"/>
-      <c r="C33" s="446"/>
-      <c r="D33" s="447"/>
-      <c r="E33" s="448" t="s">
+      <c r="A33" s="83"/>
+      <c r="B33" s="495"/>
+      <c r="C33" s="495"/>
+      <c r="D33" s="496"/>
+      <c r="E33" s="507" t="s">
         <v>134</v>
       </c>
-      <c r="F33" s="448"/>
-      <c r="G33" s="448"/>
-      <c r="H33" s="448"/>
-      <c r="I33" s="449"/>
-      <c r="J33" s="88"/>
+      <c r="F33" s="507"/>
+      <c r="G33" s="507"/>
+      <c r="H33" s="507"/>
+      <c r="I33" s="508"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A34" s="85" t="s">
+      <c r="A34" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="B34" s="447" t="s">
+      <c r="B34" s="496" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="447"/>
-      <c r="D34" s="447"/>
+      <c r="C34" s="496"/>
+      <c r="D34" s="496"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
-      <c r="I34" s="87"/>
+      <c r="I34" s="85"/>
       <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
-      <c r="A35" s="85"/>
-      <c r="B35" s="447"/>
-      <c r="C35" s="447"/>
-      <c r="D35" s="447"/>
-      <c r="E35" s="448" t="s">
+      <c r="A35" s="83"/>
+      <c r="B35" s="496"/>
+      <c r="C35" s="496"/>
+      <c r="D35" s="496"/>
+      <c r="E35" s="507" t="s">
         <v>134</v>
       </c>
-      <c r="F35" s="448"/>
-      <c r="G35" s="448"/>
-      <c r="H35" s="448"/>
-      <c r="I35" s="449"/>
-      <c r="J35" s="88"/>
+      <c r="F35" s="507"/>
+      <c r="G35" s="507"/>
+      <c r="H35" s="507"/>
+      <c r="I35" s="508"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A36" s="85" t="s">
+      <c r="A36" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="B36" s="447" t="s">
+      <c r="B36" s="496" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="447"/>
-      <c r="D36" s="447"/>
+      <c r="C36" s="496"/>
+      <c r="D36" s="496"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
-      <c r="I36" s="87"/>
+      <c r="I36" s="85"/>
       <c r="J36" s="10"/>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A37" s="85"/>
-      <c r="B37" s="447"/>
-      <c r="C37" s="447"/>
-      <c r="D37" s="447"/>
-      <c r="E37" s="448" t="s">
+      <c r="A37" s="83"/>
+      <c r="B37" s="496"/>
+      <c r="C37" s="496"/>
+      <c r="D37" s="496"/>
+      <c r="E37" s="507" t="s">
         <v>134</v>
       </c>
-      <c r="F37" s="448"/>
-      <c r="G37" s="448"/>
-      <c r="H37" s="448"/>
-      <c r="I37" s="449"/>
-      <c r="J37" s="88"/>
+      <c r="F37" s="507"/>
+      <c r="G37" s="507"/>
+      <c r="H37" s="507"/>
+      <c r="I37" s="508"/>
+      <c r="J37" s="86"/>
     </row>
     <row r="38" spans="1:10" ht="3.75" customHeight="1">
-      <c r="A38" s="86"/>
-      <c r="B38" s="434"/>
-      <c r="C38" s="434"/>
-      <c r="D38" s="435"/>
-      <c r="E38" s="428"/>
-      <c r="F38" s="428"/>
-      <c r="G38" s="429"/>
-      <c r="H38" s="429"/>
-      <c r="I38" s="74"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="504"/>
+      <c r="C38" s="504"/>
+      <c r="D38" s="505"/>
+      <c r="E38" s="500"/>
+      <c r="F38" s="500"/>
+      <c r="G38" s="501"/>
+      <c r="H38" s="501"/>
+      <c r="I38" s="72"/>
       <c r="J38" s="10"/>
     </row>
     <row r="39" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A39" s="72" t="s">
+      <c r="A39" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="B39" s="430" t="s">
+      <c r="B39" s="502" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="430"/>
-      <c r="D39" s="430"/>
-      <c r="E39" s="430"/>
-      <c r="F39" s="430"/>
-      <c r="G39" s="431"/>
-      <c r="H39" s="431"/>
-      <c r="I39" s="431"/>
+      <c r="C39" s="502"/>
+      <c r="D39" s="502"/>
+      <c r="E39" s="502"/>
+      <c r="F39" s="502"/>
+      <c r="G39" s="503"/>
+      <c r="H39" s="503"/>
+      <c r="I39" s="503"/>
       <c r="J39" s="10"/>
     </row>
     <row r="40" spans="1:10" ht="18" customHeight="1">
-      <c r="A40" s="57"/>
-      <c r="B40" s="19" t="s">
+      <c r="A40" s="55"/>
+      <c r="B40" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="25" t="s">
+      <c r="C40" s="19"/>
+      <c r="D40" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E40" s="507" t="s">
+      <c r="E40" s="460" t="s">
         <v>143</v>
       </c>
-      <c r="F40" s="508"/>
-      <c r="G40" s="496" t="s">
+      <c r="F40" s="461"/>
+      <c r="G40" s="447" t="s">
         <v>147</v>
       </c>
-      <c r="H40" s="497"/>
-      <c r="I40" s="498"/>
+      <c r="H40" s="448"/>
+      <c r="I40" s="449"/>
     </row>
     <row r="41" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A41" s="58"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="432"/>
-      <c r="F41" s="433"/>
-      <c r="G41" s="499"/>
-      <c r="H41" s="500"/>
-      <c r="I41" s="501"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="456"/>
+      <c r="F41" s="457"/>
+      <c r="G41" s="450"/>
+      <c r="H41" s="451"/>
+      <c r="I41" s="452"/>
     </row>
     <row r="42" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A42" s="58"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="432"/>
-      <c r="F42" s="433"/>
-      <c r="G42" s="499"/>
-      <c r="H42" s="500"/>
-      <c r="I42" s="501"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="456"/>
+      <c r="F42" s="457"/>
+      <c r="G42" s="450"/>
+      <c r="H42" s="451"/>
+      <c r="I42" s="452"/>
     </row>
     <row r="43" spans="1:10" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A43" s="59"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="505"/>
-      <c r="F43" s="506"/>
-      <c r="G43" s="499"/>
-      <c r="H43" s="500"/>
-      <c r="I43" s="501"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="458"/>
+      <c r="F43" s="459"/>
+      <c r="G43" s="450"/>
+      <c r="H43" s="451"/>
+      <c r="I43" s="452"/>
     </row>
     <row r="44" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A44" s="483" t="s">
+      <c r="A44" s="434" t="s">
         <v>144</v>
       </c>
-      <c r="B44" s="494" t="s">
+      <c r="B44" s="445" t="s">
         <v>145</v>
       </c>
-      <c r="C44" s="494"/>
-      <c r="D44" s="494"/>
-      <c r="E44" s="494"/>
-      <c r="F44" s="495"/>
-      <c r="G44" s="499"/>
-      <c r="H44" s="500"/>
-      <c r="I44" s="501"/>
+      <c r="C44" s="445"/>
+      <c r="D44" s="445"/>
+      <c r="E44" s="445"/>
+      <c r="F44" s="446"/>
+      <c r="G44" s="450"/>
+      <c r="H44" s="451"/>
+      <c r="I44" s="452"/>
     </row>
     <row r="45" spans="1:10" ht="7.5" customHeight="1">
-      <c r="A45" s="484"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="499"/>
-      <c r="H45" s="500"/>
-      <c r="I45" s="501"/>
+      <c r="A45" s="435"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="450"/>
+      <c r="H45" s="451"/>
+      <c r="I45" s="452"/>
     </row>
     <row r="46" spans="1:10" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A46" s="49"/>
-      <c r="B46" s="492" t="s">
+      <c r="A46" s="47"/>
+      <c r="B46" s="443" t="s">
         <v>146</v>
       </c>
-      <c r="C46" s="492"/>
-      <c r="D46" s="492"/>
-      <c r="E46" s="492"/>
-      <c r="F46" s="493"/>
-      <c r="G46" s="502"/>
-      <c r="H46" s="503"/>
-      <c r="I46" s="504"/>
+      <c r="C46" s="443"/>
+      <c r="D46" s="443"/>
+      <c r="E46" s="443"/>
+      <c r="F46" s="444"/>
+      <c r="G46" s="453"/>
+      <c r="H46" s="454"/>
+      <c r="I46" s="455"/>
     </row>
     <row r="47" spans="1:10" ht="6.75" customHeight="1">
-      <c r="A47" s="46"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="2"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="39"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="37"/>
     </row>
     <row r="48" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A48" s="40"/>
-      <c r="B48" s="18"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="509"/>
       <c r="C48" s="10"/>
-      <c r="D48" s="482"/>
-      <c r="E48" s="482"/>
-      <c r="F48" s="482"/>
+      <c r="D48" s="433"/>
+      <c r="E48" s="433"/>
+      <c r="F48" s="433"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="489"/>
-      <c r="I48" s="41"/>
+      <c r="H48" s="440"/>
+      <c r="I48" s="39"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A49" s="40"/>
-      <c r="B49" s="22" t="s">
+      <c r="A49" s="38"/>
+      <c r="B49" s="21" t="s">
         <v>148</v>
       </c>
       <c r="C49" s="10"/>
-      <c r="D49" s="482"/>
-      <c r="E49" s="482"/>
-      <c r="F49" s="482"/>
+      <c r="D49" s="433"/>
+      <c r="E49" s="433"/>
+      <c r="F49" s="433"/>
       <c r="G49" s="10"/>
-      <c r="H49" s="490"/>
-      <c r="I49" s="41"/>
+      <c r="H49" s="441"/>
+      <c r="I49" s="39"/>
     </row>
     <row r="50" spans="1:9" ht="6" customHeight="1">
-      <c r="A50" s="40"/>
+      <c r="A50" s="38"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
-      <c r="D50" s="482"/>
-      <c r="E50" s="482"/>
-      <c r="F50" s="482"/>
+      <c r="D50" s="433"/>
+      <c r="E50" s="433"/>
+      <c r="F50" s="433"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="490"/>
-      <c r="I50" s="41"/>
+      <c r="H50" s="441"/>
+      <c r="I50" s="39"/>
     </row>
     <row r="51" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A51" s="40"/>
-      <c r="B51" s="18"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="509"/>
       <c r="C51" s="10"/>
-      <c r="D51" s="482"/>
-      <c r="E51" s="482"/>
-      <c r="F51" s="482"/>
+      <c r="D51" s="433"/>
+      <c r="E51" s="433"/>
+      <c r="F51" s="433"/>
       <c r="G51" s="10"/>
-      <c r="H51" s="490"/>
-      <c r="I51" s="41"/>
+      <c r="H51" s="441"/>
+      <c r="I51" s="39"/>
     </row>
     <row r="52" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A52" s="40"/>
-      <c r="B52" s="22" t="s">
+      <c r="A52" s="38"/>
+      <c r="B52" s="21" t="s">
         <v>149</v>
       </c>
       <c r="C52" s="10"/>
-      <c r="D52" s="480" t="s">
+      <c r="D52" s="431" t="s">
         <v>150</v>
       </c>
-      <c r="E52" s="481"/>
-      <c r="F52" s="481"/>
+      <c r="E52" s="432"/>
+      <c r="F52" s="432"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="490"/>
-      <c r="I52" s="41"/>
+      <c r="H52" s="441"/>
+      <c r="I52" s="39"/>
     </row>
     <row r="53" spans="1:9" ht="4.5" customHeight="1">
-      <c r="A53" s="40"/>
+      <c r="A53" s="38"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="490"/>
-      <c r="I53" s="41"/>
+      <c r="H53" s="441"/>
+      <c r="I53" s="39"/>
     </row>
     <row r="54" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A54" s="40"/>
-      <c r="B54" s="24" t="s">
+      <c r="A54" s="38"/>
+      <c r="B54" s="149" t="s">
         <v>151</v>
       </c>
       <c r="C54" s="10"/>
-      <c r="D54" s="488"/>
-      <c r="E54" s="488"/>
-      <c r="F54" s="488"/>
+      <c r="D54" s="439"/>
+      <c r="E54" s="439"/>
+      <c r="F54" s="439"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="491"/>
-      <c r="I54" s="41"/>
+      <c r="H54" s="442"/>
+      <c r="I54" s="39"/>
     </row>
     <row r="55" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A55" s="40"/>
-      <c r="B55" s="22" t="s">
+      <c r="A55" s="38"/>
+      <c r="B55" s="21" t="s">
         <v>152</v>
       </c>
       <c r="C55" s="10"/>
-      <c r="D55" s="480" t="s">
+      <c r="D55" s="431" t="s">
         <v>153</v>
       </c>
-      <c r="E55" s="480"/>
-      <c r="F55" s="480"/>
+      <c r="E55" s="431"/>
+      <c r="F55" s="431"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="80" t="s">
+      <c r="H55" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="I55" s="41"/>
+      <c r="I55" s="39"/>
     </row>
     <row r="56" spans="1:9" ht="7.5" customHeight="1">
-      <c r="A56" s="42"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="45"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="43"/>
     </row>
     <row r="57" spans="1:9" ht="3.75" customHeight="1">
-      <c r="A57" s="50"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="53"/>
+      <c r="A57" s="48"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="51"/>
     </row>
     <row r="58" spans="1:9" s="11" customFormat="1" ht="9" customHeight="1">
-      <c r="A58" s="54"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="56"/>
+      <c r="A58" s="52"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="54"/>
     </row>
     <row r="59" spans="1:9" ht="15" customHeight="1">
-      <c r="A59" s="485" t="s">
+      <c r="A59" s="436" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="486"/>
-      <c r="C59" s="486"/>
-      <c r="D59" s="486"/>
-      <c r="E59" s="486"/>
-      <c r="F59" s="486"/>
-      <c r="G59" s="486"/>
-      <c r="H59" s="486"/>
-      <c r="I59" s="487"/>
+      <c r="B59" s="437"/>
+      <c r="C59" s="437"/>
+      <c r="D59" s="437"/>
+      <c r="E59" s="437"/>
+      <c r="F59" s="437"/>
+      <c r="G59" s="437"/>
+      <c r="H59" s="437"/>
+      <c r="I59" s="438"/>
     </row>
     <row r="60" spans="1:9" ht="2.25" customHeight="1">
-      <c r="A60" s="477"/>
-      <c r="B60" s="478"/>
-      <c r="C60" s="478"/>
-      <c r="D60" s="478"/>
-      <c r="E60" s="478"/>
-      <c r="F60" s="478"/>
-      <c r="G60" s="478"/>
-      <c r="H60" s="478"/>
-      <c r="I60" s="479"/>
+      <c r="A60" s="428"/>
+      <c r="B60" s="429"/>
+      <c r="C60" s="429"/>
+      <c r="D60" s="429"/>
+      <c r="E60" s="429"/>
+      <c r="F60" s="429"/>
+      <c r="G60" s="429"/>
+      <c r="H60" s="429"/>
+      <c r="I60" s="430"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="44">
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E24:I25"/>
+    <mergeCell ref="B26:D29"/>
+    <mergeCell ref="E27:I29"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="B34:D35"/>
+    <mergeCell ref="B36:D37"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="E19:I21"/>
+    <mergeCell ref="B22:D25"/>
+    <mergeCell ref="B14:D16"/>
+    <mergeCell ref="E15:I16"/>
+    <mergeCell ref="B18:D21"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="E5:I7"/>
+    <mergeCell ref="B12:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E9:I11"/>
+    <mergeCell ref="B8:D11"/>
+    <mergeCell ref="B4:D7"/>
     <mergeCell ref="A60:I60"/>
     <mergeCell ref="D52:F52"/>
     <mergeCell ref="D48:F51"/>
@@ -10509,36 +10542,6 @@
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="E5:I7"/>
-    <mergeCell ref="B12:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E9:I11"/>
-    <mergeCell ref="B8:D11"/>
-    <mergeCell ref="B4:D7"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="E19:I21"/>
-    <mergeCell ref="B22:D25"/>
-    <mergeCell ref="B14:D16"/>
-    <mergeCell ref="E15:I16"/>
-    <mergeCell ref="B18:D21"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E24:I25"/>
-    <mergeCell ref="B26:D29"/>
-    <mergeCell ref="E27:I29"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="B34:D35"/>
-    <mergeCell ref="B36:D37"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E37:I37"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.2" bottom="0" header="0.17" footer="0"/>

--- a/storage/app/templates/PersonalDataSheet.xlsx
+++ b/storage/app/templates/PersonalDataSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9000" windowWidth="20490" windowHeight="7890"/>
+    <workbookView xWindow="0" yWindow="9450" windowWidth="20490" windowHeight="7890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="C1" sheetId="1" r:id="rId1"/>
@@ -643,9 +643,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="00000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="166" formatCode="&quot;₱&quot;#,##0.00"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -1565,7 +1566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="510">
+  <cellXfs count="511">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2011,113 +2012,421 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="29" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2199,394 +2508,137 @@
     <xf numFmtId="49" fontId="22" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="49" fontId="29" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2600,142 +2652,202 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="29" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2764,123 +2876,165 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="29" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="29" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2967,14 +3121,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2989,149 +3135,8 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="29" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -3816,7 +3821,7 @@
   </sheetPr>
   <dimension ref="A1:P257"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8:N8"/>
     </sheetView>
   </sheetViews>
@@ -3839,78 +3844,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="2.25" customHeight="1">
-      <c r="A1" s="295"/>
-      <c r="B1" s="296"/>
-      <c r="C1" s="296"/>
-      <c r="D1" s="296"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="296"/>
-      <c r="G1" s="296"/>
-      <c r="H1" s="296"/>
-      <c r="I1" s="296"/>
-      <c r="J1" s="296"/>
-      <c r="K1" s="296"/>
-      <c r="L1" s="296"/>
-      <c r="M1" s="296"/>
-      <c r="N1" s="297"/>
+      <c r="A1" s="160"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="162"/>
     </row>
     <row r="2" spans="1:14" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="301" t="s">
+      <c r="A2" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="302"/>
-      <c r="C2" s="302"/>
-      <c r="D2" s="302"/>
-      <c r="E2" s="302"/>
-      <c r="F2" s="302"/>
-      <c r="G2" s="302"/>
-      <c r="H2" s="302"/>
-      <c r="I2" s="302"/>
-      <c r="J2" s="302"/>
-      <c r="K2" s="302"/>
-      <c r="L2" s="302"/>
-      <c r="M2" s="302"/>
-      <c r="N2" s="303"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="168"/>
     </row>
     <row r="3" spans="1:14" ht="66.75" customHeight="1">
-      <c r="A3" s="298" t="s">
+      <c r="A3" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="299"/>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="299"/>
-      <c r="F3" s="299"/>
-      <c r="G3" s="299"/>
-      <c r="H3" s="299"/>
-      <c r="I3" s="299"/>
-      <c r="J3" s="299"/>
-      <c r="K3" s="299"/>
-      <c r="L3" s="299"/>
-      <c r="M3" s="299"/>
-      <c r="N3" s="300"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="165"/>
     </row>
     <row r="4" spans="1:14" s="17" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="309" t="s">
+      <c r="A4" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="310"/>
-      <c r="C4" s="310"/>
-      <c r="D4" s="310"/>
-      <c r="E4" s="310"/>
-      <c r="F4" s="310"/>
-      <c r="G4" s="310"/>
-      <c r="H4" s="311"/>
-      <c r="I4" s="304" t="s">
+      <c r="B4" s="175"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="305"/>
-      <c r="K4" s="306" t="s">
+      <c r="J4" s="170"/>
+      <c r="K4" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="307"/>
-      <c r="M4" s="307"/>
-      <c r="N4" s="308"/>
+      <c r="L4" s="172"/>
+      <c r="M4" s="172"/>
+      <c r="N4" s="173"/>
     </row>
     <row r="5" spans="1:14" ht="2.25" customHeight="1">
       <c r="A5" s="28"/>
@@ -3929,22 +3934,22 @@
       <c r="N5" s="29"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1">
-      <c r="A6" s="312" t="s">
+      <c r="A6" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="313"/>
-      <c r="C6" s="313"/>
-      <c r="D6" s="313"/>
-      <c r="E6" s="313"/>
-      <c r="F6" s="313"/>
-      <c r="G6" s="313"/>
-      <c r="H6" s="313"/>
-      <c r="I6" s="313"/>
-      <c r="J6" s="313"/>
-      <c r="K6" s="313"/>
-      <c r="L6" s="313"/>
-      <c r="M6" s="313"/>
-      <c r="N6" s="314"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="182"/>
+      <c r="K6" s="182"/>
+      <c r="L6" s="182"/>
+      <c r="M6" s="182"/>
+      <c r="N6" s="183"/>
     </row>
     <row r="7" spans="1:14" ht="21" customHeight="1">
       <c r="A7" s="93" t="s">
@@ -3953,78 +3958,78 @@
       <c r="B7" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="318"/>
-      <c r="D7" s="319"/>
-      <c r="E7" s="319"/>
-      <c r="F7" s="319"/>
-      <c r="G7" s="319"/>
-      <c r="H7" s="319"/>
-      <c r="I7" s="319"/>
-      <c r="J7" s="319"/>
-      <c r="K7" s="319"/>
-      <c r="L7" s="319"/>
-      <c r="M7" s="319"/>
-      <c r="N7" s="320"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="188"/>
+      <c r="I7" s="188"/>
+      <c r="J7" s="188"/>
+      <c r="K7" s="188"/>
+      <c r="L7" s="188"/>
+      <c r="M7" s="188"/>
+      <c r="N7" s="189"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" customHeight="1">
       <c r="A8" s="95"/>
       <c r="B8" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="321"/>
-      <c r="D8" s="322"/>
-      <c r="E8" s="322"/>
-      <c r="F8" s="322"/>
-      <c r="G8" s="322"/>
-      <c r="H8" s="322"/>
-      <c r="I8" s="322"/>
-      <c r="J8" s="322"/>
-      <c r="K8" s="322"/>
-      <c r="L8" s="322"/>
-      <c r="M8" s="322"/>
-      <c r="N8" s="323"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="191"/>
+      <c r="J8" s="191"/>
+      <c r="K8" s="191"/>
+      <c r="L8" s="191"/>
+      <c r="M8" s="191"/>
+      <c r="N8" s="192"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" customHeight="1">
       <c r="A9" s="97"/>
       <c r="B9" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="283"/>
-      <c r="D9" s="229"/>
-      <c r="E9" s="229"/>
-      <c r="F9" s="229"/>
-      <c r="G9" s="232"/>
-      <c r="H9" s="232"/>
-      <c r="I9" s="230"/>
-      <c r="J9" s="264" t="s">
+      <c r="C9" s="177"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="180"/>
+      <c r="J9" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="265"/>
-      <c r="L9" s="265"/>
-      <c r="M9" s="266"/>
+      <c r="K9" s="212"/>
+      <c r="L9" s="212"/>
+      <c r="M9" s="213"/>
       <c r="N9" s="138"/>
     </row>
     <row r="10" spans="1:14" ht="18.95" customHeight="1">
       <c r="A10" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="265" t="s">
+      <c r="B10" s="212" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="265"/>
-      <c r="D10" s="266"/>
-      <c r="E10" s="223"/>
-      <c r="F10" s="267"/>
-      <c r="G10" s="277" t="s">
+      <c r="C10" s="212"/>
+      <c r="D10" s="213"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="214"/>
+      <c r="G10" s="224" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="278"/>
-      <c r="I10" s="324"/>
-      <c r="J10" s="324"/>
-      <c r="K10" s="324"/>
-      <c r="L10" s="324"/>
-      <c r="M10" s="324"/>
-      <c r="N10" s="325"/>
+      <c r="H10" s="225"/>
+      <c r="I10" s="195"/>
+      <c r="J10" s="195"/>
+      <c r="K10" s="195"/>
+      <c r="L10" s="195"/>
+      <c r="M10" s="195"/>
+      <c r="N10" s="196"/>
     </row>
     <row r="11" spans="1:14" ht="18.95" customHeight="1">
       <c r="A11" s="100" t="s">
@@ -4033,18 +4038,18 @@
       <c r="B11" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="275"/>
-      <c r="D11" s="276"/>
-      <c r="E11" s="276"/>
-      <c r="F11" s="276"/>
-      <c r="G11" s="279"/>
-      <c r="H11" s="280"/>
-      <c r="I11" s="326"/>
-      <c r="J11" s="326"/>
-      <c r="K11" s="326"/>
-      <c r="L11" s="326"/>
-      <c r="M11" s="326"/>
-      <c r="N11" s="327"/>
+      <c r="C11" s="222"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="227"/>
+      <c r="I11" s="197"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="197"/>
+      <c r="L11" s="197"/>
+      <c r="M11" s="197"/>
+      <c r="N11" s="198"/>
     </row>
     <row r="12" spans="1:14" ht="18.95" customHeight="1">
       <c r="A12" s="99" t="s">
@@ -4053,76 +4058,76 @@
       <c r="B12" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="330"/>
-      <c r="D12" s="331"/>
-      <c r="E12" s="331"/>
-      <c r="F12" s="331"/>
-      <c r="G12" s="279"/>
-      <c r="H12" s="280"/>
-      <c r="I12" s="328"/>
-      <c r="J12" s="328"/>
-      <c r="K12" s="328"/>
-      <c r="L12" s="328"/>
-      <c r="M12" s="328"/>
-      <c r="N12" s="329"/>
+      <c r="C12" s="202"/>
+      <c r="D12" s="203"/>
+      <c r="E12" s="203"/>
+      <c r="F12" s="203"/>
+      <c r="G12" s="226"/>
+      <c r="H12" s="227"/>
+      <c r="I12" s="199"/>
+      <c r="J12" s="199"/>
+      <c r="K12" s="199"/>
+      <c r="L12" s="199"/>
+      <c r="M12" s="199"/>
+      <c r="N12" s="200"/>
     </row>
     <row r="13" spans="1:14" ht="18.95" customHeight="1">
-      <c r="A13" s="315" t="s">
+      <c r="A13" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="268" t="s">
+      <c r="B13" s="215" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="129"/>
-      <c r="D13" s="271"/>
-      <c r="E13" s="272"/>
+      <c r="D13" s="218"/>
+      <c r="E13" s="219"/>
       <c r="F13" s="129"/>
-      <c r="G13" s="281" t="s">
+      <c r="G13" s="228" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="282"/>
-      <c r="I13" s="289"/>
-      <c r="J13" s="289"/>
-      <c r="K13" s="289"/>
-      <c r="L13" s="289"/>
-      <c r="M13" s="289"/>
-      <c r="N13" s="290"/>
+      <c r="H13" s="229"/>
+      <c r="I13" s="193"/>
+      <c r="J13" s="193"/>
+      <c r="K13" s="193"/>
+      <c r="L13" s="193"/>
+      <c r="M13" s="193"/>
+      <c r="N13" s="194"/>
     </row>
     <row r="14" spans="1:14" ht="18.95" customHeight="1">
-      <c r="A14" s="316"/>
-      <c r="B14" s="269"/>
+      <c r="A14" s="185"/>
+      <c r="B14" s="216"/>
       <c r="C14" s="130"/>
-      <c r="D14" s="273"/>
-      <c r="E14" s="273"/>
+      <c r="D14" s="220"/>
+      <c r="E14" s="220"/>
       <c r="F14" s="130"/>
       <c r="G14" s="103" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="104"/>
-      <c r="I14" s="289"/>
-      <c r="J14" s="289"/>
-      <c r="K14" s="289"/>
-      <c r="L14" s="289"/>
-      <c r="M14" s="289"/>
-      <c r="N14" s="290"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="193"/>
+      <c r="K14" s="193"/>
+      <c r="L14" s="193"/>
+      <c r="M14" s="193"/>
+      <c r="N14" s="194"/>
     </row>
     <row r="15" spans="1:14" ht="18.95" customHeight="1">
-      <c r="A15" s="317"/>
-      <c r="B15" s="270"/>
+      <c r="A15" s="186"/>
+      <c r="B15" s="217"/>
       <c r="C15" s="130"/>
-      <c r="D15" s="274"/>
-      <c r="E15" s="274"/>
+      <c r="D15" s="221"/>
+      <c r="E15" s="221"/>
       <c r="F15" s="130"/>
-      <c r="G15" s="277" t="s">
+      <c r="G15" s="224" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="278"/>
-      <c r="I15" s="324"/>
-      <c r="J15" s="324"/>
-      <c r="K15" s="324"/>
-      <c r="L15" s="324"/>
-      <c r="M15" s="324"/>
-      <c r="N15" s="325"/>
+      <c r="H15" s="225"/>
+      <c r="I15" s="195"/>
+      <c r="J15" s="195"/>
+      <c r="K15" s="195"/>
+      <c r="L15" s="195"/>
+      <c r="M15" s="195"/>
+      <c r="N15" s="196"/>
     </row>
     <row r="16" spans="1:14" ht="18.95" customHeight="1">
       <c r="A16" s="105" t="s">
@@ -4131,18 +4136,18 @@
       <c r="B16" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="284"/>
-      <c r="D16" s="285"/>
-      <c r="E16" s="285"/>
-      <c r="F16" s="286"/>
-      <c r="G16" s="279"/>
-      <c r="H16" s="280"/>
-      <c r="I16" s="326"/>
-      <c r="J16" s="326"/>
-      <c r="K16" s="326"/>
-      <c r="L16" s="326"/>
-      <c r="M16" s="326"/>
-      <c r="N16" s="327"/>
+      <c r="C16" s="235"/>
+      <c r="D16" s="236"/>
+      <c r="E16" s="236"/>
+      <c r="F16" s="237"/>
+      <c r="G16" s="226"/>
+      <c r="H16" s="227"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="197"/>
+      <c r="L16" s="197"/>
+      <c r="M16" s="197"/>
+      <c r="N16" s="198"/>
     </row>
     <row r="17" spans="1:14" ht="18.95" customHeight="1">
       <c r="A17" s="100" t="s">
@@ -4151,18 +4156,18 @@
       <c r="B17" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="231"/>
-      <c r="D17" s="232"/>
-      <c r="E17" s="232"/>
-      <c r="F17" s="232"/>
-      <c r="G17" s="279"/>
-      <c r="H17" s="280"/>
-      <c r="I17" s="328"/>
-      <c r="J17" s="328"/>
-      <c r="K17" s="328"/>
-      <c r="L17" s="328"/>
-      <c r="M17" s="328"/>
-      <c r="N17" s="329"/>
+      <c r="C17" s="201"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="226"/>
+      <c r="H17" s="227"/>
+      <c r="I17" s="199"/>
+      <c r="J17" s="199"/>
+      <c r="K17" s="199"/>
+      <c r="L17" s="199"/>
+      <c r="M17" s="199"/>
+      <c r="N17" s="200"/>
     </row>
     <row r="18" spans="1:14" ht="18.95" customHeight="1">
       <c r="A18" s="105" t="s">
@@ -4171,20 +4176,20 @@
       <c r="B18" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="231"/>
-      <c r="D18" s="232"/>
-      <c r="E18" s="232"/>
-      <c r="F18" s="232"/>
-      <c r="G18" s="281" t="s">
+      <c r="C18" s="201"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="228" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="291"/>
-      <c r="I18" s="233"/>
-      <c r="J18" s="233"/>
-      <c r="K18" s="233"/>
-      <c r="L18" s="233"/>
-      <c r="M18" s="233"/>
-      <c r="N18" s="234"/>
+      <c r="H18" s="240"/>
+      <c r="I18" s="231"/>
+      <c r="J18" s="231"/>
+      <c r="K18" s="231"/>
+      <c r="L18" s="231"/>
+      <c r="M18" s="231"/>
+      <c r="N18" s="232"/>
     </row>
     <row r="19" spans="1:14" ht="18.95" customHeight="1">
       <c r="A19" s="99" t="s">
@@ -4193,20 +4198,20 @@
       <c r="B19" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="231"/>
-      <c r="D19" s="232"/>
-      <c r="E19" s="232"/>
-      <c r="F19" s="232"/>
-      <c r="G19" s="287" t="s">
+      <c r="C19" s="201"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="238" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="288"/>
-      <c r="I19" s="233"/>
-      <c r="J19" s="233"/>
-      <c r="K19" s="233"/>
-      <c r="L19" s="233"/>
-      <c r="M19" s="233"/>
-      <c r="N19" s="234"/>
+      <c r="H19" s="239"/>
+      <c r="I19" s="231"/>
+      <c r="J19" s="231"/>
+      <c r="K19" s="231"/>
+      <c r="L19" s="231"/>
+      <c r="M19" s="231"/>
+      <c r="N19" s="232"/>
     </row>
     <row r="20" spans="1:14" ht="18.95" customHeight="1">
       <c r="A20" s="100" t="s">
@@ -4215,20 +4220,20 @@
       <c r="B20" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="231"/>
-      <c r="D20" s="232"/>
-      <c r="E20" s="232"/>
-      <c r="F20" s="232"/>
-      <c r="G20" s="236" t="s">
+      <c r="C20" s="201"/>
+      <c r="D20" s="179"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="179"/>
+      <c r="G20" s="233" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="237"/>
-      <c r="I20" s="235"/>
-      <c r="J20" s="233"/>
-      <c r="K20" s="233"/>
-      <c r="L20" s="233"/>
-      <c r="M20" s="233"/>
-      <c r="N20" s="234"/>
+      <c r="H20" s="234"/>
+      <c r="I20" s="230"/>
+      <c r="J20" s="231"/>
+      <c r="K20" s="231"/>
+      <c r="L20" s="231"/>
+      <c r="M20" s="231"/>
+      <c r="N20" s="232"/>
     </row>
     <row r="21" spans="1:14" ht="18.95" customHeight="1">
       <c r="A21" s="99" t="s">
@@ -4237,20 +4242,20 @@
       <c r="B21" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="283"/>
-      <c r="D21" s="229"/>
-      <c r="E21" s="229"/>
-      <c r="F21" s="230"/>
-      <c r="G21" s="236" t="s">
+      <c r="C21" s="177"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="180"/>
+      <c r="G21" s="233" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="237"/>
-      <c r="I21" s="235"/>
-      <c r="J21" s="233"/>
-      <c r="K21" s="233"/>
-      <c r="L21" s="233"/>
-      <c r="M21" s="233"/>
-      <c r="N21" s="234"/>
+      <c r="H21" s="234"/>
+      <c r="I21" s="230"/>
+      <c r="J21" s="231"/>
+      <c r="K21" s="231"/>
+      <c r="L21" s="231"/>
+      <c r="M21" s="231"/>
+      <c r="N21" s="232"/>
     </row>
     <row r="22" spans="1:14" ht="18.95" customHeight="1">
       <c r="A22" s="100" t="s">
@@ -4259,20 +4264,20 @@
       <c r="B22" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="229"/>
-      <c r="D22" s="229"/>
-      <c r="E22" s="229"/>
-      <c r="F22" s="230"/>
-      <c r="G22" s="255" t="s">
+      <c r="C22" s="178"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="180"/>
+      <c r="G22" s="262" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="256"/>
-      <c r="I22" s="235"/>
-      <c r="J22" s="233"/>
-      <c r="K22" s="233"/>
-      <c r="L22" s="233"/>
-      <c r="M22" s="233"/>
-      <c r="N22" s="234"/>
+      <c r="H22" s="263"/>
+      <c r="I22" s="230"/>
+      <c r="J22" s="231"/>
+      <c r="K22" s="231"/>
+      <c r="L22" s="231"/>
+      <c r="M22" s="231"/>
+      <c r="N22" s="232"/>
     </row>
     <row r="23" spans="1:14" ht="18.95" customHeight="1">
       <c r="A23" s="111" t="s">
@@ -4281,38 +4286,38 @@
       <c r="B23" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="252"/>
-      <c r="D23" s="253"/>
-      <c r="E23" s="253"/>
-      <c r="F23" s="254"/>
-      <c r="G23" s="238" t="s">
+      <c r="C23" s="259"/>
+      <c r="D23" s="260"/>
+      <c r="E23" s="260"/>
+      <c r="F23" s="261"/>
+      <c r="G23" s="245" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="239"/>
-      <c r="I23" s="257"/>
-      <c r="J23" s="258"/>
-      <c r="K23" s="258"/>
-      <c r="L23" s="258"/>
-      <c r="M23" s="258"/>
-      <c r="N23" s="259"/>
+      <c r="H23" s="246"/>
+      <c r="I23" s="204"/>
+      <c r="J23" s="205"/>
+      <c r="K23" s="205"/>
+      <c r="L23" s="205"/>
+      <c r="M23" s="205"/>
+      <c r="N23" s="206"/>
     </row>
     <row r="24" spans="1:14" ht="18" customHeight="1">
-      <c r="A24" s="248" t="s">
+      <c r="A24" s="255" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="249"/>
-      <c r="C24" s="249"/>
-      <c r="D24" s="249"/>
-      <c r="E24" s="249"/>
-      <c r="F24" s="249"/>
-      <c r="G24" s="249"/>
-      <c r="H24" s="249"/>
-      <c r="I24" s="249"/>
-      <c r="J24" s="249"/>
-      <c r="K24" s="249"/>
-      <c r="L24" s="249"/>
-      <c r="M24" s="249"/>
-      <c r="N24" s="250"/>
+      <c r="B24" s="256"/>
+      <c r="C24" s="256"/>
+      <c r="D24" s="256"/>
+      <c r="E24" s="256"/>
+      <c r="F24" s="256"/>
+      <c r="G24" s="256"/>
+      <c r="H24" s="256"/>
+      <c r="I24" s="256"/>
+      <c r="J24" s="256"/>
+      <c r="K24" s="256"/>
+      <c r="L24" s="256"/>
+      <c r="M24" s="256"/>
+      <c r="N24" s="257"/>
     </row>
     <row r="25" spans="1:14" ht="18.95" customHeight="1">
       <c r="A25" s="113" t="s">
@@ -4321,542 +4326,542 @@
       <c r="B25" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="260"/>
-      <c r="D25" s="260"/>
-      <c r="E25" s="260"/>
-      <c r="F25" s="260"/>
-      <c r="G25" s="260"/>
-      <c r="H25" s="251" t="s">
+      <c r="C25" s="207"/>
+      <c r="D25" s="207"/>
+      <c r="E25" s="207"/>
+      <c r="F25" s="207"/>
+      <c r="G25" s="207"/>
+      <c r="H25" s="258" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="251"/>
-      <c r="J25" s="251"/>
-      <c r="K25" s="251"/>
-      <c r="L25" s="251"/>
-      <c r="M25" s="292" t="s">
+      <c r="I25" s="258"/>
+      <c r="J25" s="258"/>
+      <c r="K25" s="258"/>
+      <c r="L25" s="258"/>
+      <c r="M25" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="293"/>
+      <c r="N25" s="152"/>
     </row>
     <row r="26" spans="1:14" ht="18.95" customHeight="1">
       <c r="A26" s="115"/>
       <c r="B26" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="294"/>
-      <c r="D26" s="294"/>
-      <c r="E26" s="294"/>
-      <c r="F26" s="294"/>
-      <c r="G26" s="294"/>
-      <c r="H26" s="240"/>
-      <c r="I26" s="241"/>
-      <c r="J26" s="241"/>
-      <c r="K26" s="241"/>
-      <c r="L26" s="242"/>
-      <c r="M26" s="223"/>
-      <c r="N26" s="224"/>
+      <c r="C26" s="159"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="247"/>
+      <c r="I26" s="248"/>
+      <c r="J26" s="248"/>
+      <c r="K26" s="248"/>
+      <c r="L26" s="249"/>
+      <c r="M26" s="153"/>
+      <c r="N26" s="154"/>
     </row>
     <row r="27" spans="1:14" ht="18.95" customHeight="1">
       <c r="A27" s="117"/>
       <c r="B27" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="294"/>
-      <c r="D27" s="294"/>
-      <c r="E27" s="294"/>
-      <c r="F27" s="294"/>
-      <c r="G27" s="294"/>
-      <c r="H27" s="179"/>
-      <c r="I27" s="180"/>
-      <c r="J27" s="180"/>
-      <c r="K27" s="180"/>
-      <c r="L27" s="181"/>
-      <c r="M27" s="223"/>
-      <c r="N27" s="224"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="156"/>
+      <c r="K27" s="156"/>
+      <c r="L27" s="157"/>
+      <c r="M27" s="153"/>
+      <c r="N27" s="154"/>
     </row>
     <row r="28" spans="1:14" ht="18.95" customHeight="1">
       <c r="A28" s="117"/>
       <c r="B28" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="220"/>
-      <c r="D28" s="220"/>
-      <c r="E28" s="220"/>
-      <c r="F28" s="220"/>
-      <c r="G28" s="220"/>
-      <c r="H28" s="179"/>
-      <c r="I28" s="180"/>
-      <c r="J28" s="180"/>
-      <c r="K28" s="180"/>
-      <c r="L28" s="181"/>
-      <c r="M28" s="223"/>
-      <c r="N28" s="224"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="157"/>
+      <c r="M28" s="153"/>
+      <c r="N28" s="154"/>
     </row>
     <row r="29" spans="1:14" ht="18.95" customHeight="1">
       <c r="A29" s="119"/>
       <c r="B29" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="220"/>
-      <c r="D29" s="220"/>
-      <c r="E29" s="220"/>
-      <c r="F29" s="220"/>
-      <c r="G29" s="220"/>
-      <c r="H29" s="179"/>
-      <c r="I29" s="180"/>
-      <c r="J29" s="180"/>
-      <c r="K29" s="180"/>
-      <c r="L29" s="181"/>
-      <c r="M29" s="223"/>
-      <c r="N29" s="224"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="158"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="155"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="156"/>
+      <c r="L29" s="157"/>
+      <c r="M29" s="153"/>
+      <c r="N29" s="154"/>
     </row>
     <row r="30" spans="1:14" ht="18.95" customHeight="1">
       <c r="A30" s="119"/>
       <c r="B30" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="220"/>
-      <c r="D30" s="220"/>
-      <c r="E30" s="220"/>
-      <c r="F30" s="220"/>
-      <c r="G30" s="220"/>
-      <c r="H30" s="179"/>
-      <c r="I30" s="180"/>
-      <c r="J30" s="180"/>
-      <c r="K30" s="180"/>
-      <c r="L30" s="181"/>
-      <c r="M30" s="223"/>
-      <c r="N30" s="224"/>
+      <c r="C30" s="158"/>
+      <c r="D30" s="158"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="156"/>
+      <c r="K30" s="156"/>
+      <c r="L30" s="157"/>
+      <c r="M30" s="153"/>
+      <c r="N30" s="154"/>
     </row>
     <row r="31" spans="1:14" ht="18.95" customHeight="1">
       <c r="A31" s="115"/>
       <c r="B31" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="243"/>
-      <c r="D31" s="243"/>
-      <c r="E31" s="243"/>
-      <c r="F31" s="243"/>
-      <c r="G31" s="243"/>
-      <c r="H31" s="179"/>
-      <c r="I31" s="180"/>
-      <c r="J31" s="180"/>
-      <c r="K31" s="180"/>
-      <c r="L31" s="181"/>
-      <c r="M31" s="223"/>
-      <c r="N31" s="224"/>
+      <c r="C31" s="250"/>
+      <c r="D31" s="250"/>
+      <c r="E31" s="250"/>
+      <c r="F31" s="250"/>
+      <c r="G31" s="250"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="156"/>
+      <c r="L31" s="157"/>
+      <c r="M31" s="153"/>
+      <c r="N31" s="154"/>
     </row>
     <row r="32" spans="1:14" ht="18.95" customHeight="1">
-      <c r="A32" s="244" t="s">
+      <c r="A32" s="251" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="245"/>
-      <c r="C32" s="245"/>
-      <c r="D32" s="245"/>
-      <c r="E32" s="245"/>
-      <c r="F32" s="245"/>
-      <c r="G32" s="246"/>
-      <c r="H32" s="179"/>
-      <c r="I32" s="180"/>
-      <c r="J32" s="180"/>
-      <c r="K32" s="180"/>
-      <c r="L32" s="181"/>
-      <c r="M32" s="223"/>
-      <c r="N32" s="224"/>
+      <c r="B32" s="252"/>
+      <c r="C32" s="252"/>
+      <c r="D32" s="252"/>
+      <c r="E32" s="252"/>
+      <c r="F32" s="252"/>
+      <c r="G32" s="253"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="157"/>
+      <c r="M32" s="153"/>
+      <c r="N32" s="154"/>
     </row>
     <row r="33" spans="1:16" ht="18.95" customHeight="1">
       <c r="A33" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="227" t="s">
+      <c r="B33" s="241" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="247"/>
-      <c r="D33" s="261"/>
-      <c r="E33" s="262"/>
-      <c r="F33" s="262"/>
-      <c r="G33" s="263"/>
-      <c r="H33" s="179"/>
-      <c r="I33" s="180"/>
-      <c r="J33" s="180"/>
-      <c r="K33" s="180"/>
-      <c r="L33" s="181"/>
-      <c r="M33" s="223"/>
-      <c r="N33" s="224"/>
+      <c r="C33" s="254"/>
+      <c r="D33" s="208"/>
+      <c r="E33" s="209"/>
+      <c r="F33" s="209"/>
+      <c r="G33" s="210"/>
+      <c r="H33" s="155"/>
+      <c r="I33" s="156"/>
+      <c r="J33" s="156"/>
+      <c r="K33" s="156"/>
+      <c r="L33" s="157"/>
+      <c r="M33" s="153"/>
+      <c r="N33" s="154"/>
     </row>
     <row r="34" spans="1:16" ht="18.95" customHeight="1">
       <c r="A34" s="122"/>
-      <c r="B34" s="227" t="s">
+      <c r="B34" s="241" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="228"/>
-      <c r="D34" s="217"/>
-      <c r="E34" s="217"/>
-      <c r="F34" s="217"/>
-      <c r="G34" s="218"/>
-      <c r="H34" s="179"/>
-      <c r="I34" s="180"/>
-      <c r="J34" s="180"/>
-      <c r="K34" s="180"/>
-      <c r="L34" s="181"/>
-      <c r="M34" s="223"/>
-      <c r="N34" s="224"/>
+      <c r="C34" s="242"/>
+      <c r="D34" s="243"/>
+      <c r="E34" s="243"/>
+      <c r="F34" s="243"/>
+      <c r="G34" s="244"/>
+      <c r="H34" s="155"/>
+      <c r="I34" s="156"/>
+      <c r="J34" s="156"/>
+      <c r="K34" s="156"/>
+      <c r="L34" s="157"/>
+      <c r="M34" s="153"/>
+      <c r="N34" s="154"/>
     </row>
     <row r="35" spans="1:16" ht="18.95" customHeight="1">
       <c r="A35" s="123"/>
-      <c r="B35" s="210" t="s">
+      <c r="B35" s="305" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="211"/>
-      <c r="D35" s="217"/>
-      <c r="E35" s="217"/>
-      <c r="F35" s="217"/>
-      <c r="G35" s="218"/>
-      <c r="H35" s="179"/>
-      <c r="I35" s="180"/>
-      <c r="J35" s="180"/>
-      <c r="K35" s="180"/>
-      <c r="L35" s="181"/>
-      <c r="M35" s="223"/>
-      <c r="N35" s="224"/>
+      <c r="C35" s="306"/>
+      <c r="D35" s="243"/>
+      <c r="E35" s="243"/>
+      <c r="F35" s="243"/>
+      <c r="G35" s="244"/>
+      <c r="H35" s="155"/>
+      <c r="I35" s="156"/>
+      <c r="J35" s="156"/>
+      <c r="K35" s="156"/>
+      <c r="L35" s="157"/>
+      <c r="M35" s="153"/>
+      <c r="N35" s="154"/>
     </row>
     <row r="36" spans="1:16" ht="18.95" customHeight="1">
       <c r="A36" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="225" t="s">
+      <c r="B36" s="272" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="225"/>
-      <c r="D36" s="225"/>
-      <c r="E36" s="225"/>
-      <c r="F36" s="225"/>
-      <c r="G36" s="226"/>
-      <c r="H36" s="179"/>
-      <c r="I36" s="180"/>
-      <c r="J36" s="180"/>
-      <c r="K36" s="180"/>
-      <c r="L36" s="181"/>
-      <c r="M36" s="223"/>
-      <c r="N36" s="224"/>
+      <c r="C36" s="272"/>
+      <c r="D36" s="272"/>
+      <c r="E36" s="272"/>
+      <c r="F36" s="272"/>
+      <c r="G36" s="273"/>
+      <c r="H36" s="155"/>
+      <c r="I36" s="156"/>
+      <c r="J36" s="156"/>
+      <c r="K36" s="156"/>
+      <c r="L36" s="157"/>
+      <c r="M36" s="153"/>
+      <c r="N36" s="154"/>
     </row>
     <row r="37" spans="1:16" ht="18.95" customHeight="1">
       <c r="A37" s="122"/>
-      <c r="B37" s="227" t="s">
+      <c r="B37" s="241" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="228"/>
-      <c r="D37" s="219"/>
-      <c r="E37" s="217"/>
-      <c r="F37" s="217"/>
-      <c r="G37" s="218"/>
-      <c r="H37" s="179"/>
-      <c r="I37" s="180"/>
-      <c r="J37" s="180"/>
-      <c r="K37" s="180"/>
-      <c r="L37" s="181"/>
-      <c r="M37" s="223"/>
-      <c r="N37" s="224"/>
+      <c r="C37" s="242"/>
+      <c r="D37" s="269"/>
+      <c r="E37" s="243"/>
+      <c r="F37" s="243"/>
+      <c r="G37" s="244"/>
+      <c r="H37" s="155"/>
+      <c r="I37" s="156"/>
+      <c r="J37" s="156"/>
+      <c r="K37" s="156"/>
+      <c r="L37" s="157"/>
+      <c r="M37" s="153"/>
+      <c r="N37" s="154"/>
     </row>
     <row r="38" spans="1:16" ht="18.95" customHeight="1">
       <c r="A38" s="122"/>
-      <c r="B38" s="227" t="s">
+      <c r="B38" s="241" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="228"/>
-      <c r="D38" s="219"/>
-      <c r="E38" s="217"/>
-      <c r="F38" s="217"/>
-      <c r="G38" s="218"/>
-      <c r="H38" s="179"/>
-      <c r="I38" s="180"/>
-      <c r="J38" s="180"/>
-      <c r="K38" s="180"/>
-      <c r="L38" s="181"/>
-      <c r="M38" s="223"/>
-      <c r="N38" s="224"/>
+      <c r="C38" s="242"/>
+      <c r="D38" s="269"/>
+      <c r="E38" s="243"/>
+      <c r="F38" s="243"/>
+      <c r="G38" s="244"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="156"/>
+      <c r="J38" s="156"/>
+      <c r="K38" s="156"/>
+      <c r="L38" s="157"/>
+      <c r="M38" s="153"/>
+      <c r="N38" s="154"/>
     </row>
     <row r="39" spans="1:16" ht="21" customHeight="1">
       <c r="A39" s="125"/>
-      <c r="B39" s="212" t="s">
+      <c r="B39" s="264" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="213"/>
-      <c r="D39" s="214"/>
-      <c r="E39" s="215"/>
-      <c r="F39" s="215"/>
-      <c r="G39" s="216"/>
-      <c r="H39" s="221" t="s">
+      <c r="C39" s="265"/>
+      <c r="D39" s="266"/>
+      <c r="E39" s="267"/>
+      <c r="F39" s="267"/>
+      <c r="G39" s="268"/>
+      <c r="H39" s="270" t="s">
         <v>53</v>
       </c>
-      <c r="I39" s="221"/>
-      <c r="J39" s="221"/>
-      <c r="K39" s="221"/>
-      <c r="L39" s="221"/>
-      <c r="M39" s="221"/>
-      <c r="N39" s="222"/>
+      <c r="I39" s="270"/>
+      <c r="J39" s="270"/>
+      <c r="K39" s="270"/>
+      <c r="L39" s="270"/>
+      <c r="M39" s="270"/>
+      <c r="N39" s="271"/>
     </row>
     <row r="40" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A40" s="197" t="s">
+      <c r="A40" s="292" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="198"/>
-      <c r="C40" s="198"/>
-      <c r="D40" s="198"/>
-      <c r="E40" s="198"/>
-      <c r="F40" s="198"/>
-      <c r="G40" s="198"/>
-      <c r="H40" s="198"/>
-      <c r="I40" s="198"/>
-      <c r="J40" s="198"/>
-      <c r="K40" s="198"/>
-      <c r="L40" s="198"/>
-      <c r="M40" s="198"/>
-      <c r="N40" s="199"/>
+      <c r="B40" s="293"/>
+      <c r="C40" s="293"/>
+      <c r="D40" s="293"/>
+      <c r="E40" s="293"/>
+      <c r="F40" s="293"/>
+      <c r="G40" s="293"/>
+      <c r="H40" s="293"/>
+      <c r="I40" s="293"/>
+      <c r="J40" s="293"/>
+      <c r="K40" s="293"/>
+      <c r="L40" s="293"/>
+      <c r="M40" s="293"/>
+      <c r="N40" s="294"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A41" s="200" t="s">
+      <c r="A41" s="295" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="182" t="s">
+      <c r="B41" s="277" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="185" t="s">
+      <c r="C41" s="280" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="194"/>
-      <c r="E41" s="202"/>
-      <c r="F41" s="185" t="s">
+      <c r="D41" s="289"/>
+      <c r="E41" s="297"/>
+      <c r="F41" s="280" t="s">
         <v>62</v>
       </c>
-      <c r="G41" s="186"/>
-      <c r="H41" s="191" t="s">
+      <c r="G41" s="281"/>
+      <c r="H41" s="286" t="s">
         <v>168</v>
       </c>
-      <c r="I41" s="185" t="s">
+      <c r="I41" s="280" t="s">
         <v>63</v>
       </c>
-      <c r="J41" s="194"/>
-      <c r="K41" s="194"/>
-      <c r="L41" s="185" t="s">
+      <c r="J41" s="289"/>
+      <c r="K41" s="289"/>
+      <c r="L41" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="M41" s="194"/>
-      <c r="N41" s="207" t="s">
+      <c r="M41" s="289"/>
+      <c r="N41" s="302" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A42" s="201"/>
-      <c r="B42" s="183"/>
-      <c r="C42" s="195"/>
-      <c r="D42" s="196"/>
-      <c r="E42" s="203"/>
-      <c r="F42" s="187"/>
-      <c r="G42" s="188"/>
-      <c r="H42" s="192"/>
-      <c r="I42" s="195"/>
-      <c r="J42" s="196"/>
-      <c r="K42" s="196"/>
-      <c r="L42" s="195"/>
-      <c r="M42" s="196"/>
-      <c r="N42" s="208"/>
+      <c r="A42" s="296"/>
+      <c r="B42" s="278"/>
+      <c r="C42" s="290"/>
+      <c r="D42" s="291"/>
+      <c r="E42" s="298"/>
+      <c r="F42" s="282"/>
+      <c r="G42" s="283"/>
+      <c r="H42" s="287"/>
+      <c r="I42" s="290"/>
+      <c r="J42" s="291"/>
+      <c r="K42" s="291"/>
+      <c r="L42" s="290"/>
+      <c r="M42" s="291"/>
+      <c r="N42" s="303"/>
     </row>
     <row r="43" spans="1:16" ht="20.25" customHeight="1">
       <c r="A43" s="126"/>
-      <c r="B43" s="184"/>
-      <c r="C43" s="204"/>
-      <c r="D43" s="205"/>
-      <c r="E43" s="206"/>
-      <c r="F43" s="189"/>
-      <c r="G43" s="190"/>
-      <c r="H43" s="193"/>
-      <c r="I43" s="204"/>
-      <c r="J43" s="205"/>
-      <c r="K43" s="205"/>
+      <c r="B43" s="279"/>
+      <c r="C43" s="299"/>
+      <c r="D43" s="300"/>
+      <c r="E43" s="301"/>
+      <c r="F43" s="284"/>
+      <c r="G43" s="285"/>
+      <c r="H43" s="288"/>
+      <c r="I43" s="299"/>
+      <c r="J43" s="300"/>
+      <c r="K43" s="300"/>
       <c r="L43" s="127" t="s">
         <v>66</v>
       </c>
       <c r="M43" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="N43" s="209"/>
+      <c r="N43" s="304"/>
       <c r="O43" s="12"/>
       <c r="P43" s="12"/>
     </row>
     <row r="44" spans="1:16" ht="30" customHeight="1">
-      <c r="A44" s="155" t="s">
+      <c r="A44" s="310" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="156"/>
-      <c r="C44" s="178"/>
-      <c r="D44" s="152"/>
-      <c r="E44" s="152"/>
-      <c r="F44" s="150"/>
-      <c r="G44" s="151"/>
+      <c r="B44" s="311"/>
+      <c r="C44" s="274"/>
+      <c r="D44" s="307"/>
+      <c r="E44" s="307"/>
+      <c r="F44" s="275"/>
+      <c r="G44" s="276"/>
       <c r="H44" s="131"/>
-      <c r="I44" s="150"/>
-      <c r="J44" s="159"/>
-      <c r="K44" s="160"/>
+      <c r="I44" s="275"/>
+      <c r="J44" s="314"/>
+      <c r="K44" s="315"/>
       <c r="L44" s="136"/>
       <c r="M44" s="136"/>
       <c r="N44" s="132"/>
     </row>
     <row r="45" spans="1:16" ht="30" customHeight="1">
-      <c r="A45" s="155" t="s">
+      <c r="A45" s="310" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="156"/>
-      <c r="C45" s="178"/>
-      <c r="D45" s="152"/>
-      <c r="E45" s="152"/>
-      <c r="F45" s="150"/>
-      <c r="G45" s="151"/>
+      <c r="B45" s="311"/>
+      <c r="C45" s="274"/>
+      <c r="D45" s="307"/>
+      <c r="E45" s="307"/>
+      <c r="F45" s="275"/>
+      <c r="G45" s="276"/>
       <c r="H45" s="131"/>
-      <c r="I45" s="178"/>
-      <c r="J45" s="178"/>
-      <c r="K45" s="178"/>
+      <c r="I45" s="274"/>
+      <c r="J45" s="274"/>
+      <c r="K45" s="274"/>
       <c r="L45" s="136"/>
       <c r="M45" s="136"/>
       <c r="N45" s="132"/>
     </row>
     <row r="46" spans="1:16" ht="30" customHeight="1">
-      <c r="A46" s="157" t="s">
+      <c r="A46" s="312" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="158"/>
-      <c r="C46" s="150"/>
-      <c r="D46" s="159"/>
-      <c r="E46" s="160"/>
-      <c r="F46" s="150"/>
-      <c r="G46" s="151"/>
+      <c r="B46" s="313"/>
+      <c r="C46" s="275"/>
+      <c r="D46" s="314"/>
+      <c r="E46" s="315"/>
+      <c r="F46" s="275"/>
+      <c r="G46" s="276"/>
       <c r="H46" s="133"/>
-      <c r="I46" s="165"/>
-      <c r="J46" s="166"/>
-      <c r="K46" s="167"/>
+      <c r="I46" s="320"/>
+      <c r="J46" s="321"/>
+      <c r="K46" s="322"/>
       <c r="L46" s="136"/>
       <c r="M46" s="136"/>
       <c r="N46" s="132"/>
     </row>
     <row r="47" spans="1:16" ht="30" customHeight="1">
-      <c r="A47" s="174" t="s">
+      <c r="A47" s="329" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="175"/>
-      <c r="C47" s="160"/>
-      <c r="D47" s="152"/>
-      <c r="E47" s="152"/>
-      <c r="F47" s="150"/>
-      <c r="G47" s="151"/>
+      <c r="B47" s="330"/>
+      <c r="C47" s="315"/>
+      <c r="D47" s="307"/>
+      <c r="E47" s="307"/>
+      <c r="F47" s="275"/>
+      <c r="G47" s="276"/>
       <c r="H47" s="131"/>
-      <c r="I47" s="178"/>
-      <c r="J47" s="178"/>
-      <c r="K47" s="178"/>
+      <c r="I47" s="274"/>
+      <c r="J47" s="274"/>
+      <c r="K47" s="274"/>
       <c r="L47" s="136"/>
       <c r="M47" s="136"/>
       <c r="N47" s="132"/>
     </row>
     <row r="48" spans="1:16" ht="30" customHeight="1">
-      <c r="A48" s="176"/>
-      <c r="B48" s="177"/>
-      <c r="C48" s="159"/>
-      <c r="D48" s="159"/>
-      <c r="E48" s="160"/>
-      <c r="F48" s="150"/>
-      <c r="G48" s="151"/>
+      <c r="A48" s="331"/>
+      <c r="B48" s="332"/>
+      <c r="C48" s="314"/>
+      <c r="D48" s="314"/>
+      <c r="E48" s="315"/>
+      <c r="F48" s="275"/>
+      <c r="G48" s="276"/>
       <c r="H48" s="133"/>
-      <c r="I48" s="150"/>
-      <c r="J48" s="159"/>
-      <c r="K48" s="160"/>
+      <c r="I48" s="275"/>
+      <c r="J48" s="314"/>
+      <c r="K48" s="315"/>
       <c r="L48" s="136"/>
       <c r="M48" s="136"/>
       <c r="N48" s="132"/>
     </row>
     <row r="49" spans="1:14" ht="30" customHeight="1">
-      <c r="A49" s="161" t="s">
+      <c r="A49" s="316" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="162"/>
-      <c r="C49" s="152"/>
-      <c r="D49" s="152"/>
-      <c r="E49" s="152"/>
-      <c r="F49" s="150"/>
-      <c r="G49" s="151"/>
+      <c r="B49" s="317"/>
+      <c r="C49" s="307"/>
+      <c r="D49" s="307"/>
+      <c r="E49" s="307"/>
+      <c r="F49" s="275"/>
+      <c r="G49" s="276"/>
       <c r="H49" s="131"/>
-      <c r="I49" s="152"/>
-      <c r="J49" s="152"/>
-      <c r="K49" s="152"/>
+      <c r="I49" s="307"/>
+      <c r="J49" s="307"/>
+      <c r="K49" s="307"/>
       <c r="L49" s="136"/>
       <c r="M49" s="136"/>
       <c r="N49" s="132"/>
     </row>
     <row r="50" spans="1:14" ht="30" customHeight="1" thickBot="1">
-      <c r="A50" s="163"/>
-      <c r="B50" s="164"/>
-      <c r="C50" s="173"/>
-      <c r="D50" s="173"/>
-      <c r="E50" s="173"/>
-      <c r="F50" s="150"/>
-      <c r="G50" s="151"/>
+      <c r="A50" s="318"/>
+      <c r="B50" s="319"/>
+      <c r="C50" s="328"/>
+      <c r="D50" s="328"/>
+      <c r="E50" s="328"/>
+      <c r="F50" s="275"/>
+      <c r="G50" s="276"/>
       <c r="H50" s="134"/>
-      <c r="I50" s="173"/>
-      <c r="J50" s="173"/>
-      <c r="K50" s="173"/>
+      <c r="I50" s="328"/>
+      <c r="J50" s="328"/>
+      <c r="K50" s="328"/>
       <c r="L50" s="137"/>
       <c r="M50" s="137"/>
       <c r="N50" s="135"/>
     </row>
     <row r="51" spans="1:14" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A51" s="170" t="s">
+      <c r="A51" s="325" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="171"/>
-      <c r="C51" s="171"/>
-      <c r="D51" s="171"/>
-      <c r="E51" s="171"/>
-      <c r="F51" s="171"/>
-      <c r="G51" s="171"/>
-      <c r="H51" s="171"/>
-      <c r="I51" s="171"/>
-      <c r="J51" s="171"/>
-      <c r="K51" s="171"/>
-      <c r="L51" s="171"/>
-      <c r="M51" s="171"/>
-      <c r="N51" s="172"/>
+      <c r="B51" s="326"/>
+      <c r="C51" s="326"/>
+      <c r="D51" s="326"/>
+      <c r="E51" s="326"/>
+      <c r="F51" s="326"/>
+      <c r="G51" s="326"/>
+      <c r="H51" s="326"/>
+      <c r="I51" s="326"/>
+      <c r="J51" s="326"/>
+      <c r="K51" s="326"/>
+      <c r="L51" s="326"/>
+      <c r="M51" s="326"/>
+      <c r="N51" s="327"/>
     </row>
     <row r="52" spans="1:14" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="168"/>
-      <c r="B52" s="169"/>
-      <c r="C52" s="169"/>
-      <c r="D52" s="169"/>
-      <c r="E52" s="169"/>
-      <c r="F52" s="169"/>
-      <c r="G52" s="169"/>
-      <c r="H52" s="169"/>
-      <c r="I52" s="169"/>
-      <c r="J52" s="169"/>
-      <c r="K52" s="169"/>
-      <c r="L52" s="169"/>
-      <c r="M52" s="169"/>
+      <c r="A52" s="323"/>
+      <c r="B52" s="324"/>
+      <c r="C52" s="324"/>
+      <c r="D52" s="324"/>
+      <c r="E52" s="324"/>
+      <c r="F52" s="324"/>
+      <c r="G52" s="324"/>
+      <c r="H52" s="324"/>
+      <c r="I52" s="324"/>
+      <c r="J52" s="324"/>
+      <c r="K52" s="324"/>
+      <c r="L52" s="324"/>
+      <c r="M52" s="324"/>
       <c r="N52" s="128" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="2.25" customHeight="1">
-      <c r="A53" s="153"/>
-      <c r="B53" s="154"/>
-      <c r="C53" s="154"/>
-      <c r="D53" s="154"/>
-      <c r="E53" s="154"/>
-      <c r="F53" s="154"/>
-      <c r="G53" s="154"/>
-      <c r="H53" s="154"/>
-      <c r="I53" s="154"/>
-      <c r="J53" s="154"/>
-      <c r="K53" s="154"/>
-      <c r="L53" s="154"/>
-      <c r="M53" s="154"/>
-      <c r="N53" s="154"/>
+      <c r="A53" s="308"/>
+      <c r="B53" s="309"/>
+      <c r="C53" s="309"/>
+      <c r="D53" s="309"/>
+      <c r="E53" s="309"/>
+      <c r="F53" s="309"/>
+      <c r="G53" s="309"/>
+      <c r="H53" s="309"/>
+      <c r="I53" s="309"/>
+      <c r="J53" s="309"/>
+      <c r="K53" s="309"/>
+      <c r="L53" s="309"/>
+      <c r="M53" s="309"/>
+      <c r="N53" s="309"/>
     </row>
     <row r="54" spans="1:14" ht="19.5" customHeight="1">
       <c r="A54" s="13"/>
@@ -8125,6 +8130,116 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="134">
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="A53:N53"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="A49:B50"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="A52:M52"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="A51:N51"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="A47:B48"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="F41:G43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="L41:M42"/>
+    <mergeCell ref="A40:N40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="C41:E43"/>
+    <mergeCell ref="N41:N43"/>
+    <mergeCell ref="I41:K43"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H39:N39"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D13:E15"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I14:N14"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G15:H17"/>
     <mergeCell ref="M25:N25"/>
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="H29:L29"/>
@@ -8149,116 +8264,6 @@
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="I10:N12"/>
     <mergeCell ref="C12:F12"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:E15"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I14:N14"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="I18:N18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G15:H17"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H39:N39"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="F41:G43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="L41:M42"/>
-    <mergeCell ref="A40:N40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="C41:E43"/>
-    <mergeCell ref="N41:N43"/>
-    <mergeCell ref="I41:K43"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="A53:N53"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="A49:B50"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="A52:M52"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="A51:N51"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="A47:B48"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="I44:K44"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.2" bottom="0" header="0" footer="0"/>
@@ -8275,8 +8280,8 @@
   </sheetPr>
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:H8"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8297,76 +8302,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="3" customHeight="1">
-      <c r="A1" s="295"/>
-      <c r="B1" s="296"/>
-      <c r="C1" s="296"/>
-      <c r="D1" s="296"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="296"/>
-      <c r="G1" s="296"/>
-      <c r="H1" s="296"/>
-      <c r="I1" s="296"/>
-      <c r="J1" s="296"/>
-      <c r="K1" s="296"/>
-      <c r="L1" s="296"/>
-      <c r="M1" s="297"/>
+      <c r="A1" s="160"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="162"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1">
-      <c r="A2" s="348" t="s">
+      <c r="A2" s="345" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="349"/>
-      <c r="C2" s="349"/>
-      <c r="D2" s="349"/>
-      <c r="E2" s="349"/>
-      <c r="F2" s="349"/>
-      <c r="G2" s="349"/>
-      <c r="H2" s="349"/>
-      <c r="I2" s="349"/>
-      <c r="J2" s="349"/>
-      <c r="K2" s="349"/>
-      <c r="L2" s="349"/>
-      <c r="M2" s="350"/>
+      <c r="B2" s="346"/>
+      <c r="C2" s="346"/>
+      <c r="D2" s="346"/>
+      <c r="E2" s="346"/>
+      <c r="F2" s="346"/>
+      <c r="G2" s="346"/>
+      <c r="H2" s="346"/>
+      <c r="I2" s="346"/>
+      <c r="J2" s="346"/>
+      <c r="K2" s="346"/>
+      <c r="L2" s="346"/>
+      <c r="M2" s="347"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1">
       <c r="A3" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="362" t="s">
+      <c r="B3" s="335" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="362"/>
-      <c r="D3" s="362"/>
-      <c r="E3" s="363"/>
-      <c r="F3" s="376" t="s">
+      <c r="C3" s="335"/>
+      <c r="D3" s="335"/>
+      <c r="E3" s="336"/>
+      <c r="F3" s="343" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="361" t="s">
+      <c r="G3" s="339" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="363"/>
-      <c r="I3" s="361" t="s">
+      <c r="H3" s="336"/>
+      <c r="I3" s="339" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="362"/>
-      <c r="K3" s="363"/>
-      <c r="L3" s="374" t="s">
+      <c r="J3" s="335"/>
+      <c r="K3" s="336"/>
+      <c r="L3" s="341" t="s">
         <v>80</v>
       </c>
-      <c r="M3" s="375"/>
+      <c r="M3" s="342"/>
     </row>
     <row r="4" spans="1:13" ht="25.5" customHeight="1">
       <c r="A4" s="34"/>
-      <c r="B4" s="368"/>
-      <c r="C4" s="368"/>
-      <c r="D4" s="368"/>
-      <c r="E4" s="369"/>
-      <c r="F4" s="377"/>
-      <c r="G4" s="367"/>
-      <c r="H4" s="369"/>
-      <c r="I4" s="367"/>
-      <c r="J4" s="368"/>
-      <c r="K4" s="369"/>
+      <c r="B4" s="337"/>
+      <c r="C4" s="337"/>
+      <c r="D4" s="337"/>
+      <c r="E4" s="338"/>
+      <c r="F4" s="344"/>
+      <c r="G4" s="340"/>
+      <c r="H4" s="338"/>
+      <c r="I4" s="340"/>
+      <c r="J4" s="337"/>
+      <c r="K4" s="338"/>
       <c r="L4" s="22" t="s">
         <v>81</v>
       </c>
@@ -8375,525 +8380,525 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A5" s="338"/>
-      <c r="B5" s="339"/>
-      <c r="C5" s="339"/>
-      <c r="D5" s="339"/>
-      <c r="E5" s="339"/>
+      <c r="A5" s="352"/>
+      <c r="B5" s="353"/>
+      <c r="C5" s="353"/>
+      <c r="D5" s="353"/>
+      <c r="E5" s="353"/>
       <c r="F5" s="142"/>
-      <c r="G5" s="337"/>
-      <c r="H5" s="337"/>
-      <c r="I5" s="337"/>
-      <c r="J5" s="337"/>
-      <c r="K5" s="337"/>
+      <c r="G5" s="378"/>
+      <c r="H5" s="378"/>
+      <c r="I5" s="378"/>
+      <c r="J5" s="378"/>
+      <c r="K5" s="378"/>
       <c r="L5" s="143"/>
       <c r="M5" s="144"/>
     </row>
     <row r="6" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A6" s="338"/>
-      <c r="B6" s="339"/>
-      <c r="C6" s="339"/>
-      <c r="D6" s="339"/>
-      <c r="E6" s="339"/>
+      <c r="A6" s="352"/>
+      <c r="B6" s="353"/>
+      <c r="C6" s="353"/>
+      <c r="D6" s="353"/>
+      <c r="E6" s="353"/>
       <c r="F6" s="142"/>
-      <c r="G6" s="275"/>
-      <c r="H6" s="336"/>
-      <c r="I6" s="337"/>
-      <c r="J6" s="337"/>
-      <c r="K6" s="337"/>
+      <c r="G6" s="222"/>
+      <c r="H6" s="334"/>
+      <c r="I6" s="378"/>
+      <c r="J6" s="378"/>
+      <c r="K6" s="378"/>
       <c r="L6" s="143"/>
       <c r="M6" s="144"/>
     </row>
     <row r="7" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A7" s="338"/>
-      <c r="B7" s="339"/>
-      <c r="C7" s="339"/>
-      <c r="D7" s="339"/>
-      <c r="E7" s="339"/>
+      <c r="A7" s="352"/>
+      <c r="B7" s="353"/>
+      <c r="C7" s="353"/>
+      <c r="D7" s="353"/>
+      <c r="E7" s="353"/>
       <c r="F7" s="142"/>
-      <c r="G7" s="337"/>
-      <c r="H7" s="337"/>
-      <c r="I7" s="337"/>
-      <c r="J7" s="337"/>
-      <c r="K7" s="337"/>
+      <c r="G7" s="378"/>
+      <c r="H7" s="378"/>
+      <c r="I7" s="378"/>
+      <c r="J7" s="378"/>
+      <c r="K7" s="378"/>
       <c r="L7" s="143"/>
       <c r="M7" s="144"/>
     </row>
     <row r="8" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A8" s="338"/>
-      <c r="B8" s="339"/>
-      <c r="C8" s="339"/>
-      <c r="D8" s="339"/>
-      <c r="E8" s="339"/>
+      <c r="A8" s="352"/>
+      <c r="B8" s="353"/>
+      <c r="C8" s="353"/>
+      <c r="D8" s="353"/>
+      <c r="E8" s="353"/>
       <c r="F8" s="142"/>
-      <c r="G8" s="337"/>
-      <c r="H8" s="337"/>
-      <c r="I8" s="337"/>
-      <c r="J8" s="337"/>
-      <c r="K8" s="337"/>
+      <c r="G8" s="378"/>
+      <c r="H8" s="378"/>
+      <c r="I8" s="378"/>
+      <c r="J8" s="378"/>
+      <c r="K8" s="378"/>
       <c r="L8" s="143"/>
       <c r="M8" s="144"/>
     </row>
     <row r="9" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A9" s="338"/>
-      <c r="B9" s="339"/>
-      <c r="C9" s="339"/>
-      <c r="D9" s="339"/>
-      <c r="E9" s="339"/>
+      <c r="A9" s="352"/>
+      <c r="B9" s="353"/>
+      <c r="C9" s="353"/>
+      <c r="D9" s="353"/>
+      <c r="E9" s="353"/>
       <c r="F9" s="142"/>
-      <c r="G9" s="337"/>
-      <c r="H9" s="337"/>
-      <c r="I9" s="337"/>
-      <c r="J9" s="337"/>
-      <c r="K9" s="337"/>
+      <c r="G9" s="378"/>
+      <c r="H9" s="378"/>
+      <c r="I9" s="378"/>
+      <c r="J9" s="378"/>
+      <c r="K9" s="378"/>
       <c r="L9" s="143"/>
       <c r="M9" s="144"/>
     </row>
     <row r="10" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A10" s="338"/>
-      <c r="B10" s="339"/>
-      <c r="C10" s="339"/>
-      <c r="D10" s="339"/>
-      <c r="E10" s="339"/>
+      <c r="A10" s="352"/>
+      <c r="B10" s="353"/>
+      <c r="C10" s="353"/>
+      <c r="D10" s="353"/>
+      <c r="E10" s="353"/>
       <c r="F10" s="142"/>
-      <c r="G10" s="337"/>
-      <c r="H10" s="337"/>
-      <c r="I10" s="337"/>
-      <c r="J10" s="337"/>
-      <c r="K10" s="337"/>
+      <c r="G10" s="378"/>
+      <c r="H10" s="378"/>
+      <c r="I10" s="378"/>
+      <c r="J10" s="378"/>
+      <c r="K10" s="378"/>
       <c r="L10" s="143"/>
       <c r="M10" s="144"/>
     </row>
     <row r="11" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A11" s="370"/>
-      <c r="B11" s="371"/>
-      <c r="C11" s="371"/>
-      <c r="D11" s="371"/>
-      <c r="E11" s="371"/>
+      <c r="A11" s="357"/>
+      <c r="B11" s="358"/>
+      <c r="C11" s="358"/>
+      <c r="D11" s="358"/>
+      <c r="E11" s="358"/>
       <c r="F11" s="145"/>
-      <c r="G11" s="360"/>
-      <c r="H11" s="360"/>
-      <c r="I11" s="360"/>
-      <c r="J11" s="360"/>
-      <c r="K11" s="360"/>
+      <c r="G11" s="351"/>
+      <c r="H11" s="351"/>
+      <c r="I11" s="351"/>
+      <c r="J11" s="351"/>
+      <c r="K11" s="351"/>
       <c r="L11" s="146"/>
       <c r="M11" s="147"/>
     </row>
     <row r="12" spans="1:13" s="10" customFormat="1" ht="12" customHeight="1">
-      <c r="A12" s="345" t="s">
+      <c r="A12" s="366" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="346"/>
-      <c r="C12" s="346"/>
-      <c r="D12" s="346"/>
-      <c r="E12" s="346"/>
-      <c r="F12" s="346"/>
-      <c r="G12" s="346"/>
-      <c r="H12" s="346"/>
-      <c r="I12" s="346"/>
-      <c r="J12" s="346"/>
-      <c r="K12" s="346"/>
-      <c r="L12" s="346"/>
-      <c r="M12" s="347"/>
+      <c r="B12" s="367"/>
+      <c r="C12" s="367"/>
+      <c r="D12" s="367"/>
+      <c r="E12" s="367"/>
+      <c r="F12" s="367"/>
+      <c r="G12" s="367"/>
+      <c r="H12" s="367"/>
+      <c r="I12" s="367"/>
+      <c r="J12" s="367"/>
+      <c r="K12" s="367"/>
+      <c r="L12" s="367"/>
+      <c r="M12" s="368"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A13" s="348" t="s">
+      <c r="A13" s="345" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="349"/>
-      <c r="C13" s="349"/>
-      <c r="D13" s="349"/>
-      <c r="E13" s="349"/>
-      <c r="F13" s="349"/>
-      <c r="G13" s="349"/>
-      <c r="H13" s="349"/>
-      <c r="I13" s="349"/>
-      <c r="J13" s="349"/>
-      <c r="K13" s="349"/>
-      <c r="L13" s="349"/>
-      <c r="M13" s="350"/>
+      <c r="B13" s="346"/>
+      <c r="C13" s="346"/>
+      <c r="D13" s="346"/>
+      <c r="E13" s="346"/>
+      <c r="F13" s="346"/>
+      <c r="G13" s="346"/>
+      <c r="H13" s="346"/>
+      <c r="I13" s="346"/>
+      <c r="J13" s="346"/>
+      <c r="K13" s="346"/>
+      <c r="L13" s="346"/>
+      <c r="M13" s="347"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1">
       <c r="A14" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="362" t="s">
+      <c r="B14" s="335" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="363"/>
-      <c r="D14" s="361" t="s">
+      <c r="C14" s="336"/>
+      <c r="D14" s="339" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="362"/>
-      <c r="F14" s="363"/>
-      <c r="G14" s="361" t="s">
+      <c r="E14" s="335"/>
+      <c r="F14" s="336"/>
+      <c r="G14" s="339" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="362"/>
-      <c r="I14" s="363"/>
-      <c r="J14" s="342" t="s">
+      <c r="H14" s="335"/>
+      <c r="I14" s="336"/>
+      <c r="J14" s="363" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="357" t="s">
+      <c r="K14" s="375" t="s">
         <v>89</v>
       </c>
-      <c r="L14" s="351" t="s">
+      <c r="L14" s="369" t="s">
         <v>90</v>
       </c>
-      <c r="M14" s="354" t="s">
+      <c r="M14" s="372" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1">
       <c r="A15" s="33"/>
-      <c r="B15" s="368"/>
-      <c r="C15" s="369"/>
-      <c r="D15" s="364"/>
-      <c r="E15" s="365"/>
-      <c r="F15" s="366"/>
-      <c r="G15" s="364"/>
-      <c r="H15" s="365"/>
-      <c r="I15" s="366"/>
-      <c r="J15" s="343"/>
-      <c r="K15" s="358"/>
-      <c r="L15" s="352"/>
-      <c r="M15" s="355"/>
+      <c r="B15" s="337"/>
+      <c r="C15" s="338"/>
+      <c r="D15" s="354"/>
+      <c r="E15" s="355"/>
+      <c r="F15" s="356"/>
+      <c r="G15" s="354"/>
+      <c r="H15" s="355"/>
+      <c r="I15" s="356"/>
+      <c r="J15" s="364"/>
+      <c r="K15" s="376"/>
+      <c r="L15" s="370"/>
+      <c r="M15" s="373"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1">
-      <c r="A16" s="372" t="s">
+      <c r="A16" s="359" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="373"/>
+      <c r="B16" s="360"/>
       <c r="C16" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="367"/>
-      <c r="E16" s="368"/>
-      <c r="F16" s="369"/>
-      <c r="G16" s="367"/>
-      <c r="H16" s="368"/>
-      <c r="I16" s="369"/>
-      <c r="J16" s="344"/>
-      <c r="K16" s="359"/>
-      <c r="L16" s="353"/>
-      <c r="M16" s="356"/>
+      <c r="D16" s="340"/>
+      <c r="E16" s="337"/>
+      <c r="F16" s="338"/>
+      <c r="G16" s="340"/>
+      <c r="H16" s="337"/>
+      <c r="I16" s="338"/>
+      <c r="J16" s="365"/>
+      <c r="K16" s="377"/>
+      <c r="L16" s="371"/>
+      <c r="M16" s="374"/>
     </row>
     <row r="17" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A17" s="335"/>
-      <c r="B17" s="336"/>
+      <c r="A17" s="333"/>
+      <c r="B17" s="334"/>
       <c r="C17" s="139"/>
-      <c r="D17" s="332"/>
-      <c r="E17" s="333"/>
-      <c r="F17" s="334"/>
-      <c r="G17" s="332"/>
-      <c r="H17" s="333"/>
-      <c r="I17" s="334"/>
-      <c r="J17" s="140"/>
+      <c r="D17" s="348"/>
+      <c r="E17" s="349"/>
+      <c r="F17" s="350"/>
+      <c r="G17" s="348"/>
+      <c r="H17" s="349"/>
+      <c r="I17" s="350"/>
+      <c r="J17" s="510"/>
       <c r="K17" s="140"/>
       <c r="L17" s="140"/>
       <c r="M17" s="141"/>
     </row>
     <row r="18" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A18" s="335"/>
-      <c r="B18" s="336"/>
+      <c r="A18" s="333"/>
+      <c r="B18" s="334"/>
       <c r="C18" s="139"/>
-      <c r="D18" s="332"/>
-      <c r="E18" s="333"/>
-      <c r="F18" s="334"/>
-      <c r="G18" s="332"/>
-      <c r="H18" s="333"/>
-      <c r="I18" s="334"/>
-      <c r="J18" s="140"/>
+      <c r="D18" s="348"/>
+      <c r="E18" s="349"/>
+      <c r="F18" s="350"/>
+      <c r="G18" s="348"/>
+      <c r="H18" s="349"/>
+      <c r="I18" s="350"/>
+      <c r="J18" s="510"/>
       <c r="K18" s="140"/>
       <c r="L18" s="140"/>
       <c r="M18" s="141"/>
     </row>
     <row r="19" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A19" s="335"/>
-      <c r="B19" s="336"/>
+      <c r="A19" s="333"/>
+      <c r="B19" s="334"/>
       <c r="C19" s="139"/>
-      <c r="D19" s="332"/>
-      <c r="E19" s="333"/>
-      <c r="F19" s="334"/>
-      <c r="G19" s="332"/>
-      <c r="H19" s="333"/>
-      <c r="I19" s="334"/>
-      <c r="J19" s="140"/>
+      <c r="D19" s="348"/>
+      <c r="E19" s="349"/>
+      <c r="F19" s="350"/>
+      <c r="G19" s="348"/>
+      <c r="H19" s="349"/>
+      <c r="I19" s="350"/>
+      <c r="J19" s="510"/>
       <c r="K19" s="140"/>
       <c r="L19" s="140"/>
       <c r="M19" s="141"/>
     </row>
     <row r="20" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A20" s="335"/>
-      <c r="B20" s="336"/>
+      <c r="A20" s="333"/>
+      <c r="B20" s="334"/>
       <c r="C20" s="139"/>
-      <c r="D20" s="332"/>
-      <c r="E20" s="333"/>
-      <c r="F20" s="334"/>
-      <c r="G20" s="332"/>
-      <c r="H20" s="333"/>
-      <c r="I20" s="334"/>
-      <c r="J20" s="140"/>
+      <c r="D20" s="348"/>
+      <c r="E20" s="349"/>
+      <c r="F20" s="350"/>
+      <c r="G20" s="348"/>
+      <c r="H20" s="349"/>
+      <c r="I20" s="350"/>
+      <c r="J20" s="510"/>
       <c r="K20" s="140"/>
       <c r="L20" s="140"/>
       <c r="M20" s="141"/>
     </row>
     <row r="21" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A21" s="335"/>
-      <c r="B21" s="336"/>
+      <c r="A21" s="333"/>
+      <c r="B21" s="334"/>
       <c r="C21" s="139"/>
-      <c r="D21" s="332"/>
-      <c r="E21" s="333"/>
-      <c r="F21" s="334"/>
-      <c r="G21" s="332"/>
-      <c r="H21" s="333"/>
-      <c r="I21" s="334"/>
-      <c r="J21" s="140"/>
+      <c r="D21" s="348"/>
+      <c r="E21" s="349"/>
+      <c r="F21" s="350"/>
+      <c r="G21" s="348"/>
+      <c r="H21" s="349"/>
+      <c r="I21" s="350"/>
+      <c r="J21" s="510"/>
       <c r="K21" s="140"/>
       <c r="L21" s="140"/>
       <c r="M21" s="141"/>
     </row>
     <row r="22" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A22" s="335"/>
-      <c r="B22" s="336"/>
+      <c r="A22" s="333"/>
+      <c r="B22" s="334"/>
       <c r="C22" s="139"/>
-      <c r="D22" s="332"/>
-      <c r="E22" s="333"/>
-      <c r="F22" s="334"/>
-      <c r="G22" s="332"/>
-      <c r="H22" s="333"/>
-      <c r="I22" s="334"/>
-      <c r="J22" s="140"/>
+      <c r="D22" s="348"/>
+      <c r="E22" s="349"/>
+      <c r="F22" s="350"/>
+      <c r="G22" s="348"/>
+      <c r="H22" s="349"/>
+      <c r="I22" s="350"/>
+      <c r="J22" s="510"/>
       <c r="K22" s="140"/>
       <c r="L22" s="140"/>
       <c r="M22" s="141"/>
     </row>
     <row r="23" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A23" s="335"/>
-      <c r="B23" s="336"/>
+      <c r="A23" s="333"/>
+      <c r="B23" s="334"/>
       <c r="C23" s="139"/>
-      <c r="D23" s="332"/>
-      <c r="E23" s="333"/>
-      <c r="F23" s="334"/>
-      <c r="G23" s="332"/>
-      <c r="H23" s="333"/>
-      <c r="I23" s="334"/>
-      <c r="J23" s="140"/>
+      <c r="D23" s="348"/>
+      <c r="E23" s="349"/>
+      <c r="F23" s="350"/>
+      <c r="G23" s="348"/>
+      <c r="H23" s="349"/>
+      <c r="I23" s="350"/>
+      <c r="J23" s="510"/>
       <c r="K23" s="140"/>
       <c r="L23" s="140"/>
       <c r="M23" s="141"/>
     </row>
     <row r="24" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A24" s="335"/>
-      <c r="B24" s="336"/>
+      <c r="A24" s="333"/>
+      <c r="B24" s="334"/>
       <c r="C24" s="139"/>
-      <c r="D24" s="332"/>
-      <c r="E24" s="333"/>
-      <c r="F24" s="334"/>
-      <c r="G24" s="332"/>
-      <c r="H24" s="333"/>
-      <c r="I24" s="334"/>
-      <c r="J24" s="140"/>
+      <c r="D24" s="348"/>
+      <c r="E24" s="349"/>
+      <c r="F24" s="350"/>
+      <c r="G24" s="348"/>
+      <c r="H24" s="349"/>
+      <c r="I24" s="350"/>
+      <c r="J24" s="510"/>
       <c r="K24" s="140"/>
       <c r="L24" s="140"/>
       <c r="M24" s="141"/>
     </row>
     <row r="25" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A25" s="335"/>
-      <c r="B25" s="336"/>
+      <c r="A25" s="333"/>
+      <c r="B25" s="334"/>
       <c r="C25" s="139"/>
-      <c r="D25" s="332"/>
-      <c r="E25" s="333"/>
-      <c r="F25" s="334"/>
-      <c r="G25" s="332"/>
-      <c r="H25" s="333"/>
-      <c r="I25" s="334"/>
-      <c r="J25" s="140"/>
+      <c r="D25" s="348"/>
+      <c r="E25" s="349"/>
+      <c r="F25" s="350"/>
+      <c r="G25" s="348"/>
+      <c r="H25" s="349"/>
+      <c r="I25" s="350"/>
+      <c r="J25" s="510"/>
       <c r="K25" s="140"/>
       <c r="L25" s="140"/>
       <c r="M25" s="141"/>
     </row>
     <row r="26" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A26" s="335"/>
-      <c r="B26" s="336"/>
+      <c r="A26" s="333"/>
+      <c r="B26" s="334"/>
       <c r="C26" s="139"/>
-      <c r="D26" s="332"/>
-      <c r="E26" s="333"/>
-      <c r="F26" s="334"/>
-      <c r="G26" s="332"/>
-      <c r="H26" s="333"/>
-      <c r="I26" s="334"/>
-      <c r="J26" s="140"/>
+      <c r="D26" s="348"/>
+      <c r="E26" s="349"/>
+      <c r="F26" s="350"/>
+      <c r="G26" s="348"/>
+      <c r="H26" s="349"/>
+      <c r="I26" s="350"/>
+      <c r="J26" s="510"/>
       <c r="K26" s="140"/>
       <c r="L26" s="140"/>
       <c r="M26" s="141"/>
     </row>
     <row r="27" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A27" s="335"/>
-      <c r="B27" s="336"/>
+      <c r="A27" s="333"/>
+      <c r="B27" s="334"/>
       <c r="C27" s="139"/>
-      <c r="D27" s="332"/>
-      <c r="E27" s="333"/>
-      <c r="F27" s="334"/>
-      <c r="G27" s="332"/>
-      <c r="H27" s="333"/>
-      <c r="I27" s="334"/>
-      <c r="J27" s="140"/>
+      <c r="D27" s="348"/>
+      <c r="E27" s="349"/>
+      <c r="F27" s="350"/>
+      <c r="G27" s="348"/>
+      <c r="H27" s="349"/>
+      <c r="I27" s="350"/>
+      <c r="J27" s="510"/>
       <c r="K27" s="140"/>
       <c r="L27" s="140"/>
       <c r="M27" s="141"/>
     </row>
     <row r="28" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A28" s="335"/>
-      <c r="B28" s="336"/>
+      <c r="A28" s="333"/>
+      <c r="B28" s="334"/>
       <c r="C28" s="139"/>
-      <c r="D28" s="332"/>
-      <c r="E28" s="333"/>
-      <c r="F28" s="334"/>
-      <c r="G28" s="332"/>
-      <c r="H28" s="333"/>
-      <c r="I28" s="334"/>
-      <c r="J28" s="140"/>
+      <c r="D28" s="348"/>
+      <c r="E28" s="349"/>
+      <c r="F28" s="350"/>
+      <c r="G28" s="348"/>
+      <c r="H28" s="349"/>
+      <c r="I28" s="350"/>
+      <c r="J28" s="510"/>
       <c r="K28" s="140"/>
       <c r="L28" s="140"/>
       <c r="M28" s="141"/>
     </row>
     <row r="29" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A29" s="335"/>
-      <c r="B29" s="336"/>
+      <c r="A29" s="333"/>
+      <c r="B29" s="334"/>
       <c r="C29" s="139"/>
-      <c r="D29" s="332"/>
-      <c r="E29" s="333"/>
-      <c r="F29" s="334"/>
-      <c r="G29" s="332"/>
-      <c r="H29" s="333"/>
-      <c r="I29" s="334"/>
-      <c r="J29" s="140"/>
+      <c r="D29" s="348"/>
+      <c r="E29" s="349"/>
+      <c r="F29" s="350"/>
+      <c r="G29" s="348"/>
+      <c r="H29" s="349"/>
+      <c r="I29" s="350"/>
+      <c r="J29" s="510"/>
       <c r="K29" s="140"/>
       <c r="L29" s="140"/>
       <c r="M29" s="141"/>
     </row>
     <row r="30" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A30" s="335"/>
-      <c r="B30" s="336"/>
+      <c r="A30" s="333"/>
+      <c r="B30" s="334"/>
       <c r="C30" s="139"/>
-      <c r="D30" s="332"/>
-      <c r="E30" s="333"/>
-      <c r="F30" s="334"/>
-      <c r="G30" s="332"/>
-      <c r="H30" s="333"/>
-      <c r="I30" s="334"/>
-      <c r="J30" s="140"/>
+      <c r="D30" s="348"/>
+      <c r="E30" s="349"/>
+      <c r="F30" s="350"/>
+      <c r="G30" s="348"/>
+      <c r="H30" s="349"/>
+      <c r="I30" s="350"/>
+      <c r="J30" s="510"/>
       <c r="K30" s="140"/>
       <c r="L30" s="140"/>
       <c r="M30" s="141"/>
     </row>
     <row r="31" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A31" s="335"/>
-      <c r="B31" s="336"/>
+      <c r="A31" s="333"/>
+      <c r="B31" s="334"/>
       <c r="C31" s="139"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="159"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="159"/>
-      <c r="I31" s="160"/>
-      <c r="J31" s="140"/>
+      <c r="D31" s="275"/>
+      <c r="E31" s="314"/>
+      <c r="F31" s="315"/>
+      <c r="G31" s="275"/>
+      <c r="H31" s="314"/>
+      <c r="I31" s="315"/>
+      <c r="J31" s="510"/>
       <c r="K31" s="140"/>
       <c r="L31" s="140"/>
       <c r="M31" s="141"/>
     </row>
     <row r="32" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A32" s="335"/>
-      <c r="B32" s="336"/>
+      <c r="A32" s="333"/>
+      <c r="B32" s="334"/>
       <c r="C32" s="139"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="159"/>
-      <c r="I32" s="160"/>
-      <c r="J32" s="140"/>
+      <c r="D32" s="275"/>
+      <c r="E32" s="314"/>
+      <c r="F32" s="315"/>
+      <c r="G32" s="275"/>
+      <c r="H32" s="314"/>
+      <c r="I32" s="315"/>
+      <c r="J32" s="510"/>
       <c r="K32" s="140"/>
       <c r="L32" s="140"/>
       <c r="M32" s="141"/>
     </row>
     <row r="33" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A33" s="335"/>
-      <c r="B33" s="336"/>
+      <c r="A33" s="333"/>
+      <c r="B33" s="334"/>
       <c r="C33" s="139"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="159"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="159"/>
-      <c r="I33" s="160"/>
-      <c r="J33" s="140"/>
+      <c r="D33" s="275"/>
+      <c r="E33" s="314"/>
+      <c r="F33" s="315"/>
+      <c r="G33" s="275"/>
+      <c r="H33" s="314"/>
+      <c r="I33" s="315"/>
+      <c r="J33" s="510"/>
       <c r="K33" s="140"/>
       <c r="L33" s="140"/>
       <c r="M33" s="141"/>
     </row>
     <row r="34" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A34" s="335"/>
-      <c r="B34" s="336"/>
+      <c r="A34" s="333"/>
+      <c r="B34" s="334"/>
       <c r="C34" s="139"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="159"/>
-      <c r="F34" s="160"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="159"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="140"/>
+      <c r="D34" s="275"/>
+      <c r="E34" s="314"/>
+      <c r="F34" s="315"/>
+      <c r="G34" s="275"/>
+      <c r="H34" s="314"/>
+      <c r="I34" s="315"/>
+      <c r="J34" s="510"/>
       <c r="K34" s="140"/>
       <c r="L34" s="140"/>
       <c r="M34" s="141"/>
     </row>
     <row r="35" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A35" s="335"/>
-      <c r="B35" s="336"/>
+      <c r="A35" s="333"/>
+      <c r="B35" s="334"/>
       <c r="C35" s="139"/>
-      <c r="D35" s="332"/>
-      <c r="E35" s="333"/>
-      <c r="F35" s="334"/>
-      <c r="G35" s="332"/>
-      <c r="H35" s="333"/>
-      <c r="I35" s="334"/>
-      <c r="J35" s="140"/>
+      <c r="D35" s="348"/>
+      <c r="E35" s="349"/>
+      <c r="F35" s="350"/>
+      <c r="G35" s="348"/>
+      <c r="H35" s="349"/>
+      <c r="I35" s="350"/>
+      <c r="J35" s="510"/>
       <c r="K35" s="140"/>
       <c r="L35" s="140"/>
       <c r="M35" s="141"/>
     </row>
     <row r="36" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A36" s="335"/>
-      <c r="B36" s="336"/>
+      <c r="A36" s="333"/>
+      <c r="B36" s="334"/>
       <c r="C36" s="139"/>
-      <c r="D36" s="332"/>
-      <c r="E36" s="333"/>
-      <c r="F36" s="334"/>
-      <c r="G36" s="332"/>
-      <c r="H36" s="333"/>
-      <c r="I36" s="334"/>
-      <c r="J36" s="140"/>
+      <c r="D36" s="348"/>
+      <c r="E36" s="349"/>
+      <c r="F36" s="350"/>
+      <c r="G36" s="348"/>
+      <c r="H36" s="349"/>
+      <c r="I36" s="350"/>
+      <c r="J36" s="510"/>
       <c r="K36" s="140"/>
       <c r="L36" s="140"/>
       <c r="M36" s="141"/>
     </row>
     <row r="37" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A37" s="345" t="s">
+      <c r="A37" s="366" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="346"/>
-      <c r="C37" s="346"/>
-      <c r="D37" s="346"/>
-      <c r="E37" s="346"/>
-      <c r="F37" s="346"/>
-      <c r="G37" s="346"/>
-      <c r="H37" s="346"/>
-      <c r="I37" s="346"/>
-      <c r="J37" s="346"/>
-      <c r="K37" s="346"/>
-      <c r="L37" s="346"/>
-      <c r="M37" s="347"/>
+      <c r="B37" s="367"/>
+      <c r="C37" s="367"/>
+      <c r="D37" s="367"/>
+      <c r="E37" s="367"/>
+      <c r="F37" s="367"/>
+      <c r="G37" s="367"/>
+      <c r="H37" s="367"/>
+      <c r="I37" s="367"/>
+      <c r="J37" s="367"/>
+      <c r="K37" s="367"/>
+      <c r="L37" s="367"/>
+      <c r="M37" s="368"/>
     </row>
     <row r="38" spans="1:13" ht="13.5" customHeight="1">
       <c r="A38" s="92"/>
@@ -8913,23 +8918,107 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="2.25" customHeight="1">
-      <c r="A39" s="340"/>
-      <c r="B39" s="341"/>
-      <c r="C39" s="341"/>
-      <c r="D39" s="341"/>
-      <c r="E39" s="341"/>
-      <c r="F39" s="341"/>
-      <c r="G39" s="341"/>
-      <c r="H39" s="341"/>
-      <c r="I39" s="341"/>
-      <c r="J39" s="341"/>
-      <c r="K39" s="341"/>
-      <c r="L39" s="341"/>
-      <c r="M39" s="341"/>
+      <c r="A39" s="361"/>
+      <c r="B39" s="362"/>
+      <c r="C39" s="362"/>
+      <c r="D39" s="362"/>
+      <c r="E39" s="362"/>
+      <c r="F39" s="362"/>
+      <c r="G39" s="362"/>
+      <c r="H39" s="362"/>
+      <c r="I39" s="362"/>
+      <c r="J39" s="362"/>
+      <c r="K39" s="362"/>
+      <c r="L39" s="362"/>
+      <c r="M39" s="362"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="100">
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A39:M39"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A37:M37"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="G14:I16"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="D14:F16"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A21:B21"/>
@@ -8946,90 +9035,6 @@
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="G14:I16"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="D14:F16"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A39:M39"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A37:M37"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.24" bottom="0" header="0" footer="0"/>
@@ -9045,7 +9050,7 @@
   </sheetPr>
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A34" sqref="A34:J38"/>
     </sheetView>
   </sheetViews>
@@ -9066,426 +9071,426 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="3" customHeight="1">
-      <c r="A1" s="384"/>
-      <c r="B1" s="385"/>
-      <c r="C1" s="385"/>
-      <c r="D1" s="385"/>
-      <c r="E1" s="385"/>
-      <c r="F1" s="385"/>
-      <c r="G1" s="385"/>
-      <c r="H1" s="385"/>
-      <c r="I1" s="385"/>
-      <c r="J1" s="386"/>
+      <c r="A1" s="417"/>
+      <c r="B1" s="418"/>
+      <c r="C1" s="418"/>
+      <c r="D1" s="418"/>
+      <c r="E1" s="418"/>
+      <c r="F1" s="418"/>
+      <c r="G1" s="418"/>
+      <c r="H1" s="418"/>
+      <c r="I1" s="418"/>
+      <c r="J1" s="419"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="381" t="s">
+      <c r="A2" s="414" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="382"/>
-      <c r="C2" s="382"/>
-      <c r="D2" s="382"/>
-      <c r="E2" s="382"/>
-      <c r="F2" s="382"/>
-      <c r="G2" s="382"/>
-      <c r="H2" s="382"/>
-      <c r="I2" s="382"/>
-      <c r="J2" s="383"/>
+      <c r="B2" s="415"/>
+      <c r="C2" s="415"/>
+      <c r="D2" s="415"/>
+      <c r="E2" s="415"/>
+      <c r="F2" s="415"/>
+      <c r="G2" s="415"/>
+      <c r="H2" s="415"/>
+      <c r="I2" s="415"/>
+      <c r="J2" s="416"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="420" t="s">
+      <c r="A3" s="399" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="422" t="s">
+      <c r="B3" s="387" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="422"/>
-      <c r="D3" s="423"/>
-      <c r="E3" s="362" t="s">
+      <c r="C3" s="387"/>
+      <c r="D3" s="388"/>
+      <c r="E3" s="335" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="363"/>
-      <c r="G3" s="410" t="s">
+      <c r="F3" s="336"/>
+      <c r="G3" s="391" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="361" t="s">
+      <c r="H3" s="339" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="362"/>
-      <c r="J3" s="417"/>
+      <c r="I3" s="335"/>
+      <c r="J3" s="394"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="421"/>
-      <c r="B4" s="424"/>
-      <c r="C4" s="424"/>
-      <c r="D4" s="425"/>
-      <c r="E4" s="368"/>
-      <c r="F4" s="369"/>
-      <c r="G4" s="411"/>
-      <c r="H4" s="364"/>
-      <c r="I4" s="365"/>
-      <c r="J4" s="418"/>
+      <c r="A4" s="400"/>
+      <c r="B4" s="389"/>
+      <c r="C4" s="389"/>
+      <c r="D4" s="390"/>
+      <c r="E4" s="337"/>
+      <c r="F4" s="338"/>
+      <c r="G4" s="392"/>
+      <c r="H4" s="354"/>
+      <c r="I4" s="355"/>
+      <c r="J4" s="395"/>
     </row>
     <row r="5" spans="1:10" ht="13.5" customHeight="1">
       <c r="A5" s="35"/>
-      <c r="B5" s="426"/>
-      <c r="C5" s="426"/>
-      <c r="D5" s="427"/>
+      <c r="B5" s="397"/>
+      <c r="C5" s="397"/>
+      <c r="D5" s="398"/>
       <c r="E5" s="19" t="s">
         <v>66</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="412"/>
-      <c r="H5" s="367"/>
-      <c r="I5" s="368"/>
-      <c r="J5" s="419"/>
+      <c r="G5" s="393"/>
+      <c r="H5" s="340"/>
+      <c r="I5" s="337"/>
+      <c r="J5" s="396"/>
     </row>
     <row r="6" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A6" s="393"/>
-      <c r="B6" s="394"/>
-      <c r="C6" s="394"/>
-      <c r="D6" s="395"/>
+      <c r="A6" s="401"/>
+      <c r="B6" s="402"/>
+      <c r="C6" s="402"/>
+      <c r="D6" s="403"/>
       <c r="E6" s="139"/>
       <c r="F6" s="139"/>
       <c r="G6" s="143"/>
-      <c r="H6" s="332"/>
-      <c r="I6" s="333"/>
-      <c r="J6" s="409"/>
+      <c r="H6" s="348"/>
+      <c r="I6" s="349"/>
+      <c r="J6" s="380"/>
     </row>
     <row r="7" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A7" s="393"/>
-      <c r="B7" s="394"/>
-      <c r="C7" s="394"/>
-      <c r="D7" s="395"/>
+      <c r="A7" s="401"/>
+      <c r="B7" s="402"/>
+      <c r="C7" s="402"/>
+      <c r="D7" s="403"/>
       <c r="E7" s="139"/>
       <c r="F7" s="139"/>
       <c r="G7" s="143"/>
-      <c r="H7" s="332"/>
-      <c r="I7" s="333"/>
-      <c r="J7" s="409"/>
+      <c r="H7" s="348"/>
+      <c r="I7" s="349"/>
+      <c r="J7" s="380"/>
     </row>
     <row r="8" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A8" s="393"/>
-      <c r="B8" s="394"/>
-      <c r="C8" s="394"/>
-      <c r="D8" s="395"/>
+      <c r="A8" s="401"/>
+      <c r="B8" s="402"/>
+      <c r="C8" s="402"/>
+      <c r="D8" s="403"/>
       <c r="E8" s="139"/>
       <c r="F8" s="139"/>
       <c r="G8" s="143"/>
-      <c r="H8" s="332"/>
-      <c r="I8" s="333"/>
-      <c r="J8" s="409"/>
+      <c r="H8" s="348"/>
+      <c r="I8" s="349"/>
+      <c r="J8" s="380"/>
     </row>
     <row r="9" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A9" s="393"/>
-      <c r="B9" s="394"/>
-      <c r="C9" s="394"/>
-      <c r="D9" s="395"/>
+      <c r="A9" s="401"/>
+      <c r="B9" s="402"/>
+      <c r="C9" s="402"/>
+      <c r="D9" s="403"/>
       <c r="E9" s="139"/>
       <c r="F9" s="139"/>
       <c r="G9" s="143"/>
-      <c r="H9" s="332"/>
-      <c r="I9" s="333"/>
-      <c r="J9" s="409"/>
+      <c r="H9" s="348"/>
+      <c r="I9" s="349"/>
+      <c r="J9" s="380"/>
     </row>
     <row r="10" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A10" s="406"/>
-      <c r="B10" s="407"/>
-      <c r="C10" s="407"/>
-      <c r="D10" s="408"/>
+      <c r="A10" s="381"/>
+      <c r="B10" s="382"/>
+      <c r="C10" s="382"/>
+      <c r="D10" s="383"/>
       <c r="E10" s="139"/>
       <c r="F10" s="139"/>
       <c r="G10" s="146"/>
-      <c r="H10" s="396"/>
-      <c r="I10" s="397"/>
-      <c r="J10" s="399"/>
+      <c r="H10" s="384"/>
+      <c r="I10" s="385"/>
+      <c r="J10" s="386"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A11" s="345" t="s">
+      <c r="A11" s="366" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="346"/>
-      <c r="C11" s="346"/>
-      <c r="D11" s="346"/>
-      <c r="E11" s="346"/>
-      <c r="F11" s="346"/>
-      <c r="G11" s="346"/>
-      <c r="H11" s="346"/>
-      <c r="I11" s="346"/>
-      <c r="J11" s="347"/>
+      <c r="B11" s="367"/>
+      <c r="C11" s="367"/>
+      <c r="D11" s="367"/>
+      <c r="E11" s="367"/>
+      <c r="F11" s="367"/>
+      <c r="G11" s="367"/>
+      <c r="H11" s="367"/>
+      <c r="I11" s="367"/>
+      <c r="J11" s="368"/>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1">
-      <c r="A12" s="348" t="s">
+      <c r="A12" s="345" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="349"/>
-      <c r="C12" s="349"/>
-      <c r="D12" s="349"/>
-      <c r="E12" s="349"/>
-      <c r="F12" s="349"/>
-      <c r="G12" s="349"/>
-      <c r="H12" s="349"/>
-      <c r="I12" s="349"/>
-      <c r="J12" s="350"/>
+      <c r="B12" s="346"/>
+      <c r="C12" s="346"/>
+      <c r="D12" s="346"/>
+      <c r="E12" s="346"/>
+      <c r="F12" s="346"/>
+      <c r="G12" s="346"/>
+      <c r="H12" s="346"/>
+      <c r="I12" s="346"/>
+      <c r="J12" s="347"/>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1">
-      <c r="A13" s="420" t="s">
+      <c r="A13" s="399" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="362" t="s">
+      <c r="B13" s="335" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="387"/>
-      <c r="D13" s="388"/>
-      <c r="E13" s="362" t="s">
+      <c r="C13" s="420"/>
+      <c r="D13" s="421"/>
+      <c r="E13" s="335" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="363"/>
-      <c r="G13" s="410" t="s">
+      <c r="F13" s="336"/>
+      <c r="G13" s="391" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="361" t="s">
+      <c r="H13" s="339" t="s">
         <v>103</v>
       </c>
-      <c r="I13" s="362"/>
-      <c r="J13" s="417"/>
+      <c r="I13" s="335"/>
+      <c r="J13" s="394"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1">
-      <c r="A14" s="421"/>
-      <c r="B14" s="389"/>
-      <c r="C14" s="389"/>
-      <c r="D14" s="390"/>
-      <c r="E14" s="368"/>
-      <c r="F14" s="369"/>
-      <c r="G14" s="411"/>
-      <c r="H14" s="364"/>
-      <c r="I14" s="365"/>
-      <c r="J14" s="418"/>
+      <c r="A14" s="400"/>
+      <c r="B14" s="422"/>
+      <c r="C14" s="422"/>
+      <c r="D14" s="423"/>
+      <c r="E14" s="337"/>
+      <c r="F14" s="338"/>
+      <c r="G14" s="392"/>
+      <c r="H14" s="354"/>
+      <c r="I14" s="355"/>
+      <c r="J14" s="395"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
       <c r="A15" s="35"/>
-      <c r="B15" s="391"/>
-      <c r="C15" s="391"/>
-      <c r="D15" s="392"/>
+      <c r="B15" s="424"/>
+      <c r="C15" s="424"/>
+      <c r="D15" s="425"/>
       <c r="E15" s="19" t="s">
         <v>66</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="412"/>
-      <c r="H15" s="367"/>
-      <c r="I15" s="368"/>
-      <c r="J15" s="419"/>
+      <c r="G15" s="393"/>
+      <c r="H15" s="340"/>
+      <c r="I15" s="337"/>
+      <c r="J15" s="396"/>
     </row>
     <row r="16" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A16" s="393"/>
-      <c r="B16" s="394"/>
-      <c r="C16" s="394"/>
-      <c r="D16" s="395"/>
+      <c r="A16" s="401"/>
+      <c r="B16" s="402"/>
+      <c r="C16" s="402"/>
+      <c r="D16" s="403"/>
       <c r="E16" s="148"/>
       <c r="F16" s="148"/>
       <c r="G16" s="143"/>
-      <c r="H16" s="332"/>
-      <c r="I16" s="333"/>
-      <c r="J16" s="409"/>
+      <c r="H16" s="348"/>
+      <c r="I16" s="349"/>
+      <c r="J16" s="380"/>
     </row>
     <row r="17" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A17" s="393"/>
-      <c r="B17" s="394"/>
-      <c r="C17" s="394"/>
-      <c r="D17" s="395"/>
+      <c r="A17" s="401"/>
+      <c r="B17" s="402"/>
+      <c r="C17" s="402"/>
+      <c r="D17" s="403"/>
       <c r="E17" s="148"/>
       <c r="F17" s="148"/>
       <c r="G17" s="143"/>
-      <c r="H17" s="332"/>
-      <c r="I17" s="333"/>
-      <c r="J17" s="409"/>
+      <c r="H17" s="348"/>
+      <c r="I17" s="349"/>
+      <c r="J17" s="380"/>
     </row>
     <row r="18" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A18" s="393"/>
-      <c r="B18" s="394"/>
-      <c r="C18" s="394"/>
-      <c r="D18" s="395"/>
+      <c r="A18" s="401"/>
+      <c r="B18" s="402"/>
+      <c r="C18" s="402"/>
+      <c r="D18" s="403"/>
       <c r="E18" s="148"/>
       <c r="F18" s="148"/>
       <c r="G18" s="143"/>
-      <c r="H18" s="332"/>
-      <c r="I18" s="333"/>
-      <c r="J18" s="409"/>
+      <c r="H18" s="348"/>
+      <c r="I18" s="349"/>
+      <c r="J18" s="380"/>
     </row>
     <row r="19" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A19" s="393"/>
-      <c r="B19" s="394"/>
-      <c r="C19" s="394"/>
-      <c r="D19" s="395"/>
+      <c r="A19" s="401"/>
+      <c r="B19" s="402"/>
+      <c r="C19" s="402"/>
+      <c r="D19" s="403"/>
       <c r="E19" s="148"/>
       <c r="F19" s="148"/>
       <c r="G19" s="143"/>
-      <c r="H19" s="332"/>
-      <c r="I19" s="333"/>
-      <c r="J19" s="409"/>
+      <c r="H19" s="348"/>
+      <c r="I19" s="349"/>
+      <c r="J19" s="380"/>
     </row>
     <row r="20" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A20" s="393"/>
-      <c r="B20" s="394"/>
-      <c r="C20" s="394"/>
-      <c r="D20" s="395"/>
+      <c r="A20" s="401"/>
+      <c r="B20" s="402"/>
+      <c r="C20" s="402"/>
+      <c r="D20" s="403"/>
       <c r="E20" s="148"/>
       <c r="F20" s="148"/>
       <c r="G20" s="143"/>
-      <c r="H20" s="332"/>
-      <c r="I20" s="333"/>
-      <c r="J20" s="409"/>
+      <c r="H20" s="348"/>
+      <c r="I20" s="349"/>
+      <c r="J20" s="380"/>
     </row>
     <row r="21" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A21" s="393"/>
-      <c r="B21" s="394"/>
-      <c r="C21" s="394"/>
-      <c r="D21" s="395"/>
+      <c r="A21" s="401"/>
+      <c r="B21" s="402"/>
+      <c r="C21" s="402"/>
+      <c r="D21" s="403"/>
       <c r="E21" s="148"/>
       <c r="F21" s="148"/>
       <c r="G21" s="143"/>
-      <c r="H21" s="332"/>
-      <c r="I21" s="333"/>
-      <c r="J21" s="409"/>
+      <c r="H21" s="348"/>
+      <c r="I21" s="349"/>
+      <c r="J21" s="380"/>
     </row>
     <row r="22" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A22" s="393"/>
-      <c r="B22" s="394"/>
-      <c r="C22" s="394"/>
-      <c r="D22" s="395"/>
+      <c r="A22" s="401"/>
+      <c r="B22" s="402"/>
+      <c r="C22" s="402"/>
+      <c r="D22" s="403"/>
       <c r="E22" s="148"/>
       <c r="F22" s="148"/>
       <c r="G22" s="143"/>
-      <c r="H22" s="332"/>
-      <c r="I22" s="333"/>
-      <c r="J22" s="409"/>
+      <c r="H22" s="348"/>
+      <c r="I22" s="349"/>
+      <c r="J22" s="380"/>
     </row>
     <row r="23" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A23" s="393"/>
-      <c r="B23" s="394"/>
-      <c r="C23" s="394"/>
-      <c r="D23" s="395"/>
+      <c r="A23" s="401"/>
+      <c r="B23" s="402"/>
+      <c r="C23" s="402"/>
+      <c r="D23" s="403"/>
       <c r="E23" s="148"/>
       <c r="F23" s="148"/>
       <c r="G23" s="143"/>
-      <c r="H23" s="332"/>
-      <c r="I23" s="333"/>
-      <c r="J23" s="409"/>
+      <c r="H23" s="348"/>
+      <c r="I23" s="349"/>
+      <c r="J23" s="380"/>
     </row>
     <row r="24" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A24" s="393"/>
-      <c r="B24" s="394"/>
-      <c r="C24" s="394"/>
-      <c r="D24" s="395"/>
+      <c r="A24" s="401"/>
+      <c r="B24" s="402"/>
+      <c r="C24" s="402"/>
+      <c r="D24" s="403"/>
       <c r="E24" s="148"/>
       <c r="F24" s="148"/>
       <c r="G24" s="143"/>
-      <c r="H24" s="332"/>
-      <c r="I24" s="333"/>
-      <c r="J24" s="409"/>
+      <c r="H24" s="348"/>
+      <c r="I24" s="349"/>
+      <c r="J24" s="380"/>
     </row>
     <row r="25" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A25" s="393"/>
-      <c r="B25" s="394"/>
-      <c r="C25" s="394"/>
-      <c r="D25" s="395"/>
+      <c r="A25" s="401"/>
+      <c r="B25" s="402"/>
+      <c r="C25" s="402"/>
+      <c r="D25" s="403"/>
       <c r="E25" s="148"/>
       <c r="F25" s="148"/>
       <c r="G25" s="143"/>
-      <c r="H25" s="332"/>
-      <c r="I25" s="333"/>
-      <c r="J25" s="409"/>
+      <c r="H25" s="348"/>
+      <c r="I25" s="349"/>
+      <c r="J25" s="380"/>
     </row>
     <row r="26" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A26" s="393"/>
-      <c r="B26" s="394"/>
-      <c r="C26" s="394"/>
-      <c r="D26" s="395"/>
+      <c r="A26" s="401"/>
+      <c r="B26" s="402"/>
+      <c r="C26" s="402"/>
+      <c r="D26" s="403"/>
       <c r="E26" s="148"/>
       <c r="F26" s="148"/>
       <c r="G26" s="143"/>
-      <c r="H26" s="332"/>
-      <c r="I26" s="333"/>
-      <c r="J26" s="409"/>
+      <c r="H26" s="348"/>
+      <c r="I26" s="349"/>
+      <c r="J26" s="380"/>
     </row>
     <row r="27" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A27" s="393"/>
-      <c r="B27" s="394"/>
-      <c r="C27" s="394"/>
-      <c r="D27" s="395"/>
+      <c r="A27" s="401"/>
+      <c r="B27" s="402"/>
+      <c r="C27" s="402"/>
+      <c r="D27" s="403"/>
       <c r="E27" s="148"/>
       <c r="F27" s="148"/>
       <c r="G27" s="143"/>
-      <c r="H27" s="332"/>
-      <c r="I27" s="333"/>
-      <c r="J27" s="409"/>
+      <c r="H27" s="348"/>
+      <c r="I27" s="349"/>
+      <c r="J27" s="380"/>
     </row>
     <row r="28" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A28" s="393"/>
-      <c r="B28" s="394"/>
-      <c r="C28" s="394"/>
-      <c r="D28" s="395"/>
+      <c r="A28" s="401"/>
+      <c r="B28" s="402"/>
+      <c r="C28" s="402"/>
+      <c r="D28" s="403"/>
       <c r="E28" s="148"/>
       <c r="F28" s="148"/>
       <c r="G28" s="143"/>
-      <c r="H28" s="332"/>
-      <c r="I28" s="333"/>
-      <c r="J28" s="409"/>
+      <c r="H28" s="348"/>
+      <c r="I28" s="349"/>
+      <c r="J28" s="380"/>
     </row>
     <row r="29" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A29" s="393"/>
-      <c r="B29" s="394"/>
-      <c r="C29" s="394"/>
-      <c r="D29" s="395"/>
+      <c r="A29" s="401"/>
+      <c r="B29" s="402"/>
+      <c r="C29" s="402"/>
+      <c r="D29" s="403"/>
       <c r="E29" s="148"/>
       <c r="F29" s="148"/>
       <c r="G29" s="143"/>
-      <c r="H29" s="332"/>
-      <c r="I29" s="333"/>
-      <c r="J29" s="409"/>
+      <c r="H29" s="348"/>
+      <c r="I29" s="349"/>
+      <c r="J29" s="380"/>
     </row>
     <row r="30" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A30" s="406"/>
-      <c r="B30" s="407"/>
-      <c r="C30" s="407"/>
-      <c r="D30" s="408"/>
+      <c r="A30" s="381"/>
+      <c r="B30" s="382"/>
+      <c r="C30" s="382"/>
+      <c r="D30" s="383"/>
       <c r="E30" s="148"/>
       <c r="F30" s="148"/>
       <c r="G30" s="146"/>
-      <c r="H30" s="396"/>
-      <c r="I30" s="397"/>
-      <c r="J30" s="399"/>
+      <c r="H30" s="384"/>
+      <c r="I30" s="385"/>
+      <c r="J30" s="386"/>
     </row>
     <row r="31" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A31" s="345" t="s">
+      <c r="A31" s="366" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="346"/>
-      <c r="C31" s="346"/>
-      <c r="D31" s="346"/>
-      <c r="E31" s="346"/>
-      <c r="F31" s="346"/>
-      <c r="G31" s="346"/>
-      <c r="H31" s="346"/>
-      <c r="I31" s="346"/>
-      <c r="J31" s="347"/>
+      <c r="B31" s="367"/>
+      <c r="C31" s="367"/>
+      <c r="D31" s="367"/>
+      <c r="E31" s="367"/>
+      <c r="F31" s="367"/>
+      <c r="G31" s="367"/>
+      <c r="H31" s="367"/>
+      <c r="I31" s="367"/>
+      <c r="J31" s="368"/>
     </row>
     <row r="32" spans="1:10" ht="18" customHeight="1">
-      <c r="A32" s="414" t="s">
+      <c r="A32" s="406" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="415"/>
-      <c r="C32" s="415"/>
-      <c r="D32" s="415"/>
-      <c r="E32" s="415"/>
-      <c r="F32" s="415"/>
-      <c r="G32" s="415"/>
-      <c r="H32" s="415"/>
-      <c r="I32" s="415"/>
-      <c r="J32" s="416"/>
+      <c r="B32" s="407"/>
+      <c r="C32" s="407"/>
+      <c r="D32" s="407"/>
+      <c r="E32" s="407"/>
+      <c r="F32" s="407"/>
+      <c r="G32" s="407"/>
+      <c r="H32" s="407"/>
+      <c r="I32" s="407"/>
+      <c r="J32" s="408"/>
     </row>
     <row r="33" spans="1:10" ht="30" customHeight="1">
       <c r="A33" s="89" t="s">
@@ -9497,119 +9502,119 @@
       <c r="C33" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="402" t="s">
+      <c r="D33" s="404" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="402"/>
-      <c r="F33" s="402"/>
-      <c r="G33" s="403"/>
+      <c r="E33" s="404"/>
+      <c r="F33" s="404"/>
+      <c r="G33" s="428"/>
       <c r="H33" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="I33" s="402" t="s">
+      <c r="I33" s="404" t="s">
         <v>110</v>
       </c>
-      <c r="J33" s="413"/>
+      <c r="J33" s="405"/>
     </row>
     <row r="34" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A34" s="400"/>
-      <c r="B34" s="334"/>
-      <c r="C34" s="332"/>
-      <c r="D34" s="333"/>
-      <c r="E34" s="333"/>
-      <c r="F34" s="333"/>
-      <c r="G34" s="334"/>
-      <c r="H34" s="332"/>
-      <c r="I34" s="333"/>
-      <c r="J34" s="409"/>
+      <c r="A34" s="379"/>
+      <c r="B34" s="350"/>
+      <c r="C34" s="348"/>
+      <c r="D34" s="349"/>
+      <c r="E34" s="349"/>
+      <c r="F34" s="349"/>
+      <c r="G34" s="350"/>
+      <c r="H34" s="348"/>
+      <c r="I34" s="349"/>
+      <c r="J34" s="380"/>
     </row>
     <row r="35" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A35" s="400"/>
-      <c r="B35" s="334"/>
-      <c r="C35" s="332"/>
-      <c r="D35" s="333"/>
-      <c r="E35" s="333"/>
-      <c r="F35" s="333"/>
-      <c r="G35" s="334"/>
-      <c r="H35" s="332"/>
-      <c r="I35" s="333"/>
-      <c r="J35" s="409"/>
+      <c r="A35" s="379"/>
+      <c r="B35" s="350"/>
+      <c r="C35" s="348"/>
+      <c r="D35" s="349"/>
+      <c r="E35" s="349"/>
+      <c r="F35" s="349"/>
+      <c r="G35" s="350"/>
+      <c r="H35" s="348"/>
+      <c r="I35" s="349"/>
+      <c r="J35" s="380"/>
     </row>
     <row r="36" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A36" s="400"/>
-      <c r="B36" s="334"/>
-      <c r="C36" s="332"/>
-      <c r="D36" s="333"/>
-      <c r="E36" s="333"/>
-      <c r="F36" s="333"/>
-      <c r="G36" s="334"/>
-      <c r="H36" s="332"/>
-      <c r="I36" s="333"/>
-      <c r="J36" s="409"/>
+      <c r="A36" s="379"/>
+      <c r="B36" s="350"/>
+      <c r="C36" s="348"/>
+      <c r="D36" s="349"/>
+      <c r="E36" s="349"/>
+      <c r="F36" s="349"/>
+      <c r="G36" s="350"/>
+      <c r="H36" s="348"/>
+      <c r="I36" s="349"/>
+      <c r="J36" s="380"/>
     </row>
     <row r="37" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A37" s="400"/>
-      <c r="B37" s="334"/>
-      <c r="C37" s="332"/>
-      <c r="D37" s="333"/>
-      <c r="E37" s="333"/>
-      <c r="F37" s="333"/>
-      <c r="G37" s="334"/>
-      <c r="H37" s="332"/>
-      <c r="I37" s="333"/>
-      <c r="J37" s="409"/>
+      <c r="A37" s="379"/>
+      <c r="B37" s="350"/>
+      <c r="C37" s="348"/>
+      <c r="D37" s="349"/>
+      <c r="E37" s="349"/>
+      <c r="F37" s="349"/>
+      <c r="G37" s="350"/>
+      <c r="H37" s="348"/>
+      <c r="I37" s="349"/>
+      <c r="J37" s="380"/>
     </row>
     <row r="38" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A38" s="401"/>
-      <c r="B38" s="398"/>
-      <c r="C38" s="396"/>
-      <c r="D38" s="397"/>
-      <c r="E38" s="397"/>
-      <c r="F38" s="397"/>
-      <c r="G38" s="398"/>
-      <c r="H38" s="396"/>
-      <c r="I38" s="397"/>
-      <c r="J38" s="399"/>
+      <c r="A38" s="427"/>
+      <c r="B38" s="426"/>
+      <c r="C38" s="384"/>
+      <c r="D38" s="385"/>
+      <c r="E38" s="385"/>
+      <c r="F38" s="385"/>
+      <c r="G38" s="426"/>
+      <c r="H38" s="384"/>
+      <c r="I38" s="385"/>
+      <c r="J38" s="386"/>
     </row>
     <row r="39" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A39" s="345" t="s">
+      <c r="A39" s="366" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="346"/>
-      <c r="C39" s="346"/>
-      <c r="D39" s="346"/>
-      <c r="E39" s="346"/>
-      <c r="F39" s="346"/>
-      <c r="G39" s="346"/>
-      <c r="H39" s="346"/>
-      <c r="I39" s="346"/>
-      <c r="J39" s="347"/>
+      <c r="B39" s="367"/>
+      <c r="C39" s="367"/>
+      <c r="D39" s="367"/>
+      <c r="E39" s="367"/>
+      <c r="F39" s="367"/>
+      <c r="G39" s="367"/>
+      <c r="H39" s="367"/>
+      <c r="I39" s="367"/>
+      <c r="J39" s="368"/>
     </row>
     <row r="40" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A40" s="378" t="s">
+      <c r="A40" s="411" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="379"/>
-      <c r="C40" s="379"/>
-      <c r="D40" s="379"/>
-      <c r="E40" s="379"/>
-      <c r="F40" s="379"/>
-      <c r="G40" s="379"/>
-      <c r="H40" s="379"/>
-      <c r="I40" s="379"/>
-      <c r="J40" s="380"/>
+      <c r="B40" s="412"/>
+      <c r="C40" s="412"/>
+      <c r="D40" s="412"/>
+      <c r="E40" s="412"/>
+      <c r="F40" s="412"/>
+      <c r="G40" s="412"/>
+      <c r="H40" s="412"/>
+      <c r="I40" s="412"/>
+      <c r="J40" s="413"/>
     </row>
     <row r="41" spans="1:10" ht="2.25" customHeight="1">
-      <c r="A41" s="404"/>
-      <c r="B41" s="341"/>
-      <c r="C41" s="341"/>
-      <c r="D41" s="341"/>
-      <c r="E41" s="341"/>
-      <c r="F41" s="341"/>
-      <c r="G41" s="341"/>
-      <c r="H41" s="341"/>
-      <c r="I41" s="341"/>
-      <c r="J41" s="405"/>
+      <c r="A41" s="409"/>
+      <c r="B41" s="362"/>
+      <c r="C41" s="362"/>
+      <c r="D41" s="362"/>
+      <c r="E41" s="362"/>
+      <c r="F41" s="362"/>
+      <c r="G41" s="362"/>
+      <c r="H41" s="362"/>
+      <c r="I41" s="362"/>
+      <c r="J41" s="410"/>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1"/>
     <row r="43" spans="1:10" ht="12" customHeight="1"/>
@@ -9617,30 +9622,43 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="77">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:J5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H13:J15"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B13:D15"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A24:D24"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="H19:J19"/>
@@ -9657,43 +9675,30 @@
     <mergeCell ref="H27:J27"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="H29:J29"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B13:D15"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H13:J15"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:J5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H30:J30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.26" bottom="0" header="0" footer="0"/>
@@ -9727,36 +9732,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="3" customHeight="1">
-      <c r="A1" s="384"/>
-      <c r="B1" s="385"/>
-      <c r="C1" s="385"/>
-      <c r="D1" s="385"/>
-      <c r="E1" s="385"/>
-      <c r="F1" s="385"/>
-      <c r="G1" s="385"/>
-      <c r="H1" s="385"/>
-      <c r="I1" s="386"/>
+      <c r="A1" s="417"/>
+      <c r="B1" s="418"/>
+      <c r="C1" s="418"/>
+      <c r="D1" s="418"/>
+      <c r="E1" s="418"/>
+      <c r="F1" s="418"/>
+      <c r="G1" s="418"/>
+      <c r="H1" s="418"/>
+      <c r="I1" s="419"/>
     </row>
     <row r="2" spans="1:9" ht="13.5" customHeight="1">
       <c r="A2" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="476" t="s">
+      <c r="B2" s="466" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="476"/>
-      <c r="D2" s="477"/>
+      <c r="C2" s="466"/>
+      <c r="D2" s="467"/>
       <c r="E2" s="61"/>
-      <c r="F2" s="462"/>
-      <c r="G2" s="462"/>
+      <c r="F2" s="459"/>
+      <c r="G2" s="459"/>
       <c r="H2" s="62"/>
       <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:9" ht="12" customHeight="1">
       <c r="A3" s="64"/>
-      <c r="B3" s="478"/>
-      <c r="C3" s="478"/>
-      <c r="D3" s="479"/>
+      <c r="B3" s="468"/>
+      <c r="C3" s="468"/>
+      <c r="D3" s="469"/>
       <c r="E3" s="9"/>
       <c r="F3" s="4"/>
       <c r="G3" s="9"/>
@@ -9767,61 +9772,61 @@
       <c r="A4" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="484" t="s">
+      <c r="B4" s="474" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="484"/>
-      <c r="D4" s="485"/>
+      <c r="C4" s="474"/>
+      <c r="D4" s="475"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="463"/>
-      <c r="G4" s="463"/>
+      <c r="F4" s="460"/>
+      <c r="G4" s="460"/>
       <c r="H4" s="15"/>
       <c r="I4" s="65"/>
     </row>
     <row r="5" spans="1:9" ht="12" customHeight="1">
       <c r="A5" s="64"/>
-      <c r="B5" s="484"/>
-      <c r="C5" s="484"/>
-      <c r="D5" s="485"/>
-      <c r="E5" s="464" t="s">
+      <c r="B5" s="474"/>
+      <c r="C5" s="474"/>
+      <c r="D5" s="475"/>
+      <c r="E5" s="461" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="465"/>
-      <c r="G5" s="465"/>
-      <c r="H5" s="465"/>
-      <c r="I5" s="466"/>
+      <c r="F5" s="462"/>
+      <c r="G5" s="462"/>
+      <c r="H5" s="462"/>
+      <c r="I5" s="463"/>
     </row>
     <row r="6" spans="1:9" ht="25.5" customHeight="1">
       <c r="A6" s="64"/>
-      <c r="B6" s="484"/>
-      <c r="C6" s="484"/>
-      <c r="D6" s="485"/>
-      <c r="E6" s="465"/>
-      <c r="F6" s="465"/>
-      <c r="G6" s="465"/>
-      <c r="H6" s="465"/>
-      <c r="I6" s="466"/>
+      <c r="B6" s="474"/>
+      <c r="C6" s="474"/>
+      <c r="D6" s="475"/>
+      <c r="E6" s="462"/>
+      <c r="F6" s="462"/>
+      <c r="G6" s="462"/>
+      <c r="H6" s="462"/>
+      <c r="I6" s="463"/>
     </row>
     <row r="7" spans="1:9" ht="26.25" customHeight="1">
       <c r="A7" s="64"/>
-      <c r="B7" s="484"/>
-      <c r="C7" s="484"/>
-      <c r="D7" s="485"/>
-      <c r="E7" s="467"/>
-      <c r="F7" s="467"/>
-      <c r="G7" s="467"/>
-      <c r="H7" s="467"/>
-      <c r="I7" s="468"/>
+      <c r="B7" s="474"/>
+      <c r="C7" s="474"/>
+      <c r="D7" s="475"/>
+      <c r="E7" s="464"/>
+      <c r="F7" s="464"/>
+      <c r="G7" s="464"/>
+      <c r="H7" s="464"/>
+      <c r="I7" s="465"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
       <c r="A8" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="484" t="s">
+      <c r="B8" s="474" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="484"/>
-      <c r="D8" s="485"/>
+      <c r="C8" s="474"/>
+      <c r="D8" s="475"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -9830,48 +9835,48 @@
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1">
       <c r="A9" s="64"/>
-      <c r="B9" s="484"/>
-      <c r="C9" s="484"/>
-      <c r="D9" s="485"/>
-      <c r="E9" s="480" t="s">
+      <c r="B9" s="474"/>
+      <c r="C9" s="474"/>
+      <c r="D9" s="475"/>
+      <c r="E9" s="470" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="465"/>
-      <c r="G9" s="465"/>
-      <c r="H9" s="465"/>
-      <c r="I9" s="466"/>
+      <c r="F9" s="462"/>
+      <c r="G9" s="462"/>
+      <c r="H9" s="462"/>
+      <c r="I9" s="463"/>
     </row>
     <row r="10" spans="1:9" ht="11.25" customHeight="1">
       <c r="A10" s="64"/>
-      <c r="B10" s="484"/>
-      <c r="C10" s="484"/>
-      <c r="D10" s="485"/>
-      <c r="E10" s="480"/>
-      <c r="F10" s="465"/>
-      <c r="G10" s="465"/>
-      <c r="H10" s="465"/>
-      <c r="I10" s="466"/>
+      <c r="B10" s="474"/>
+      <c r="C10" s="474"/>
+      <c r="D10" s="475"/>
+      <c r="E10" s="470"/>
+      <c r="F10" s="462"/>
+      <c r="G10" s="462"/>
+      <c r="H10" s="462"/>
+      <c r="I10" s="463"/>
     </row>
     <row r="11" spans="1:9" ht="28.5" customHeight="1">
       <c r="A11" s="88"/>
-      <c r="B11" s="486"/>
-      <c r="C11" s="486"/>
-      <c r="D11" s="487"/>
-      <c r="E11" s="481"/>
-      <c r="F11" s="482"/>
-      <c r="G11" s="482"/>
-      <c r="H11" s="482"/>
-      <c r="I11" s="483"/>
+      <c r="B11" s="476"/>
+      <c r="C11" s="476"/>
+      <c r="D11" s="477"/>
+      <c r="E11" s="471"/>
+      <c r="F11" s="472"/>
+      <c r="G11" s="472"/>
+      <c r="H11" s="472"/>
+      <c r="I11" s="473"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1">
       <c r="A12" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="469" t="s">
+      <c r="B12" s="441" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="469"/>
-      <c r="D12" s="470"/>
+      <c r="C12" s="441"/>
+      <c r="D12" s="442"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -9880,24 +9885,24 @@
     </row>
     <row r="13" spans="1:9" ht="42.75" customHeight="1">
       <c r="A13" s="68"/>
-      <c r="B13" s="471"/>
-      <c r="C13" s="471"/>
-      <c r="D13" s="472"/>
-      <c r="E13" s="473" t="s">
+      <c r="B13" s="443"/>
+      <c r="C13" s="443"/>
+      <c r="D13" s="444"/>
+      <c r="E13" s="453" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="474"/>
-      <c r="G13" s="474"/>
-      <c r="H13" s="474"/>
-      <c r="I13" s="475"/>
+      <c r="F13" s="437"/>
+      <c r="G13" s="437"/>
+      <c r="H13" s="437"/>
+      <c r="I13" s="438"/>
     </row>
     <row r="14" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A14" s="488"/>
-      <c r="B14" s="472" t="s">
+      <c r="A14" s="451"/>
+      <c r="B14" s="444" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="472"/>
-      <c r="D14" s="472"/>
+      <c r="C14" s="444"/>
+      <c r="D14" s="444"/>
       <c r="E14" s="79"/>
       <c r="F14" s="79"/>
       <c r="G14" s="79"/>
@@ -9905,28 +9910,28 @@
       <c r="I14" s="80"/>
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A15" s="488"/>
-      <c r="B15" s="472"/>
-      <c r="C15" s="472"/>
-      <c r="D15" s="472"/>
-      <c r="E15" s="473" t="s">
+      <c r="A15" s="451"/>
+      <c r="B15" s="444"/>
+      <c r="C15" s="444"/>
+      <c r="D15" s="444"/>
+      <c r="E15" s="453" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="474"/>
-      <c r="G15" s="474"/>
-      <c r="H15" s="474"/>
-      <c r="I15" s="475"/>
+      <c r="F15" s="437"/>
+      <c r="G15" s="437"/>
+      <c r="H15" s="437"/>
+      <c r="I15" s="438"/>
     </row>
     <row r="16" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A16" s="489"/>
-      <c r="B16" s="499"/>
-      <c r="C16" s="499"/>
-      <c r="D16" s="499"/>
-      <c r="E16" s="473"/>
-      <c r="F16" s="474"/>
-      <c r="G16" s="474"/>
-      <c r="H16" s="474"/>
-      <c r="I16" s="475"/>
+      <c r="A16" s="452"/>
+      <c r="B16" s="446"/>
+      <c r="C16" s="446"/>
+      <c r="D16" s="446"/>
+      <c r="E16" s="453"/>
+      <c r="F16" s="437"/>
+      <c r="G16" s="437"/>
+      <c r="H16" s="437"/>
+      <c r="I16" s="438"/>
     </row>
     <row r="17" spans="1:10" ht="9.75" hidden="1" customHeight="1">
       <c r="A17" s="69"/>
@@ -9943,11 +9948,11 @@
       <c r="A18" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="493" t="s">
+      <c r="B18" s="455" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="493"/>
-      <c r="D18" s="494"/>
+      <c r="C18" s="455"/>
+      <c r="D18" s="456"/>
       <c r="E18" s="87"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -9956,48 +9961,48 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1">
       <c r="A19" s="68"/>
-      <c r="B19" s="495"/>
-      <c r="C19" s="495"/>
-      <c r="D19" s="496"/>
-      <c r="E19" s="473" t="s">
+      <c r="B19" s="447"/>
+      <c r="C19" s="447"/>
+      <c r="D19" s="448"/>
+      <c r="E19" s="453" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="474"/>
-      <c r="G19" s="474"/>
-      <c r="H19" s="474"/>
-      <c r="I19" s="475"/>
+      <c r="F19" s="437"/>
+      <c r="G19" s="437"/>
+      <c r="H19" s="437"/>
+      <c r="I19" s="438"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" customHeight="1">
       <c r="A20" s="68"/>
-      <c r="B20" s="495"/>
-      <c r="C20" s="495"/>
-      <c r="D20" s="496"/>
-      <c r="E20" s="473"/>
-      <c r="F20" s="474"/>
-      <c r="G20" s="474"/>
-      <c r="H20" s="474"/>
-      <c r="I20" s="475"/>
+      <c r="B20" s="447"/>
+      <c r="C20" s="447"/>
+      <c r="D20" s="448"/>
+      <c r="E20" s="453"/>
+      <c r="F20" s="437"/>
+      <c r="G20" s="437"/>
+      <c r="H20" s="437"/>
+      <c r="I20" s="438"/>
     </row>
     <row r="21" spans="1:10" ht="11.25" customHeight="1">
       <c r="A21" s="70"/>
-      <c r="B21" s="497"/>
-      <c r="C21" s="497"/>
-      <c r="D21" s="498"/>
-      <c r="E21" s="490"/>
-      <c r="F21" s="491"/>
-      <c r="G21" s="491"/>
-      <c r="H21" s="491"/>
-      <c r="I21" s="492"/>
+      <c r="B21" s="457"/>
+      <c r="C21" s="457"/>
+      <c r="D21" s="458"/>
+      <c r="E21" s="454"/>
+      <c r="F21" s="439"/>
+      <c r="G21" s="439"/>
+      <c r="H21" s="439"/>
+      <c r="I21" s="440"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1">
       <c r="A22" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="493" t="s">
+      <c r="B22" s="455" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="493"/>
-      <c r="D22" s="494"/>
+      <c r="C22" s="455"/>
+      <c r="D22" s="456"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -10006,9 +10011,9 @@
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="68"/>
-      <c r="B23" s="495"/>
-      <c r="C23" s="495"/>
-      <c r="D23" s="496"/>
+      <c r="B23" s="447"/>
+      <c r="C23" s="447"/>
+      <c r="D23" s="448"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -10017,37 +10022,37 @@
     </row>
     <row r="24" spans="1:10" ht="11.25" customHeight="1">
       <c r="A24" s="68"/>
-      <c r="B24" s="495"/>
-      <c r="C24" s="495"/>
-      <c r="D24" s="496"/>
-      <c r="E24" s="474" t="s">
+      <c r="B24" s="447"/>
+      <c r="C24" s="447"/>
+      <c r="D24" s="448"/>
+      <c r="E24" s="437" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="474"/>
-      <c r="G24" s="474"/>
-      <c r="H24" s="474"/>
-      <c r="I24" s="475"/>
+      <c r="F24" s="437"/>
+      <c r="G24" s="437"/>
+      <c r="H24" s="437"/>
+      <c r="I24" s="438"/>
     </row>
     <row r="25" spans="1:10" ht="38.25" customHeight="1">
       <c r="A25" s="68"/>
-      <c r="B25" s="497"/>
-      <c r="C25" s="497"/>
-      <c r="D25" s="498"/>
-      <c r="E25" s="491"/>
-      <c r="F25" s="491"/>
-      <c r="G25" s="491"/>
-      <c r="H25" s="491"/>
-      <c r="I25" s="492"/>
+      <c r="B25" s="457"/>
+      <c r="C25" s="457"/>
+      <c r="D25" s="458"/>
+      <c r="E25" s="439"/>
+      <c r="F25" s="439"/>
+      <c r="G25" s="439"/>
+      <c r="H25" s="439"/>
+      <c r="I25" s="440"/>
     </row>
     <row r="26" spans="1:10" ht="18" customHeight="1">
       <c r="A26" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="469" t="s">
+      <c r="B26" s="441" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="469"/>
-      <c r="D26" s="470"/>
+      <c r="C26" s="441"/>
+      <c r="D26" s="442"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -10056,48 +10061,48 @@
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="68"/>
-      <c r="B27" s="471"/>
-      <c r="C27" s="471"/>
-      <c r="D27" s="472"/>
-      <c r="E27" s="474" t="s">
+      <c r="B27" s="443"/>
+      <c r="C27" s="443"/>
+      <c r="D27" s="444"/>
+      <c r="E27" s="437" t="s">
         <v>122</v>
       </c>
-      <c r="F27" s="474"/>
-      <c r="G27" s="474"/>
-      <c r="H27" s="474"/>
-      <c r="I27" s="475"/>
+      <c r="F27" s="437"/>
+      <c r="G27" s="437"/>
+      <c r="H27" s="437"/>
+      <c r="I27" s="438"/>
     </row>
     <row r="28" spans="1:10" ht="11.25" customHeight="1">
       <c r="A28" s="68"/>
-      <c r="B28" s="471"/>
-      <c r="C28" s="471"/>
-      <c r="D28" s="472"/>
-      <c r="E28" s="474"/>
-      <c r="F28" s="474"/>
-      <c r="G28" s="474"/>
-      <c r="H28" s="474"/>
-      <c r="I28" s="475"/>
+      <c r="B28" s="443"/>
+      <c r="C28" s="443"/>
+      <c r="D28" s="444"/>
+      <c r="E28" s="437"/>
+      <c r="F28" s="437"/>
+      <c r="G28" s="437"/>
+      <c r="H28" s="437"/>
+      <c r="I28" s="438"/>
     </row>
     <row r="29" spans="1:10" ht="17.25" customHeight="1">
       <c r="A29" s="70"/>
-      <c r="B29" s="506"/>
-      <c r="C29" s="506"/>
-      <c r="D29" s="499"/>
-      <c r="E29" s="491"/>
-      <c r="F29" s="491"/>
-      <c r="G29" s="491"/>
-      <c r="H29" s="491"/>
-      <c r="I29" s="492"/>
+      <c r="B29" s="445"/>
+      <c r="C29" s="445"/>
+      <c r="D29" s="446"/>
+      <c r="E29" s="439"/>
+      <c r="F29" s="439"/>
+      <c r="G29" s="439"/>
+      <c r="H29" s="439"/>
+      <c r="I29" s="440"/>
     </row>
     <row r="30" spans="1:10" ht="28.5" customHeight="1">
       <c r="A30" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="B30" s="495" t="s">
+      <c r="B30" s="447" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="495"/>
-      <c r="D30" s="496"/>
+      <c r="C30" s="447"/>
+      <c r="D30" s="448"/>
       <c r="E30" s="8"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -10106,9 +10111,9 @@
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1">
       <c r="A31" s="83"/>
-      <c r="B31" s="495"/>
-      <c r="C31" s="495"/>
-      <c r="D31" s="496"/>
+      <c r="B31" s="447"/>
+      <c r="C31" s="447"/>
+      <c r="D31" s="448"/>
       <c r="E31" s="75"/>
       <c r="F31" s="75"/>
       <c r="G31" s="75"/>
@@ -10120,11 +10125,11 @@
       <c r="A32" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="B32" s="495" t="s">
+      <c r="B32" s="447" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="495"/>
-      <c r="D32" s="496"/>
+      <c r="C32" s="447"/>
+      <c r="D32" s="448"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -10134,27 +10139,27 @@
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1">
       <c r="A33" s="83"/>
-      <c r="B33" s="495"/>
-      <c r="C33" s="495"/>
-      <c r="D33" s="496"/>
-      <c r="E33" s="507" t="s">
+      <c r="B33" s="447"/>
+      <c r="C33" s="447"/>
+      <c r="D33" s="448"/>
+      <c r="E33" s="449" t="s">
         <v>134</v>
       </c>
-      <c r="F33" s="507"/>
-      <c r="G33" s="507"/>
-      <c r="H33" s="507"/>
-      <c r="I33" s="508"/>
+      <c r="F33" s="449"/>
+      <c r="G33" s="449"/>
+      <c r="H33" s="449"/>
+      <c r="I33" s="450"/>
       <c r="J33" s="86"/>
     </row>
     <row r="34" spans="1:10" ht="13.5" customHeight="1">
       <c r="A34" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="B34" s="496" t="s">
+      <c r="B34" s="448" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="496"/>
-      <c r="D34" s="496"/>
+      <c r="C34" s="448"/>
+      <c r="D34" s="448"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -10164,27 +10169,27 @@
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
       <c r="A35" s="83"/>
-      <c r="B35" s="496"/>
-      <c r="C35" s="496"/>
-      <c r="D35" s="496"/>
-      <c r="E35" s="507" t="s">
+      <c r="B35" s="448"/>
+      <c r="C35" s="448"/>
+      <c r="D35" s="448"/>
+      <c r="E35" s="449" t="s">
         <v>134</v>
       </c>
-      <c r="F35" s="507"/>
-      <c r="G35" s="507"/>
-      <c r="H35" s="507"/>
-      <c r="I35" s="508"/>
+      <c r="F35" s="449"/>
+      <c r="G35" s="449"/>
+      <c r="H35" s="449"/>
+      <c r="I35" s="450"/>
       <c r="J35" s="86"/>
     </row>
     <row r="36" spans="1:10" ht="13.5" customHeight="1">
       <c r="A36" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="B36" s="496" t="s">
+      <c r="B36" s="448" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="496"/>
-      <c r="D36" s="496"/>
+      <c r="C36" s="448"/>
+      <c r="D36" s="448"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -10194,27 +10199,27 @@
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1">
       <c r="A37" s="83"/>
-      <c r="B37" s="496"/>
-      <c r="C37" s="496"/>
-      <c r="D37" s="496"/>
-      <c r="E37" s="507" t="s">
+      <c r="B37" s="448"/>
+      <c r="C37" s="448"/>
+      <c r="D37" s="448"/>
+      <c r="E37" s="449" t="s">
         <v>134</v>
       </c>
-      <c r="F37" s="507"/>
-      <c r="G37" s="507"/>
-      <c r="H37" s="507"/>
-      <c r="I37" s="508"/>
+      <c r="F37" s="449"/>
+      <c r="G37" s="449"/>
+      <c r="H37" s="449"/>
+      <c r="I37" s="450"/>
       <c r="J37" s="86"/>
     </row>
     <row r="38" spans="1:10" ht="3.75" customHeight="1">
       <c r="A38" s="84"/>
-      <c r="B38" s="504"/>
-      <c r="C38" s="504"/>
-      <c r="D38" s="505"/>
-      <c r="E38" s="500"/>
-      <c r="F38" s="500"/>
-      <c r="G38" s="501"/>
-      <c r="H38" s="501"/>
+      <c r="B38" s="435"/>
+      <c r="C38" s="435"/>
+      <c r="D38" s="436"/>
+      <c r="E38" s="429"/>
+      <c r="F38" s="429"/>
+      <c r="G38" s="430"/>
+      <c r="H38" s="430"/>
       <c r="I38" s="72"/>
       <c r="J38" s="10"/>
     </row>
@@ -10222,16 +10227,16 @@
       <c r="A39" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="B39" s="502" t="s">
+      <c r="B39" s="431" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="502"/>
-      <c r="D39" s="502"/>
-      <c r="E39" s="502"/>
-      <c r="F39" s="502"/>
-      <c r="G39" s="503"/>
-      <c r="H39" s="503"/>
-      <c r="I39" s="503"/>
+      <c r="C39" s="431"/>
+      <c r="D39" s="431"/>
+      <c r="E39" s="431"/>
+      <c r="F39" s="431"/>
+      <c r="G39" s="432"/>
+      <c r="H39" s="432"/>
+      <c r="I39" s="432"/>
       <c r="J39" s="10"/>
     </row>
     <row r="40" spans="1:10" ht="18" customHeight="1">
@@ -10243,87 +10248,87 @@
       <c r="D40" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E40" s="460" t="s">
+      <c r="E40" s="508" t="s">
         <v>143</v>
       </c>
-      <c r="F40" s="461"/>
-      <c r="G40" s="447" t="s">
+      <c r="F40" s="509"/>
+      <c r="G40" s="497" t="s">
         <v>147</v>
       </c>
-      <c r="H40" s="448"/>
-      <c r="I40" s="449"/>
+      <c r="H40" s="498"/>
+      <c r="I40" s="499"/>
     </row>
     <row r="41" spans="1:10" ht="19.5" customHeight="1">
       <c r="A41" s="56"/>
       <c r="B41" s="24"/>
       <c r="C41" s="25"/>
       <c r="D41" s="26"/>
-      <c r="E41" s="456"/>
-      <c r="F41" s="457"/>
-      <c r="G41" s="450"/>
-      <c r="H41" s="451"/>
-      <c r="I41" s="452"/>
+      <c r="E41" s="433"/>
+      <c r="F41" s="434"/>
+      <c r="G41" s="500"/>
+      <c r="H41" s="501"/>
+      <c r="I41" s="502"/>
     </row>
     <row r="42" spans="1:10" ht="20.25" customHeight="1">
       <c r="A42" s="56"/>
       <c r="B42" s="24"/>
       <c r="C42" s="25"/>
       <c r="D42" s="26"/>
-      <c r="E42" s="456"/>
-      <c r="F42" s="457"/>
-      <c r="G42" s="450"/>
-      <c r="H42" s="451"/>
-      <c r="I42" s="452"/>
+      <c r="E42" s="433"/>
+      <c r="F42" s="434"/>
+      <c r="G42" s="500"/>
+      <c r="H42" s="501"/>
+      <c r="I42" s="502"/>
     </row>
     <row r="43" spans="1:10" ht="21.75" customHeight="1" thickBot="1">
       <c r="A43" s="57"/>
       <c r="B43" s="58"/>
       <c r="C43" s="59"/>
       <c r="D43" s="60"/>
-      <c r="E43" s="458"/>
-      <c r="F43" s="459"/>
-      <c r="G43" s="450"/>
-      <c r="H43" s="451"/>
-      <c r="I43" s="452"/>
+      <c r="E43" s="506"/>
+      <c r="F43" s="507"/>
+      <c r="G43" s="500"/>
+      <c r="H43" s="501"/>
+      <c r="I43" s="502"/>
     </row>
     <row r="44" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A44" s="434" t="s">
+      <c r="A44" s="484" t="s">
         <v>144</v>
       </c>
-      <c r="B44" s="445" t="s">
+      <c r="B44" s="495" t="s">
         <v>145</v>
       </c>
-      <c r="C44" s="445"/>
-      <c r="D44" s="445"/>
-      <c r="E44" s="445"/>
-      <c r="F44" s="446"/>
-      <c r="G44" s="450"/>
-      <c r="H44" s="451"/>
-      <c r="I44" s="452"/>
+      <c r="C44" s="495"/>
+      <c r="D44" s="495"/>
+      <c r="E44" s="495"/>
+      <c r="F44" s="496"/>
+      <c r="G44" s="500"/>
+      <c r="H44" s="501"/>
+      <c r="I44" s="502"/>
     </row>
     <row r="45" spans="1:10" ht="7.5" customHeight="1">
-      <c r="A45" s="435"/>
+      <c r="A45" s="485"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
       <c r="F45" s="46"/>
-      <c r="G45" s="450"/>
-      <c r="H45" s="451"/>
-      <c r="I45" s="452"/>
+      <c r="G45" s="500"/>
+      <c r="H45" s="501"/>
+      <c r="I45" s="502"/>
     </row>
     <row r="46" spans="1:10" ht="26.25" customHeight="1" thickBot="1">
       <c r="A46" s="47"/>
-      <c r="B46" s="443" t="s">
+      <c r="B46" s="493" t="s">
         <v>146</v>
       </c>
-      <c r="C46" s="443"/>
-      <c r="D46" s="443"/>
-      <c r="E46" s="443"/>
-      <c r="F46" s="444"/>
-      <c r="G46" s="453"/>
-      <c r="H46" s="454"/>
-      <c r="I46" s="455"/>
+      <c r="C46" s="493"/>
+      <c r="D46" s="493"/>
+      <c r="E46" s="493"/>
+      <c r="F46" s="494"/>
+      <c r="G46" s="503"/>
+      <c r="H46" s="504"/>
+      <c r="I46" s="505"/>
     </row>
     <row r="47" spans="1:10" ht="6.75" customHeight="1">
       <c r="A47" s="44"/>
@@ -10338,13 +10343,13 @@
     </row>
     <row r="48" spans="1:10" ht="16.5" customHeight="1">
       <c r="A48" s="38"/>
-      <c r="B48" s="509"/>
+      <c r="B48" s="150"/>
       <c r="C48" s="10"/>
-      <c r="D48" s="433"/>
-      <c r="E48" s="433"/>
-      <c r="F48" s="433"/>
+      <c r="D48" s="483"/>
+      <c r="E48" s="483"/>
+      <c r="F48" s="483"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="440"/>
+      <c r="H48" s="490"/>
       <c r="I48" s="39"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1">
@@ -10353,33 +10358,33 @@
         <v>148</v>
       </c>
       <c r="C49" s="10"/>
-      <c r="D49" s="433"/>
-      <c r="E49" s="433"/>
-      <c r="F49" s="433"/>
+      <c r="D49" s="483"/>
+      <c r="E49" s="483"/>
+      <c r="F49" s="483"/>
       <c r="G49" s="10"/>
-      <c r="H49" s="441"/>
+      <c r="H49" s="491"/>
       <c r="I49" s="39"/>
     </row>
     <row r="50" spans="1:9" ht="6" customHeight="1">
       <c r="A50" s="38"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
-      <c r="D50" s="433"/>
-      <c r="E50" s="433"/>
-      <c r="F50" s="433"/>
+      <c r="D50" s="483"/>
+      <c r="E50" s="483"/>
+      <c r="F50" s="483"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="441"/>
+      <c r="H50" s="491"/>
       <c r="I50" s="39"/>
     </row>
     <row r="51" spans="1:9" ht="16.5" customHeight="1">
       <c r="A51" s="38"/>
-      <c r="B51" s="509"/>
+      <c r="B51" s="150"/>
       <c r="C51" s="10"/>
-      <c r="D51" s="433"/>
-      <c r="E51" s="433"/>
-      <c r="F51" s="433"/>
+      <c r="D51" s="483"/>
+      <c r="E51" s="483"/>
+      <c r="F51" s="483"/>
       <c r="G51" s="10"/>
-      <c r="H51" s="441"/>
+      <c r="H51" s="491"/>
       <c r="I51" s="39"/>
     </row>
     <row r="52" spans="1:9" ht="14.25" customHeight="1">
@@ -10388,13 +10393,13 @@
         <v>149</v>
       </c>
       <c r="C52" s="10"/>
-      <c r="D52" s="431" t="s">
+      <c r="D52" s="481" t="s">
         <v>150</v>
       </c>
-      <c r="E52" s="432"/>
-      <c r="F52" s="432"/>
+      <c r="E52" s="482"/>
+      <c r="F52" s="482"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="441"/>
+      <c r="H52" s="491"/>
       <c r="I52" s="39"/>
     </row>
     <row r="53" spans="1:9" ht="4.5" customHeight="1">
@@ -10405,7 +10410,7 @@
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="441"/>
+      <c r="H53" s="491"/>
       <c r="I53" s="39"/>
     </row>
     <row r="54" spans="1:9" ht="16.5" customHeight="1">
@@ -10414,11 +10419,11 @@
         <v>151</v>
       </c>
       <c r="C54" s="10"/>
-      <c r="D54" s="439"/>
-      <c r="E54" s="439"/>
-      <c r="F54" s="439"/>
+      <c r="D54" s="489"/>
+      <c r="E54" s="489"/>
+      <c r="F54" s="489"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="442"/>
+      <c r="H54" s="492"/>
       <c r="I54" s="39"/>
     </row>
     <row r="55" spans="1:9" ht="14.25" customHeight="1">
@@ -10427,11 +10432,11 @@
         <v>152</v>
       </c>
       <c r="C55" s="10"/>
-      <c r="D55" s="431" t="s">
+      <c r="D55" s="481" t="s">
         <v>153</v>
       </c>
-      <c r="E55" s="431"/>
-      <c r="F55" s="431"/>
+      <c r="E55" s="481"/>
+      <c r="F55" s="481"/>
       <c r="G55" s="3"/>
       <c r="H55" s="78" t="s">
         <v>154</v>
@@ -10472,32 +10477,62 @@
       <c r="I58" s="54"/>
     </row>
     <row r="59" spans="1:9" ht="15" customHeight="1">
-      <c r="A59" s="436" t="s">
+      <c r="A59" s="486" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="437"/>
-      <c r="C59" s="437"/>
-      <c r="D59" s="437"/>
-      <c r="E59" s="437"/>
-      <c r="F59" s="437"/>
-      <c r="G59" s="437"/>
-      <c r="H59" s="437"/>
-      <c r="I59" s="438"/>
+      <c r="B59" s="487"/>
+      <c r="C59" s="487"/>
+      <c r="D59" s="487"/>
+      <c r="E59" s="487"/>
+      <c r="F59" s="487"/>
+      <c r="G59" s="487"/>
+      <c r="H59" s="487"/>
+      <c r="I59" s="488"/>
     </row>
     <row r="60" spans="1:9" ht="2.25" customHeight="1">
-      <c r="A60" s="428"/>
-      <c r="B60" s="429"/>
-      <c r="C60" s="429"/>
-      <c r="D60" s="429"/>
-      <c r="E60" s="429"/>
-      <c r="F60" s="429"/>
-      <c r="G60" s="429"/>
-      <c r="H60" s="429"/>
-      <c r="I60" s="430"/>
+      <c r="A60" s="478"/>
+      <c r="B60" s="479"/>
+      <c r="C60" s="479"/>
+      <c r="D60" s="479"/>
+      <c r="E60" s="479"/>
+      <c r="F60" s="479"/>
+      <c r="G60" s="479"/>
+      <c r="H60" s="479"/>
+      <c r="I60" s="480"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="44">
+    <mergeCell ref="A60:I60"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D48:F51"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A59:I59"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="H48:H54"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="G40:I46"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="E5:I7"/>
+    <mergeCell ref="B12:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E9:I11"/>
+    <mergeCell ref="B8:D11"/>
+    <mergeCell ref="B4:D7"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="E19:I21"/>
+    <mergeCell ref="B22:D25"/>
+    <mergeCell ref="B14:D16"/>
+    <mergeCell ref="E15:I16"/>
+    <mergeCell ref="B18:D21"/>
     <mergeCell ref="E38:H38"/>
     <mergeCell ref="B39:I39"/>
     <mergeCell ref="E41:F41"/>
@@ -10512,36 +10547,6 @@
     <mergeCell ref="E33:I33"/>
     <mergeCell ref="E35:I35"/>
     <mergeCell ref="E37:I37"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="E19:I21"/>
-    <mergeCell ref="B22:D25"/>
-    <mergeCell ref="B14:D16"/>
-    <mergeCell ref="E15:I16"/>
-    <mergeCell ref="B18:D21"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="E5:I7"/>
-    <mergeCell ref="B12:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E9:I11"/>
-    <mergeCell ref="B8:D11"/>
-    <mergeCell ref="B4:D7"/>
-    <mergeCell ref="A60:I60"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D48:F51"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A59:I59"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="H48:H54"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="G40:I46"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E40:F40"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.2" bottom="0" header="0.17" footer="0"/>
